--- a/PDE3 database - Institute of Translational Medicine - University of Liverpool.xlsx
+++ b/PDE3 database - Institute of Translational Medicine - University of Liverpool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivbie\Documents\2020 - Projetos mestrado\CYFIP2\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAE0891-B3D2-4D4A-9110-BD4FD1CD1D75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C12425-A7E0-42C5-AA8D-3C9F66A05400}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1504,7 +1504,7 @@
     <t>Compound Name</t>
   </si>
   <si>
-    <t>https://1drv.ms/u/s!AhSq1zsYbWoogbRnTraaotSvfFzNdg?e=hkNSgd</t>
+    <t>https://github.com/isisventbiem/pde3database</t>
   </si>
 </sst>
 </file>
@@ -8202,7 +8202,7 @@
   <dimension ref="B2:F175"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/PDE3 database - Institute of Translational Medicine - University of Liverpool.xlsx
+++ b/PDE3 database - Institute of Translational Medicine - University of Liverpool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivbie\Documents\2020 - Projetos mestrado\CYFIP2\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C12425-A7E0-42C5-AA8D-3C9F66A05400}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28138C4-CD3E-4400-B5D0-C4811DA48218}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="535">
   <si>
     <t>Name</t>
   </si>
@@ -1504,7 +1504,136 @@
     <t>Compound Name</t>
   </si>
   <si>
-    <t>https://github.com/isisventbiem/pde3database</t>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/C16%20H15%20F6%20N5%20O.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/C28%20H27%20N%20O4%20S.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C10%20H7%20N3%20S.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C12%20H11%20CL%20N2%20O5%20S.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C13%20H18%20N4%20O3.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C13%20H18%20O2.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C14%20H11%20CL2%20N%20O2.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C14%20H22%20N2%20O3.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C16%20H21%20N%20O2.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C17%20H14%20F3%20N3%20O2%20S.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C18%20H17%20CL2%20N%20O4.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C18%20H22%20N2.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C18%20H26%20CL%20N3.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C18%20H26%20O2.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C18%20H36%20N4%20O11.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C19%20H16%20CL%20N%20O4.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C19%20H28%20O2.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C2%20H%20BR%20CL%20F3.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C2%20H6%20O%20S.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C2%20H7%20N%20S.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C20%20H23%20N8%20O5%201%2B.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C21%20H24%20F3%20N3%20S.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C21%20H30%20O2.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C22%20H24%20N2%20O8.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C22%20H24%20N2%20O8(1).txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C22%20H29%20F%20O5.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C22%20H30%20N6%20O4%20S.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C23%20H27%20N3%20O7.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C24%20H36%20O5.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C25%20H40%20O6.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C26%20H29%20N%20O.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C27%20H44%20O.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C27%20H44%20O3.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C3%20H2%20CL%20F5%20O.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C33%20H35%20F%20N2%20O5.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C35%20H38%20CL%20N%20O3%20S.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C41%20H64%20O14.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C44%20H69%20N%20O12.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C5%20H4%20N4%20O.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C51%20H79%20N%20O13.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C6%20H8%20CL%20N7%20O.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C9%20H13%20N%20O3.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C9%20H15%20N%20O3%20S.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C9%20H8%20O4.txt</t>
   </si>
 </sst>
 </file>
@@ -1587,7 +1716,37 @@
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1787,17 +1946,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B424DCE3-2D94-4B01-8D4C-13D38CF07CAE}" name="Tabela1" displayName="Tabela1" ref="B2:Q174" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B424DCE3-2D94-4B01-8D4C-13D38CF07CAE}" name="Tabela1" displayName="Tabela1" ref="B2:Q174" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="B2:Q174" xr:uid="{4AB5E234-523A-40D6-A65E-0BBB1D90474A}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{4D3698C4-EA49-4C98-83ED-B651DA65BAD9}" name="Compound ID" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{4D3698C4-EA49-4C98-83ED-B651DA65BAD9}" name="Compound ID" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{1A309358-CA89-41E0-9A90-F70309D9DB35}" name="Name"/>
     <tableColumn id="3" xr3:uid="{D13F5563-5245-4C67-94CA-3D8EDEFE37DF}" name="Indications"/>
-    <tableColumn id="4" xr3:uid="{76964F19-9FCA-42C4-B5B4-2AF969873583}" name="First licensed (year)" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{B915C42A-C3AD-4EE8-B307-583A94B2DF61}" name="Prescriptions items dispensed in England in 2016 (number)" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{1B0C2226-493B-4FBE-99AD-673CA85A1B15}" name="Prescriptions items dispensed in England in 2016 (rank)" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{D6EC2CBC-8C62-4043-BB6D-10AA76365A08}" name="Number of studies" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{0A534E60-C891-4915-8B75-E57E2E5FF298}" name="Number of unique models" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{76964F19-9FCA-42C4-B5B4-2AF969873583}" name="First licensed (year)" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{B915C42A-C3AD-4EE8-B307-583A94B2DF61}" name="Prescriptions items dispensed in England in 2016 (number)" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{1B0C2226-493B-4FBE-99AD-673CA85A1B15}" name="Prescriptions items dispensed in England in 2016 (rank)" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{D6EC2CBC-8C62-4043-BB6D-10AA76365A08}" name="Number of studies" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{0A534E60-C891-4915-8B75-E57E2E5FF298}" name="Number of unique models" dataDxfId="7"/>
     <tableColumn id="9" xr3:uid="{A9116F38-0E87-4451-8ABE-9A3C77A0A932}" name="Models"/>
     <tableColumn id="10" xr3:uid="{29B8A375-527D-4674-B623-E53F6154EE54}" name="AEDs enhanced"/>
     <tableColumn id="11" xr3:uid="{1CDE8E53-BAB9-4B1F-B65F-C4873C03DFE7}" name="Number of studies2"/>
@@ -1812,14 +1971,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54767107-61A5-4E5F-84FA-2A8D9B5C4D10}" name="Tabela2" displayName="Tabela2" ref="B2:F175" totalsRowCount="1" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54767107-61A5-4E5F-84FA-2A8D9B5C4D10}" name="Tabela2" displayName="Tabela2" ref="B2:F175" totalsRowCount="1" headerRowDxfId="6">
   <autoFilter ref="B2:F174" xr:uid="{2A0284F6-0E4E-4CE1-9526-7ACFD806AE5D}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F07FB46E-2261-4395-95B4-499CFE4DC5CC}" name="File ID" totalsRowLabel="Total" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{824CA5B7-C3F1-4EF2-BF5E-B7E729203F26}" name="Compound ID" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{F07FB46E-2261-4395-95B4-499CFE4DC5CC}" name="File ID" totalsRowLabel="Total" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{824CA5B7-C3F1-4EF2-BF5E-B7E729203F26}" name="Compound ID" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{8E5ABDBD-3B43-49EC-BA36-F6AADA0EA1ED}" name="Compound Name"/>
     <tableColumn id="3" xr3:uid="{18BA9869-4705-4B91-9295-CA0136FABA04}" name="File Name" totalsRowFunction="count"/>
-    <tableColumn id="4" xr3:uid="{FB23DE31-DBC1-42B4-ABAA-CDF6F245AAEB}" name="File Adress" totalsRowFunction="count" dataDxfId="0" dataCellStyle="Hiperlink"/>
+    <tableColumn id="4" xr3:uid="{FB23DE31-DBC1-42B4-ABAA-CDF6F245AAEB}" name="File Adress" totalsRowFunction="count" dataDxfId="3" dataCellStyle="Hiperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8202,7 +8361,7 @@
   <dimension ref="B2:F175"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8244,7 +8403,7 @@
         <v>397</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>491</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -8261,7 +8420,7 @@
         <v>396</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>491</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -8274,9 +8433,7 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="9">
@@ -8292,7 +8449,7 @@
         <v>398</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>491</v>
+        <v>534</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -8309,7 +8466,7 @@
         <v>424</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>491</v>
+        <v>522</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -8322,9 +8479,7 @@
       <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="9">
@@ -8336,9 +8491,7 @@
       <c r="D9" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="9">
@@ -8350,9 +8503,7 @@
       <c r="D10" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="9">
@@ -8368,7 +8519,7 @@
         <v>425</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -8381,9 +8532,7 @@
       <c r="D12" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="9">
@@ -8395,9 +8544,7 @@
       <c r="D13" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="9">
@@ -8413,7 +8560,7 @@
         <v>399</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -8426,9 +8573,7 @@
       <c r="D15" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="9">
@@ -8440,9 +8585,7 @@
       <c r="D16" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="9">
@@ -8454,9 +8597,7 @@
       <c r="D17" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="9">
@@ -8472,7 +8613,7 @@
         <v>426</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>491</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -8489,7 +8630,7 @@
         <v>427</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -8502,9 +8643,7 @@
       <c r="D20" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="9">
@@ -8520,7 +8659,7 @@
         <v>400</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -8537,7 +8676,7 @@
         <v>401</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -8550,12 +8689,7 @@
       <c r="D23" t="s">
         <v>71</v>
       </c>
-      <c r="E23" t="s">
-        <v>407</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="9">
@@ -8571,7 +8705,7 @@
         <v>402</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>491</v>
+        <v>527</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -8584,9 +8718,7 @@
       <c r="D25" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="9">
@@ -8598,9 +8730,7 @@
       <c r="D26" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="9">
@@ -8612,9 +8742,7 @@
       <c r="D27" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="9">
@@ -8630,7 +8758,7 @@
         <v>403</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>491</v>
+        <v>517</v>
       </c>
     </row>
     <row r="29" spans="2:6">
@@ -8643,9 +8771,7 @@
       <c r="D29" t="s">
         <v>91</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="9">
@@ -8661,7 +8787,7 @@
         <v>404</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
     </row>
     <row r="31" spans="2:6">
@@ -8695,7 +8821,7 @@
         <v>405</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>491</v>
+        <v>526</v>
       </c>
     </row>
     <row r="33" spans="2:6">
@@ -8708,9 +8834,7 @@
       <c r="D33" t="s">
         <v>99</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F33" s="5"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="9">
@@ -8726,7 +8850,7 @@
         <v>406</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
     </row>
     <row r="35" spans="2:6">
@@ -8739,9 +8863,7 @@
       <c r="D35" t="s">
         <v>103</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F35" s="5"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="9">
@@ -8753,9 +8875,7 @@
       <c r="D36" t="s">
         <v>107</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F36" s="5"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="9">
@@ -8767,9 +8887,7 @@
       <c r="D37" t="s">
         <v>109</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F37" s="5"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="9">
@@ -8781,9 +8899,7 @@
       <c r="D38" t="s">
         <v>112</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F38" s="5"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="9">
@@ -8795,9 +8911,7 @@
       <c r="D39" t="s">
         <v>114</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F39" s="5"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="9">
@@ -8809,9 +8923,7 @@
       <c r="D40" t="s">
         <v>119</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F40" s="5"/>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="9">
@@ -8823,9 +8935,7 @@
       <c r="D41" t="s">
         <v>121</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F41" s="5"/>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="9">
@@ -8837,9 +8947,7 @@
       <c r="D42" t="s">
         <v>123</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F42" s="5"/>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="9">
@@ -8855,7 +8963,7 @@
         <v>407</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>491</v>
+        <v>516</v>
       </c>
     </row>
     <row r="44" spans="2:6">
@@ -8868,9 +8976,7 @@
       <c r="D44" t="s">
         <v>128</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F44" s="5"/>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="9">
@@ -8882,9 +8988,7 @@
       <c r="D45" t="s">
         <v>131</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F45" s="5"/>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="9">
@@ -8896,9 +9000,7 @@
       <c r="D46" t="s">
         <v>135</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F46" s="5"/>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="9">
@@ -8910,9 +9012,7 @@
       <c r="D47" t="s">
         <v>136</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F47" s="5"/>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="9">
@@ -8924,9 +9024,7 @@
       <c r="D48" t="s">
         <v>138</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F48" s="5"/>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="9">
@@ -8938,9 +9036,7 @@
       <c r="D49" t="s">
         <v>139</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F49" s="5"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="9">
@@ -8952,9 +9048,7 @@
       <c r="D50" t="s">
         <v>141</v>
       </c>
-      <c r="F50" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F50" s="5"/>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="9">
@@ -8970,7 +9064,7 @@
         <v>408</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
     </row>
     <row r="52" spans="2:6">
@@ -8983,9 +9077,7 @@
       <c r="D52" t="s">
         <v>145</v>
       </c>
-      <c r="F52" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F52" s="5"/>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="9">
@@ -8997,9 +9089,7 @@
       <c r="D53" t="s">
         <v>150</v>
       </c>
-      <c r="F53" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F53" s="5"/>
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="9">
@@ -9015,7 +9105,7 @@
         <v>429</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>491</v>
+        <v>521</v>
       </c>
     </row>
     <row r="55" spans="2:6">
@@ -9028,9 +9118,7 @@
       <c r="D55" t="s">
         <v>155</v>
       </c>
-      <c r="F55" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F55" s="5"/>
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="9">
@@ -9042,9 +9130,7 @@
       <c r="D56" t="s">
         <v>159</v>
       </c>
-      <c r="F56" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F56" s="5"/>
     </row>
     <row r="57" spans="2:6">
       <c r="B57" s="9">
@@ -9056,9 +9142,7 @@
       <c r="D57" t="s">
         <v>161</v>
       </c>
-      <c r="F57" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F57" s="5"/>
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="9">
@@ -9070,9 +9154,7 @@
       <c r="D58" t="s">
         <v>163</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F58" s="5"/>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="9">
@@ -9084,9 +9166,7 @@
       <c r="D59" t="s">
         <v>165</v>
       </c>
-      <c r="F59" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F59" s="5"/>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="9">
@@ -9098,9 +9178,7 @@
       <c r="D60" t="s">
         <v>167</v>
       </c>
-      <c r="F60" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F60" s="5"/>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="9">
@@ -9112,9 +9190,7 @@
       <c r="D61" t="s">
         <v>170</v>
       </c>
-      <c r="F61" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F61" s="5"/>
     </row>
     <row r="62" spans="2:6">
       <c r="B62" s="9">
@@ -9126,9 +9202,7 @@
       <c r="D62" t="s">
         <v>172</v>
       </c>
-      <c r="F62" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F62" s="5"/>
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="9">
@@ -9140,9 +9214,7 @@
       <c r="D63" t="s">
         <v>175</v>
       </c>
-      <c r="F63" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F63" s="5"/>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="9">
@@ -9158,7 +9230,7 @@
         <v>409</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>491</v>
+        <v>532</v>
       </c>
     </row>
     <row r="65" spans="2:6">
@@ -9171,9 +9243,7 @@
       <c r="D65" t="s">
         <v>178</v>
       </c>
-      <c r="F65" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F65" s="5"/>
     </row>
     <row r="66" spans="2:6">
       <c r="B66" s="9">
@@ -9185,9 +9255,7 @@
       <c r="D66" t="s">
         <v>180</v>
       </c>
-      <c r="F66" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F66" s="5"/>
     </row>
     <row r="67" spans="2:6">
       <c r="B67" s="9">
@@ -9199,9 +9267,7 @@
       <c r="D67" t="s">
         <v>183</v>
       </c>
-      <c r="F67" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F67" s="5"/>
     </row>
     <row r="68" spans="2:6">
       <c r="B68" s="9">
@@ -9217,7 +9283,7 @@
         <v>410</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
     </row>
     <row r="69" spans="2:6">
@@ -9230,9 +9296,7 @@
       <c r="D69" t="s">
         <v>187</v>
       </c>
-      <c r="F69" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F69" s="5"/>
     </row>
     <row r="70" spans="2:6">
       <c r="B70" s="9">
@@ -9248,7 +9312,7 @@
         <v>411</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
     </row>
     <row r="71" spans="2:6">
@@ -9261,9 +9325,7 @@
       <c r="D71" t="s">
         <v>191</v>
       </c>
-      <c r="F71" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F71" s="5"/>
     </row>
     <row r="72" spans="2:6">
       <c r="B72" s="9">
@@ -9279,7 +9341,7 @@
         <v>412</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>491</v>
+        <v>531</v>
       </c>
     </row>
     <row r="73" spans="2:6">
@@ -9292,11 +9354,11 @@
       <c r="D73" t="s">
         <v>196</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="4" t="s">
         <v>413</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
     </row>
     <row r="74" spans="2:6">
@@ -9309,9 +9371,7 @@
       <c r="D74" t="s">
         <v>199</v>
       </c>
-      <c r="F74" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F74" s="5"/>
     </row>
     <row r="75" spans="2:6">
       <c r="B75" s="9">
@@ -9323,9 +9383,7 @@
       <c r="D75" t="s">
         <v>201</v>
       </c>
-      <c r="F75" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F75" s="5"/>
     </row>
     <row r="76" spans="2:6">
       <c r="B76" s="9">
@@ -9341,7 +9399,7 @@
         <v>430</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>491</v>
+        <v>528</v>
       </c>
     </row>
     <row r="77" spans="2:6">
@@ -9354,9 +9412,7 @@
       <c r="D77" t="s">
         <v>205</v>
       </c>
-      <c r="F77" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F77" s="5"/>
     </row>
     <row r="78" spans="2:6">
       <c r="B78" s="9">
@@ -9368,9 +9424,7 @@
       <c r="D78" t="s">
         <v>207</v>
       </c>
-      <c r="F78" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F78" s="5"/>
     </row>
     <row r="79" spans="2:6">
       <c r="B79" s="9">
@@ -9386,7 +9440,7 @@
         <v>431</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>491</v>
+        <v>533</v>
       </c>
     </row>
     <row r="80" spans="2:6">
@@ -9399,9 +9453,7 @@
       <c r="D80" t="s">
         <v>211</v>
       </c>
-      <c r="F80" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F80" s="5"/>
     </row>
     <row r="81" spans="2:6">
       <c r="B81" s="9">
@@ -9417,7 +9469,7 @@
         <v>414</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="82" spans="2:6">
@@ -9434,7 +9486,7 @@
         <v>432</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
     </row>
     <row r="83" spans="2:6">
@@ -9447,9 +9499,7 @@
       <c r="D83" t="s">
         <v>216</v>
       </c>
-      <c r="F83" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F83" s="5"/>
     </row>
     <row r="84" spans="2:6">
       <c r="B84" s="9">
@@ -9465,7 +9515,7 @@
         <v>415</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>491</v>
+        <v>513</v>
       </c>
     </row>
     <row r="85" spans="2:6">
@@ -9478,9 +9528,7 @@
       <c r="D85" t="s">
         <v>222</v>
       </c>
-      <c r="F85" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F85" s="5"/>
     </row>
     <row r="86" spans="2:6">
       <c r="B86" s="9">
@@ -9496,7 +9544,7 @@
         <v>416</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>491</v>
+        <v>518</v>
       </c>
     </row>
     <row r="87" spans="2:6">
@@ -9509,9 +9557,7 @@
       <c r="D87" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="F87" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F87" s="5"/>
     </row>
     <row r="88" spans="2:6">
       <c r="B88" s="9">
@@ -9523,9 +9569,7 @@
       <c r="D88" t="s">
         <v>229</v>
       </c>
-      <c r="F88" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F88" s="5"/>
     </row>
     <row r="89" spans="2:6">
       <c r="B89" s="9">
@@ -9541,7 +9585,7 @@
         <v>417</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
     </row>
     <row r="90" spans="2:6">
@@ -9554,9 +9598,7 @@
       <c r="D90" t="s">
         <v>233</v>
       </c>
-      <c r="F90" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F90" s="5"/>
     </row>
     <row r="91" spans="2:6">
       <c r="B91" s="9">
@@ -9568,9 +9610,7 @@
       <c r="D91" t="s">
         <v>235</v>
       </c>
-      <c r="F91" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F91" s="5"/>
     </row>
     <row r="92" spans="2:6">
       <c r="B92" s="9">
@@ -9582,9 +9622,7 @@
       <c r="D92" t="s">
         <v>237</v>
       </c>
-      <c r="F92" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F92" s="5"/>
     </row>
     <row r="93" spans="2:6">
       <c r="B93" s="9">
@@ -9596,9 +9634,7 @@
       <c r="D93" t="s">
         <v>240</v>
       </c>
-      <c r="F93" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F93" s="5"/>
     </row>
     <row r="94" spans="2:6">
       <c r="B94" s="9">
@@ -9614,7 +9650,7 @@
         <v>418</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="95" spans="2:6">
@@ -9627,9 +9663,7 @@
       <c r="D95" t="s">
         <v>246</v>
       </c>
-      <c r="F95" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F95" s="5"/>
     </row>
     <row r="96" spans="2:6">
       <c r="B96" s="9">
@@ -9641,9 +9675,7 @@
       <c r="D96" t="s">
         <v>248</v>
       </c>
-      <c r="F96" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F96" s="5"/>
     </row>
     <row r="97" spans="2:6">
       <c r="B97" s="9">
@@ -9655,9 +9687,7 @@
       <c r="D97" t="s">
         <v>250</v>
       </c>
-      <c r="F97" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F97" s="5"/>
     </row>
     <row r="98" spans="2:6">
       <c r="B98" s="9">
@@ -9669,9 +9699,7 @@
       <c r="D98" t="s">
         <v>253</v>
       </c>
-      <c r="F98" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F98" s="5"/>
     </row>
     <row r="99" spans="2:6">
       <c r="B99" s="9">
@@ -9683,9 +9711,7 @@
       <c r="D99" t="s">
         <v>255</v>
       </c>
-      <c r="F99" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F99" s="5"/>
     </row>
     <row r="100" spans="2:6">
       <c r="B100" s="9">
@@ -9697,9 +9723,7 @@
       <c r="D100" t="s">
         <v>257</v>
       </c>
-      <c r="F100" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F100" s="5"/>
     </row>
     <row r="101" spans="2:6">
       <c r="B101" s="9">
@@ -9711,9 +9735,7 @@
       <c r="D101" t="s">
         <v>259</v>
       </c>
-      <c r="F101" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F101" s="5"/>
     </row>
     <row r="102" spans="2:6">
       <c r="B102" s="9">
@@ -9725,9 +9747,7 @@
       <c r="D102" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="F102" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F102" s="5"/>
     </row>
     <row r="103" spans="2:6">
       <c r="B103" s="9">
@@ -9739,9 +9759,7 @@
       <c r="D103" t="s">
         <v>262</v>
       </c>
-      <c r="F103" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F103" s="5"/>
     </row>
     <row r="104" spans="2:6">
       <c r="B104" s="9">
@@ -9753,9 +9771,7 @@
       <c r="D104" t="s">
         <v>264</v>
       </c>
-      <c r="F104" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F104" s="5"/>
     </row>
     <row r="105" spans="2:6">
       <c r="B105" s="9">
@@ -9767,9 +9783,7 @@
       <c r="D105" t="s">
         <v>265</v>
       </c>
-      <c r="F105" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F105" s="5"/>
     </row>
     <row r="106" spans="2:6">
       <c r="B106" s="9">
@@ -9785,7 +9799,7 @@
         <v>433</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>491</v>
+        <v>530</v>
       </c>
     </row>
     <row r="107" spans="2:6">
@@ -9798,9 +9812,7 @@
       <c r="D107" t="s">
         <v>269</v>
       </c>
-      <c r="F107" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F107" s="5"/>
     </row>
     <row r="108" spans="2:6">
       <c r="B108" s="9">
@@ -9812,9 +9824,7 @@
       <c r="D108" t="s">
         <v>271</v>
       </c>
-      <c r="F108" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F108" s="5"/>
     </row>
     <row r="109" spans="2:6">
       <c r="B109" s="9">
@@ -9826,9 +9836,7 @@
       <c r="D109" t="s">
         <v>273</v>
       </c>
-      <c r="F109" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F109" s="5"/>
     </row>
     <row r="110" spans="2:6">
       <c r="B110" s="9">
@@ -9840,9 +9848,7 @@
       <c r="D110" t="s">
         <v>274</v>
       </c>
-      <c r="F110" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F110" s="5"/>
     </row>
     <row r="111" spans="2:6">
       <c r="B111" s="9">
@@ -9854,9 +9860,7 @@
       <c r="D111" t="s">
         <v>275</v>
       </c>
-      <c r="F111" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F111" s="5"/>
     </row>
     <row r="112" spans="2:6">
       <c r="B112" s="9">
@@ -9868,9 +9872,7 @@
       <c r="D112" t="s">
         <v>276</v>
       </c>
-      <c r="F112" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F112" s="5"/>
     </row>
     <row r="113" spans="2:6">
       <c r="B113" s="9">
@@ -9882,9 +9884,7 @@
       <c r="D113" t="s">
         <v>277</v>
       </c>
-      <c r="F113" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F113" s="5"/>
     </row>
     <row r="114" spans="2:6">
       <c r="B114" s="9">
@@ -9896,9 +9896,7 @@
       <c r="D114" t="s">
         <v>279</v>
       </c>
-      <c r="F114" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F114" s="5"/>
     </row>
     <row r="115" spans="2:6">
       <c r="B115" s="9">
@@ -9910,9 +9908,7 @@
       <c r="D115" t="s">
         <v>282</v>
       </c>
-      <c r="F115" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F115" s="5"/>
     </row>
     <row r="116" spans="2:6">
       <c r="B116" s="9">
@@ -9928,7 +9924,7 @@
         <v>419</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="117" spans="2:6">
@@ -9941,9 +9937,7 @@
       <c r="D117" t="s">
         <v>286</v>
       </c>
-      <c r="F117" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F117" s="5"/>
     </row>
     <row r="118" spans="2:6">
       <c r="B118" s="9">
@@ -9955,9 +9949,7 @@
       <c r="D118" t="s">
         <v>287</v>
       </c>
-      <c r="F118" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F118" s="5"/>
     </row>
     <row r="119" spans="2:6">
       <c r="B119" s="9">
@@ -9969,9 +9961,7 @@
       <c r="D119" t="s">
         <v>289</v>
       </c>
-      <c r="F119" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F119" s="5"/>
     </row>
     <row r="120" spans="2:6">
       <c r="B120" s="9">
@@ -9983,9 +9973,7 @@
       <c r="D120" t="s">
         <v>291</v>
       </c>
-      <c r="F120" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F120" s="5"/>
     </row>
     <row r="121" spans="2:6">
       <c r="B121" s="9">
@@ -9997,9 +9985,7 @@
       <c r="D121" t="s">
         <v>293</v>
       </c>
-      <c r="F121" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F121" s="5"/>
     </row>
     <row r="122" spans="2:6">
       <c r="B122" s="9">
@@ -10011,9 +9997,7 @@
       <c r="D122" t="s">
         <v>294</v>
       </c>
-      <c r="F122" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F122" s="5"/>
     </row>
     <row r="123" spans="2:6">
       <c r="B123" s="9">
@@ -10025,9 +10009,7 @@
       <c r="D123" t="s">
         <v>295</v>
       </c>
-      <c r="F123" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F123" s="5"/>
     </row>
     <row r="124" spans="2:6">
       <c r="B124" s="9">
@@ -10039,9 +10021,7 @@
       <c r="D124" t="s">
         <v>299</v>
       </c>
-      <c r="F124" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F124" s="5"/>
     </row>
     <row r="125" spans="2:6">
       <c r="B125" s="9">
@@ -10057,7 +10037,7 @@
         <v>434</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>491</v>
+        <v>523</v>
       </c>
     </row>
     <row r="126" spans="2:6">
@@ -10070,9 +10050,7 @@
       <c r="D126" t="s">
         <v>303</v>
       </c>
-      <c r="F126" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F126" s="5"/>
     </row>
     <row r="127" spans="2:6">
       <c r="B127" s="9">
@@ -10084,9 +10062,7 @@
       <c r="D127" t="s">
         <v>305</v>
       </c>
-      <c r="F127" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F127" s="5"/>
     </row>
     <row r="128" spans="2:6">
       <c r="B128" s="9">
@@ -10098,9 +10074,7 @@
       <c r="D128" t="s">
         <v>308</v>
       </c>
-      <c r="F128" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F128" s="5"/>
     </row>
     <row r="129" spans="2:6">
       <c r="B129" s="9">
@@ -10112,9 +10086,7 @@
       <c r="D129" t="s">
         <v>310</v>
       </c>
-      <c r="F129" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F129" s="5"/>
     </row>
     <row r="130" spans="2:6">
       <c r="B130" s="9">
@@ -10126,9 +10098,7 @@
       <c r="D130" t="s">
         <v>312</v>
       </c>
-      <c r="F130" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F130" s="5"/>
     </row>
     <row r="131" spans="2:6">
       <c r="B131" s="9">
@@ -10140,9 +10110,7 @@
       <c r="D131" t="s">
         <v>313</v>
       </c>
-      <c r="F131" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F131" s="5"/>
     </row>
     <row r="132" spans="2:6">
       <c r="B132" s="9">
@@ -10154,9 +10122,7 @@
       <c r="D132" t="s">
         <v>314</v>
       </c>
-      <c r="F132" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F132" s="5"/>
     </row>
     <row r="133" spans="2:6">
       <c r="B133" s="9">
@@ -10172,7 +10138,7 @@
         <v>420</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
     </row>
     <row r="134" spans="2:6">
@@ -10185,9 +10151,7 @@
       <c r="D134" t="s">
         <v>317</v>
       </c>
-      <c r="F134" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F134" s="5"/>
     </row>
     <row r="135" spans="2:6">
       <c r="B135" s="9">
@@ -10199,9 +10163,7 @@
       <c r="D135" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="F135" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F135" s="5"/>
     </row>
     <row r="136" spans="2:6">
       <c r="B136" s="9">
@@ -10213,9 +10175,7 @@
       <c r="D136" t="s">
         <v>321</v>
       </c>
-      <c r="F136" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F136" s="5"/>
     </row>
     <row r="137" spans="2:6">
       <c r="B137" s="9">
@@ -10227,9 +10187,7 @@
       <c r="D137" t="s">
         <v>322</v>
       </c>
-      <c r="F137" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F137" s="5"/>
     </row>
     <row r="138" spans="2:6">
       <c r="B138" s="9">
@@ -10241,9 +10199,7 @@
       <c r="D138" t="s">
         <v>324</v>
       </c>
-      <c r="F138" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F138" s="5"/>
     </row>
     <row r="139" spans="2:6">
       <c r="B139" s="9">
@@ -10255,9 +10211,7 @@
       <c r="D139" t="s">
         <v>325</v>
       </c>
-      <c r="F139" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F139" s="5"/>
     </row>
     <row r="140" spans="2:6">
       <c r="B140" s="9">
@@ -10269,9 +10223,7 @@
       <c r="D140" t="s">
         <v>326</v>
       </c>
-      <c r="F140" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F140" s="5"/>
     </row>
     <row r="141" spans="2:6">
       <c r="B141" s="9">
@@ -10283,9 +10235,7 @@
       <c r="D141" t="s">
         <v>330</v>
       </c>
-      <c r="F141" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F141" s="5"/>
     </row>
     <row r="142" spans="2:6">
       <c r="B142" s="9">
@@ -10297,9 +10247,7 @@
       <c r="D142" t="s">
         <v>332</v>
       </c>
-      <c r="F142" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F142" s="5"/>
     </row>
     <row r="143" spans="2:6">
       <c r="B143" s="9">
@@ -10311,9 +10259,7 @@
       <c r="D143" t="s">
         <v>334</v>
       </c>
-      <c r="F143" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F143" s="5"/>
     </row>
     <row r="144" spans="2:6">
       <c r="B144" s="9">
@@ -10329,7 +10275,7 @@
         <v>435</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
     </row>
     <row r="145" spans="2:6">
@@ -10346,7 +10292,7 @@
         <v>436</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
     </row>
     <row r="146" spans="2:6">
@@ -10359,9 +10305,7 @@
       <c r="D146" t="s">
         <v>340</v>
       </c>
-      <c r="F146" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F146" s="5"/>
     </row>
     <row r="147" spans="2:6">
       <c r="B147" s="9">
@@ -10373,9 +10317,7 @@
       <c r="D147" t="s">
         <v>343</v>
       </c>
-      <c r="F147" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F147" s="5"/>
     </row>
     <row r="148" spans="2:6">
       <c r="B148" s="9">
@@ -10387,9 +10329,7 @@
       <c r="D148" t="s">
         <v>345</v>
       </c>
-      <c r="F148" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F148" s="5"/>
     </row>
     <row r="149" spans="2:6">
       <c r="B149" s="9">
@@ -10401,9 +10341,7 @@
       <c r="D149" t="s">
         <v>346</v>
       </c>
-      <c r="F149" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F149" s="5"/>
     </row>
     <row r="150" spans="2:6">
       <c r="B150" s="9">
@@ -10415,9 +10353,7 @@
       <c r="D150" t="s">
         <v>348</v>
       </c>
-      <c r="F150" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F150" s="5"/>
     </row>
     <row r="151" spans="2:6">
       <c r="B151" s="9">
@@ -10429,9 +10365,7 @@
       <c r="D151" t="s">
         <v>349</v>
       </c>
-      <c r="F151" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F151" s="5"/>
     </row>
     <row r="152" spans="2:6">
       <c r="B152" s="9">
@@ -10447,7 +10381,7 @@
         <v>437</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
     </row>
     <row r="153" spans="2:6">
@@ -10464,7 +10398,7 @@
         <v>421</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>491</v>
+        <v>524</v>
       </c>
     </row>
     <row r="154" spans="2:6">
@@ -10481,7 +10415,7 @@
         <v>422</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
     </row>
     <row r="155" spans="2:6">
@@ -10498,7 +10432,7 @@
         <v>423</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>491</v>
+        <v>519</v>
       </c>
     </row>
     <row r="156" spans="2:6">
@@ -10511,9 +10445,7 @@
       <c r="D156" t="s">
         <v>355</v>
       </c>
-      <c r="F156" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F156" s="5"/>
     </row>
     <row r="157" spans="2:6">
       <c r="B157" s="9">
@@ -10529,7 +10461,7 @@
         <v>438</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="158" spans="2:6">
@@ -10542,9 +10474,7 @@
       <c r="D158" t="s">
         <v>359</v>
       </c>
-      <c r="F158" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F158" s="5"/>
     </row>
     <row r="159" spans="2:6">
       <c r="B159" s="9">
@@ -10556,9 +10486,7 @@
       <c r="D159" t="s">
         <v>360</v>
       </c>
-      <c r="F159" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F159" s="5"/>
     </row>
     <row r="160" spans="2:6">
       <c r="B160" s="9">
@@ -10570,9 +10498,7 @@
       <c r="D160" t="s">
         <v>362</v>
       </c>
-      <c r="F160" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F160" s="5"/>
     </row>
     <row r="161" spans="2:6">
       <c r="B161" s="9">
@@ -10584,9 +10510,7 @@
       <c r="D161" t="s">
         <v>364</v>
       </c>
-      <c r="F161" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F161" s="5"/>
     </row>
     <row r="162" spans="2:6">
       <c r="B162" s="9">
@@ -10598,9 +10522,7 @@
       <c r="D162" t="s">
         <v>366</v>
       </c>
-      <c r="F162" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F162" s="5"/>
     </row>
     <row r="163" spans="2:6">
       <c r="B163" s="9">
@@ -10612,9 +10534,7 @@
       <c r="D163" t="s">
         <v>367</v>
       </c>
-      <c r="F163" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F163" s="5"/>
     </row>
     <row r="164" spans="2:6">
       <c r="B164" s="9">
@@ -10626,9 +10546,7 @@
       <c r="D164" t="s">
         <v>369</v>
       </c>
-      <c r="F164" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F164" s="5"/>
     </row>
     <row r="165" spans="2:6">
       <c r="B165" s="9">
@@ -10640,9 +10558,7 @@
       <c r="D165" t="s">
         <v>371</v>
       </c>
-      <c r="F165" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F165" s="5"/>
     </row>
     <row r="166" spans="2:6">
       <c r="B166" s="9">
@@ -10654,9 +10570,7 @@
       <c r="D166" t="s">
         <v>372</v>
       </c>
-      <c r="F166" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F166" s="5"/>
     </row>
     <row r="167" spans="2:6">
       <c r="B167" s="9">
@@ -10668,9 +10582,7 @@
       <c r="D167" t="s">
         <v>374</v>
       </c>
-      <c r="F167" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F167" s="5"/>
     </row>
     <row r="168" spans="2:6">
       <c r="B168" s="9">
@@ -10682,9 +10594,7 @@
       <c r="D168" t="s">
         <v>376</v>
       </c>
-      <c r="F168" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F168" s="5"/>
     </row>
     <row r="169" spans="2:6">
       <c r="B169" s="9">
@@ -10696,9 +10606,7 @@
       <c r="D169" t="s">
         <v>378</v>
       </c>
-      <c r="F169" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F169" s="5"/>
     </row>
     <row r="170" spans="2:6">
       <c r="B170" s="9">
@@ -10710,9 +10618,7 @@
       <c r="D170" t="s">
         <v>379</v>
       </c>
-      <c r="F170" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F170" s="5"/>
     </row>
     <row r="171" spans="2:6">
       <c r="B171" s="9">
@@ -10724,9 +10630,7 @@
       <c r="D171" t="s">
         <v>381</v>
       </c>
-      <c r="F171" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F171" s="5"/>
     </row>
     <row r="172" spans="2:6">
       <c r="B172" s="9">
@@ -10738,9 +10642,7 @@
       <c r="D172" t="s">
         <v>384</v>
       </c>
-      <c r="F172" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F172" s="5"/>
     </row>
     <row r="173" spans="2:6">
       <c r="B173" s="9">
@@ -10752,9 +10654,7 @@
       <c r="D173" t="s">
         <v>385</v>
       </c>
-      <c r="F173" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="F173" s="5"/>
     </row>
     <row r="174" spans="2:6">
       <c r="B174" s="9">
@@ -10770,7 +10670,7 @@
         <v>439</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="175" spans="2:6">
@@ -10779,17 +10679,27 @@
       </c>
       <c r="E175">
         <f>SUBTOTAL(103,Tabela2[File Name])</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F175">
         <f>SUBTOTAL(103,Tabela2[File Adress])</f>
-        <v>172</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E3:E174">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F174">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="F31" r:id="rId1" xr:uid="{68B4E8A5-0080-4372-B4E0-62930C0A68B4}"/>
+    <hyperlink ref="F28" r:id="rId2" xr:uid="{AD28D80B-ECEE-4289-A1F7-69B4666DA64D}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/PDE3 database - Institute of Translational Medicine - University of Liverpool.xlsx
+++ b/PDE3 database - Institute of Translational Medicine - University of Liverpool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivbie\Documents\2020 - Projetos mestrado\CYFIP2\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28138C4-CD3E-4400-B5D0-C4811DA48218}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5281B1B-0128-4949-82DA-8FA3A0B77E87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="658">
   <si>
     <t>Name</t>
   </si>
@@ -973,9 +973,6 @@
     <t>Levobupivacaine</t>
   </si>
   <si>
-    <t>Thalidomide</t>
-  </si>
-  <si>
     <t>Malignant disease; immunosuppression</t>
   </si>
   <si>
@@ -1634,6 +1631,378 @@
   </si>
   <si>
     <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C9%20H8%20O4.txt</t>
+  </si>
+  <si>
+    <t>C20 H25 Cl N2 O5</t>
+  </si>
+  <si>
+    <t>C4 H11 N5</t>
+  </si>
+  <si>
+    <t>C20 H21 F N2 O</t>
+  </si>
+  <si>
+    <t>C20 H23 N</t>
+  </si>
+  <si>
+    <t>C17 H17 Cl2 N</t>
+  </si>
+  <si>
+    <t>C22 H23 Cl N6 O</t>
+  </si>
+  <si>
+    <t>C14 H14 O3</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_33741</t>
+  </si>
+  <si>
+    <t>SC17 H18 F3 N O</t>
+  </si>
+  <si>
+    <t>RC17 H18 F3 N O</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_5656</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_9782</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_5002</t>
+  </si>
+  <si>
+    <t>C20 H24 N2 O2</t>
+  </si>
+  <si>
+    <t>C22 H26 N2 O4 S</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_54687</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_4095</t>
+  </si>
+  <si>
+    <t>C17 H18 N2 O6</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_5388962</t>
+  </si>
+  <si>
+    <t>C18 H19 N O S</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_5073</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_2471</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_2725</t>
+  </si>
+  <si>
+    <t>C14 H22 N2 O</t>
+  </si>
+  <si>
+    <t>C22 H28 N2 O</t>
+  </si>
+  <si>
+    <t>C10 H12 Cl N O2</t>
+  </si>
+  <si>
+    <t>C12 H21 N</t>
+  </si>
+  <si>
+    <t>C19 H20 N2 O3 S</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_6279</t>
+  </si>
+  <si>
+    <t>C23 H27 Cl2 N3 O2</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_4168</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_4927</t>
+  </si>
+  <si>
+    <t>C27 H38 N2 O4</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_5732</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_4171</t>
+  </si>
+  <si>
+    <t>C22 H29 F O5</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_3658</t>
+  </si>
+  <si>
+    <t>C25 H29 I2 N O3</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_3108</t>
+  </si>
+  <si>
+    <t>C9 H9 Cl2 N3</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_132999</t>
+  </si>
+  <si>
+    <t>C33 H30 N4 O2</t>
+  </si>
+  <si>
+    <t>C21 H23 Cl F N O2</t>
+  </si>
+  <si>
+    <t>C17 H19 Cl N2 S</t>
+  </si>
+  <si>
+    <t>C15 H15 N O2</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_1548943</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_56959</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_4595</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_2477</t>
+  </si>
+  <si>
+    <t>C19 H24 N2</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_5572</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_5487</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_4236</t>
+  </si>
+  <si>
+    <t>C19 H21 N5 O4</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_3117</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_6914273</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_26757</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_667477</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_4601</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_4474</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_2955</t>
+  </si>
+  <si>
+    <t>C15 H21 F3 N2 O2</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_4932</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_444</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_2200</t>
+  </si>
+  <si>
+    <t>C8 H5 F3 N2 O S</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_2474</t>
+  </si>
+  <si>
+    <t>C15 H24 N2 O2</t>
+  </si>
+  <si>
+    <t>C32 H40 Br N5 O5</t>
+  </si>
+  <si>
+    <t>C17 H16 F6 N2 O</t>
+  </si>
+  <si>
+    <t>C17 H17 N O2</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_5282381</t>
+  </si>
+  <si>
+    <t>C12 H11 N7</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_4828</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_135398737</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_16362</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_3516</t>
+  </si>
+  <si>
+    <t>C8 H7 Cl N2 O2 S</t>
+  </si>
+  <si>
+    <t>C21 H21 N</t>
+  </si>
+  <si>
+    <t>C19 H27 N O</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_4064</t>
+  </si>
+  <si>
+    <t>C18 H18 N8 O7 S3</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_5593</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_3784</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_47811</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_4911</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_4768</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_3397</t>
+  </si>
+  <si>
+    <t>C21 H26 N2 O7</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_5360696</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_6041</t>
+  </si>
+  <si>
+    <t>C21 H26 N2 S2</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_92253</t>
+  </si>
+  <si>
+    <t>S-Thalidomide</t>
+  </si>
+  <si>
+    <t>C13 H10 N2 O4</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_4636</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_2381</t>
+  </si>
+  <si>
+    <t>C22 H32 O4</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_6047</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_4499</t>
+  </si>
+  <si>
+    <t>C13 H16 N2 O2</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_6729</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_5361092</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_5311068</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_3042</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_3226</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_5870</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_3487</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_5702063</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_4032</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_4058</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_10836</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_6082</t>
+  </si>
+  <si>
+    <t>C21 H27 N3 O2</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_4688</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_4761</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_5775</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_5794</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_4914</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_638678</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_208902</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_5770</t>
+  </si>
+  <si>
+    <t>C17 H14 O4 S</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_3000322</t>
   </si>
 </sst>
 </file>
@@ -1716,7 +2085,27 @@
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1946,17 +2335,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B424DCE3-2D94-4B01-8D4C-13D38CF07CAE}" name="Tabela1" displayName="Tabela1" ref="B2:Q174" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B424DCE3-2D94-4B01-8D4C-13D38CF07CAE}" name="Tabela1" displayName="Tabela1" ref="B2:Q174" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="B2:Q174" xr:uid="{4AB5E234-523A-40D6-A65E-0BBB1D90474A}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{4D3698C4-EA49-4C98-83ED-B651DA65BAD9}" name="Compound ID" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{4D3698C4-EA49-4C98-83ED-B651DA65BAD9}" name="Compound ID" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{1A309358-CA89-41E0-9A90-F70309D9DB35}" name="Name"/>
     <tableColumn id="3" xr3:uid="{D13F5563-5245-4C67-94CA-3D8EDEFE37DF}" name="Indications"/>
-    <tableColumn id="4" xr3:uid="{76964F19-9FCA-42C4-B5B4-2AF969873583}" name="First licensed (year)" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{B915C42A-C3AD-4EE8-B307-583A94B2DF61}" name="Prescriptions items dispensed in England in 2016 (number)" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{1B0C2226-493B-4FBE-99AD-673CA85A1B15}" name="Prescriptions items dispensed in England in 2016 (rank)" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{D6EC2CBC-8C62-4043-BB6D-10AA76365A08}" name="Number of studies" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{0A534E60-C891-4915-8B75-E57E2E5FF298}" name="Number of unique models" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{76964F19-9FCA-42C4-B5B4-2AF969873583}" name="First licensed (year)" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{B915C42A-C3AD-4EE8-B307-583A94B2DF61}" name="Prescriptions items dispensed in England in 2016 (number)" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{1B0C2226-493B-4FBE-99AD-673CA85A1B15}" name="Prescriptions items dispensed in England in 2016 (rank)" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{D6EC2CBC-8C62-4043-BB6D-10AA76365A08}" name="Number of studies" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{0A534E60-C891-4915-8B75-E57E2E5FF298}" name="Number of unique models" dataDxfId="9"/>
     <tableColumn id="9" xr3:uid="{A9116F38-0E87-4451-8ABE-9A3C77A0A932}" name="Models"/>
     <tableColumn id="10" xr3:uid="{29B8A375-527D-4674-B623-E53F6154EE54}" name="AEDs enhanced"/>
     <tableColumn id="11" xr3:uid="{1CDE8E53-BAB9-4B1F-B65F-C4873C03DFE7}" name="Number of studies2"/>
@@ -1971,14 +2360,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54767107-61A5-4E5F-84FA-2A8D9B5C4D10}" name="Tabela2" displayName="Tabela2" ref="B2:F175" totalsRowCount="1" headerRowDxfId="6">
-  <autoFilter ref="B2:F174" xr:uid="{2A0284F6-0E4E-4CE1-9526-7ACFD806AE5D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54767107-61A5-4E5F-84FA-2A8D9B5C4D10}" name="Tabela2" displayName="Tabela2" ref="B2:F176" totalsRowCount="1" headerRowDxfId="8">
+  <autoFilter ref="B2:F175" xr:uid="{2A0284F6-0E4E-4CE1-9526-7ACFD806AE5D}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F07FB46E-2261-4395-95B4-499CFE4DC5CC}" name="File ID" totalsRowLabel="Total" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{824CA5B7-C3F1-4EF2-BF5E-B7E729203F26}" name="Compound ID" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{F07FB46E-2261-4395-95B4-499CFE4DC5CC}" name="File ID" totalsRowLabel="Total" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{824CA5B7-C3F1-4EF2-BF5E-B7E729203F26}" name="Compound ID" dataDxfId="6"/>
     <tableColumn id="5" xr3:uid="{8E5ABDBD-3B43-49EC-BA36-F6AADA0EA1ED}" name="Compound Name"/>
     <tableColumn id="3" xr3:uid="{18BA9869-4705-4B91-9295-CA0136FABA04}" name="File Name" totalsRowFunction="count"/>
-    <tableColumn id="4" xr3:uid="{FB23DE31-DBC1-42B4-ABAA-CDF6F245AAEB}" name="File Adress" totalsRowFunction="count" dataDxfId="3" dataCellStyle="Hiperlink"/>
+    <tableColumn id="4" xr3:uid="{FB23DE31-DBC1-42B4-ABAA-CDF6F245AAEB}" name="File Adress" totalsRowFunction="count" dataDxfId="5" dataCellStyle="Hiperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2283,8 +2672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R178"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" topLeftCell="A139" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D162" sqref="D162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
@@ -2312,7 +2701,7 @@
     <row r="1" spans="2:17"/>
     <row r="2" spans="2:17">
       <c r="B2" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -2342,22 +2731,22 @@
         <v>8</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="3" spans="2:17">
@@ -2401,10 +2790,10 @@
         <v>1</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="Q3" t="s">
         <v>13</v>
@@ -2451,7 +2840,7 @@
         <v>1</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" t="s">
@@ -2499,7 +2888,7 @@
         <v>1</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" t="s">
@@ -2626,7 +3015,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P8" s="4"/>
     </row>
@@ -2671,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" t="s">
@@ -2798,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="P12" s="4"/>
     </row>
@@ -2843,7 +3232,7 @@
         <v>1</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" t="s">
@@ -2911,7 +3300,7 @@
         <v>1</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="P15" s="4"/>
     </row>
@@ -2985,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="P17" s="4"/>
       <c r="Q17" t="s">
@@ -3106,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Q20" t="s">
         <v>26</v>
@@ -3188,7 +3577,7 @@
         <v>1</v>
       </c>
       <c r="O22" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="2:17">
@@ -3281,7 +3670,7 @@
         <v>1</v>
       </c>
       <c r="O25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="2:17">
@@ -3398,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="Q28" t="s">
         <v>90</v>
@@ -3436,7 +3825,7 @@
         <v>1</v>
       </c>
       <c r="O29" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30" spans="2:17">
@@ -3471,7 +3860,7 @@
         <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="31" spans="2:17">
@@ -3535,7 +3924,7 @@
         <v>1</v>
       </c>
       <c r="O32" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="33" spans="2:17">
@@ -3681,7 +4070,7 @@
         <v>1</v>
       </c>
       <c r="O36" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="P36" s="3"/>
       <c r="Q36" t="s">
@@ -3749,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="O38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="39" spans="2:17">
@@ -3828,7 +4217,7 @@
         <v>1</v>
       </c>
       <c r="O40" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="41" spans="2:17">
@@ -3863,7 +4252,7 @@
         <v>1</v>
       </c>
       <c r="O41" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="42" spans="2:17">
@@ -3898,7 +4287,7 @@
         <v>1</v>
       </c>
       <c r="O42" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="43" spans="2:17">
@@ -3933,7 +4322,7 @@
         <v>1</v>
       </c>
       <c r="O43" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="44" spans="2:17">
@@ -4114,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="O48" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="49" spans="2:17">
@@ -4280,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="O53" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="54" spans="2:17">
@@ -4324,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="O54" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P54" s="3"/>
       <c r="Q54" t="s">
@@ -4372,7 +4761,7 @@
         <v>1</v>
       </c>
       <c r="O55" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P55" s="3"/>
       <c r="Q55" t="s">
@@ -4527,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="O60" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="61" spans="2:17">
@@ -4562,7 +4951,7 @@
         <v>1</v>
       </c>
       <c r="O61" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="62" spans="2:17">
@@ -4670,7 +5059,7 @@
         <v>1</v>
       </c>
       <c r="O64" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="65" spans="2:17">
@@ -4792,7 +5181,7 @@
         <v>1</v>
       </c>
       <c r="O68" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="69" spans="2:17">
@@ -4897,7 +5286,7 @@
         <v>1</v>
       </c>
       <c r="O71" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="P71" s="3"/>
       <c r="Q71" t="s">
@@ -5009,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="P74" s="6"/>
     </row>
@@ -5089,7 +5478,7 @@
         <v>1</v>
       </c>
       <c r="O76" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="77" spans="2:17">
@@ -5252,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="O80" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P80" s="3"/>
       <c r="Q80" t="s">
@@ -5453,7 +5842,7 @@
         <v>1</v>
       </c>
       <c r="O86" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="87" spans="2:17">
@@ -5532,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="O88" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="89" spans="2:17">
@@ -5713,7 +6102,7 @@
         <v>1</v>
       </c>
       <c r="O93" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="94" spans="2:17">
@@ -5792,7 +6181,7 @@
         <v>1</v>
       </c>
       <c r="O95" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="96" spans="2:17">
@@ -6118,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="O105" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="106" spans="2:17">
@@ -6153,7 +6542,7 @@
         <v>1</v>
       </c>
       <c r="O106" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="107" spans="2:17">
@@ -6377,7 +6766,7 @@
         <v>1</v>
       </c>
       <c r="O113" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="114" spans="2:17">
@@ -6746,7 +7135,7 @@
         <v>1</v>
       </c>
       <c r="O125" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="126" spans="2:17">
@@ -6863,7 +7252,7 @@
         <v>1</v>
       </c>
       <c r="O128" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="P128" s="3"/>
       <c r="Q128" t="s">
@@ -6902,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="O129" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="130" spans="2:17">
@@ -6968,10 +7357,10 @@
         <v>130</v>
       </c>
       <c r="C132" t="s">
+        <v>627</v>
+      </c>
+      <c r="D132" t="s">
         <v>314</v>
-      </c>
-      <c r="D132" t="s">
-        <v>315</v>
       </c>
       <c r="E132" s="3">
         <v>1998</v>
@@ -6997,7 +7386,7 @@
         <v>131</v>
       </c>
       <c r="C133" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D133" t="s">
         <v>55</v>
@@ -7026,10 +7415,10 @@
         <v>132</v>
       </c>
       <c r="C134" t="s">
+        <v>316</v>
+      </c>
+      <c r="D134" t="s">
         <v>317</v>
-      </c>
-      <c r="D134" t="s">
-        <v>318</v>
       </c>
       <c r="E134" s="3">
         <v>1986</v>
@@ -7055,10 +7444,10 @@
         <v>133</v>
       </c>
       <c r="C135" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D135" t="s">
         <v>319</v>
-      </c>
-      <c r="D135" t="s">
-        <v>320</v>
       </c>
       <c r="E135" s="3">
         <v>1980</v>
@@ -7084,7 +7473,7 @@
         <v>134</v>
       </c>
       <c r="C136" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D136" t="s">
         <v>230</v>
@@ -7113,10 +7502,10 @@
         <v>135</v>
       </c>
       <c r="C137" t="s">
+        <v>321</v>
+      </c>
+      <c r="D137" t="s">
         <v>322</v>
-      </c>
-      <c r="D137" t="s">
-        <v>323</v>
       </c>
       <c r="E137" s="3">
         <v>2004</v>
@@ -7142,7 +7531,7 @@
         <v>136</v>
       </c>
       <c r="C138" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D138" t="s">
         <v>230</v>
@@ -7171,7 +7560,7 @@
         <v>137</v>
       </c>
       <c r="C139" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D139" t="s">
         <v>173</v>
@@ -7200,10 +7589,10 @@
         <v>138</v>
       </c>
       <c r="C140" t="s">
+        <v>325</v>
+      </c>
+      <c r="D140" t="s">
         <v>326</v>
-      </c>
-      <c r="D140" t="s">
-        <v>327</v>
       </c>
       <c r="E140" s="3">
         <v>1980</v>
@@ -7221,10 +7610,10 @@
         <v>2</v>
       </c>
       <c r="J140" t="s">
+        <v>327</v>
+      </c>
+      <c r="K140" t="s">
         <v>328</v>
-      </c>
-      <c r="K140" t="s">
-        <v>329</v>
       </c>
       <c r="L140" s="3">
         <v>2</v>
@@ -7244,10 +7633,10 @@
         <v>139</v>
       </c>
       <c r="C141" t="s">
+        <v>329</v>
+      </c>
+      <c r="D141" t="s">
         <v>330</v>
-      </c>
-      <c r="D141" t="s">
-        <v>331</v>
       </c>
       <c r="E141" s="3">
         <v>1982</v>
@@ -7273,10 +7662,10 @@
         <v>140</v>
       </c>
       <c r="C142" t="s">
+        <v>331</v>
+      </c>
+      <c r="D142" t="s">
         <v>332</v>
-      </c>
-      <c r="D142" t="s">
-        <v>333</v>
       </c>
       <c r="E142" s="3">
         <v>1978</v>
@@ -7317,10 +7706,10 @@
         <v>141</v>
       </c>
       <c r="C143" t="s">
+        <v>333</v>
+      </c>
+      <c r="D143" t="s">
         <v>334</v>
-      </c>
-      <c r="D143" t="s">
-        <v>335</v>
       </c>
       <c r="E143" s="3">
         <v>1982</v>
@@ -7346,10 +7735,10 @@
         <v>142</v>
       </c>
       <c r="C144" t="s">
+        <v>335</v>
+      </c>
+      <c r="D144" t="s">
         <v>336</v>
-      </c>
-      <c r="D144" t="s">
-        <v>337</v>
       </c>
       <c r="E144" s="3">
         <v>1994</v>
@@ -7367,7 +7756,7 @@
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="145" spans="2:17">
@@ -7375,10 +7764,10 @@
         <v>143</v>
       </c>
       <c r="C145" t="s">
+        <v>337</v>
+      </c>
+      <c r="D145" t="s">
         <v>338</v>
-      </c>
-      <c r="D145" t="s">
-        <v>339</v>
       </c>
       <c r="E145" s="3">
         <v>1964</v>
@@ -7419,10 +7808,10 @@
         <v>144</v>
       </c>
       <c r="C146" t="s">
+        <v>339</v>
+      </c>
+      <c r="D146" t="s">
         <v>340</v>
-      </c>
-      <c r="D146" t="s">
-        <v>341</v>
       </c>
       <c r="E146" s="3">
         <v>1999</v>
@@ -7440,7 +7829,7 @@
         <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="147" spans="2:17">
@@ -7448,10 +7837,10 @@
         <v>145</v>
       </c>
       <c r="C147" t="s">
+        <v>342</v>
+      </c>
+      <c r="D147" t="s">
         <v>343</v>
-      </c>
-      <c r="D147" t="s">
-        <v>344</v>
       </c>
       <c r="E147" s="3">
         <v>1950</v>
@@ -7477,7 +7866,7 @@
         <v>146</v>
       </c>
       <c r="C148" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D148" t="s">
         <v>258</v>
@@ -7506,10 +7895,10 @@
         <v>147</v>
       </c>
       <c r="C149" t="s">
+        <v>345</v>
+      </c>
+      <c r="D149" t="s">
         <v>346</v>
-      </c>
-      <c r="D149" t="s">
-        <v>347</v>
       </c>
       <c r="E149" s="3">
         <v>1979</v>
@@ -7535,7 +7924,7 @@
         <v>148</v>
       </c>
       <c r="C150" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D150" t="s">
         <v>151</v>
@@ -7564,7 +7953,7 @@
         <v>149</v>
       </c>
       <c r="C151" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D151" t="s">
         <v>173</v>
@@ -7593,7 +7982,7 @@
         <v>150</v>
       </c>
       <c r="C152" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D152" t="s">
         <v>258</v>
@@ -7622,7 +8011,7 @@
         <v>151</v>
       </c>
       <c r="C153" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D153" t="s">
         <v>258</v>
@@ -7651,7 +8040,7 @@
         <v>152</v>
       </c>
       <c r="C154" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D154" t="s">
         <v>290</v>
@@ -7680,7 +8069,7 @@
         <v>153</v>
       </c>
       <c r="C155" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D155" t="s">
         <v>10</v>
@@ -7701,7 +8090,7 @@
         <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K155" t="s">
         <v>12</v>
@@ -7716,7 +8105,7 @@
         <v>1</v>
       </c>
       <c r="O155" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P155" s="3"/>
       <c r="Q155" t="s">
@@ -7728,10 +8117,10 @@
         <v>154</v>
       </c>
       <c r="C156" t="s">
+        <v>354</v>
+      </c>
+      <c r="D156" t="s">
         <v>355</v>
-      </c>
-      <c r="D156" t="s">
-        <v>356</v>
       </c>
       <c r="E156" s="3">
         <v>1956</v>
@@ -7757,10 +8146,10 @@
         <v>155</v>
       </c>
       <c r="C157" t="s">
+        <v>356</v>
+      </c>
+      <c r="D157" t="s">
         <v>357</v>
-      </c>
-      <c r="D157" t="s">
-        <v>358</v>
       </c>
       <c r="E157" s="3">
         <v>1980</v>
@@ -7786,7 +8175,7 @@
         <v>156</v>
       </c>
       <c r="C158" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D158" t="s">
         <v>55</v>
@@ -7815,10 +8204,10 @@
         <v>157</v>
       </c>
       <c r="C159" t="s">
+        <v>359</v>
+      </c>
+      <c r="D159" t="s">
         <v>360</v>
-      </c>
-      <c r="D159" t="s">
-        <v>361</v>
       </c>
       <c r="E159" s="3">
         <v>1943</v>
@@ -7859,10 +8248,10 @@
         <v>158</v>
       </c>
       <c r="C160" t="s">
+        <v>361</v>
+      </c>
+      <c r="D160" t="s">
         <v>362</v>
-      </c>
-      <c r="D160" t="s">
-        <v>363</v>
       </c>
       <c r="E160" s="3">
         <v>1982</v>
@@ -7888,10 +8277,10 @@
         <v>159</v>
       </c>
       <c r="C161" t="s">
+        <v>363</v>
+      </c>
+      <c r="D161" t="s">
         <v>364</v>
-      </c>
-      <c r="D161" t="s">
-        <v>365</v>
       </c>
       <c r="E161" s="3">
         <v>1962</v>
@@ -7917,7 +8306,7 @@
         <v>160</v>
       </c>
       <c r="C162" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D162" t="s">
         <v>108</v>
@@ -7953,7 +8342,7 @@
         <v>1</v>
       </c>
       <c r="O162" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="P162" s="3"/>
       <c r="Q162" t="s">
@@ -7965,10 +8354,10 @@
         <v>161</v>
       </c>
       <c r="C163" t="s">
+        <v>366</v>
+      </c>
+      <c r="D163" t="s">
         <v>367</v>
-      </c>
-      <c r="D163" t="s">
-        <v>368</v>
       </c>
       <c r="E163" s="3">
         <v>1982</v>
@@ -7994,10 +8383,10 @@
         <v>162</v>
       </c>
       <c r="C164" t="s">
+        <v>368</v>
+      </c>
+      <c r="D164" t="s">
         <v>369</v>
-      </c>
-      <c r="D164" t="s">
-        <v>370</v>
       </c>
       <c r="E164" s="3">
         <v>1994</v>
@@ -8023,7 +8412,7 @@
         <v>163</v>
       </c>
       <c r="C165" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D165" t="s">
         <v>300</v>
@@ -8052,10 +8441,10 @@
         <v>164</v>
       </c>
       <c r="C166" t="s">
+        <v>371</v>
+      </c>
+      <c r="D166" t="s">
         <v>372</v>
-      </c>
-      <c r="D166" t="s">
-        <v>373</v>
       </c>
       <c r="E166" s="3">
         <v>2000</v>
@@ -8081,7 +8470,7 @@
         <v>165</v>
       </c>
       <c r="C167" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D167" t="s">
         <v>258</v>
@@ -8102,7 +8491,7 @@
         <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K167" t="s">
         <v>41</v>
@@ -8125,10 +8514,10 @@
         <v>166</v>
       </c>
       <c r="C168" t="s">
+        <v>375</v>
+      </c>
+      <c r="D168" t="s">
         <v>376</v>
-      </c>
-      <c r="D168" t="s">
-        <v>377</v>
       </c>
       <c r="E168" s="3">
         <v>1976</v>
@@ -8154,7 +8543,7 @@
         <v>167</v>
       </c>
       <c r="C169" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D169" t="s">
         <v>151</v>
@@ -8183,10 +8572,10 @@
         <v>168</v>
       </c>
       <c r="C170" t="s">
+        <v>378</v>
+      </c>
+      <c r="D170" t="s">
         <v>379</v>
-      </c>
-      <c r="D170" t="s">
-        <v>380</v>
       </c>
       <c r="E170" s="3">
         <v>1960</v>
@@ -8212,10 +8601,10 @@
         <v>169</v>
       </c>
       <c r="C171" t="s">
+        <v>380</v>
+      </c>
+      <c r="D171" t="s">
         <v>381</v>
-      </c>
-      <c r="D171" t="s">
-        <v>382</v>
       </c>
       <c r="E171" s="3">
         <v>1999</v>
@@ -8233,10 +8622,10 @@
         <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K171" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L171" s="3">
         <v>2</v>
@@ -8248,7 +8637,7 @@
         <v>0</v>
       </c>
       <c r="O171" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="P171" s="3"/>
       <c r="Q171" t="s">
@@ -8260,7 +8649,7 @@
         <v>170</v>
       </c>
       <c r="C172" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D172" t="s">
         <v>173</v>
@@ -8289,10 +8678,10 @@
         <v>171</v>
       </c>
       <c r="C173" t="s">
+        <v>384</v>
+      </c>
+      <c r="D173" t="s">
         <v>385</v>
-      </c>
-      <c r="D173" t="s">
-        <v>386</v>
       </c>
       <c r="E173" s="3">
         <v>1979</v>
@@ -8318,10 +8707,10 @@
         <v>172</v>
       </c>
       <c r="C174" t="s">
+        <v>386</v>
+      </c>
+      <c r="D174" t="s">
         <v>387</v>
-      </c>
-      <c r="D174" t="s">
-        <v>388</v>
       </c>
       <c r="E174" s="3">
         <v>1967</v>
@@ -8358,10 +8747,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D00A50-BAF2-4D7C-9C79-39B14A850D5C}">
-  <dimension ref="B2:F175"/>
+  <dimension ref="B2:F176"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8374,19 +8763,19 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>393</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -8400,10 +8789,10 @@
         <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -8417,10 +8806,10 @@
         <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -8433,6 +8822,9 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
+      <c r="E5" t="s">
+        <v>534</v>
+      </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="2:6">
@@ -8446,10 +8838,10 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -8463,10 +8855,10 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -8479,6 +8871,9 @@
       <c r="D8" t="s">
         <v>28</v>
       </c>
+      <c r="E8" t="s">
+        <v>535</v>
+      </c>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="2:6">
@@ -8491,6 +8886,9 @@
       <c r="D9" t="s">
         <v>31</v>
       </c>
+      <c r="E9" t="s">
+        <v>536</v>
+      </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="2:6">
@@ -8503,6 +8901,9 @@
       <c r="D10" t="s">
         <v>35</v>
       </c>
+      <c r="E10" t="s">
+        <v>537</v>
+      </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="2:6">
@@ -8516,10 +8917,10 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -8532,6 +8933,9 @@
       <c r="D12" t="s">
         <v>42</v>
       </c>
+      <c r="E12" t="s">
+        <v>538</v>
+      </c>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="2:6">
@@ -8544,6 +8948,9 @@
       <c r="D13" t="s">
         <v>45</v>
       </c>
+      <c r="E13" t="s">
+        <v>539</v>
+      </c>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="2:6">
@@ -8557,10 +8964,10 @@
         <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -8573,6 +8980,9 @@
       <c r="D15" t="s">
         <v>52</v>
       </c>
+      <c r="E15" t="s">
+        <v>540</v>
+      </c>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="2:6">
@@ -8585,6 +8995,9 @@
       <c r="D16" t="s">
         <v>54</v>
       </c>
+      <c r="E16" t="s">
+        <v>541</v>
+      </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="2:6">
@@ -8594,8 +9007,11 @@
       <c r="C17" s="9">
         <v>15</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="4" t="s">
         <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>542</v>
       </c>
       <c r="F17" s="5"/>
     </row>
@@ -8604,33 +9020,31 @@
         <v>16</v>
       </c>
       <c r="C18" s="9">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>59</v>
+        <v>15</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>426</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>529</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="9">
         <v>17</v>
       </c>
       <c r="C19" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>499</v>
+        <v>528</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -8638,45 +9052,48 @@
         <v>18</v>
       </c>
       <c r="C20" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>426</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="9">
         <v>19</v>
       </c>
       <c r="C21" s="9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>400</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>501</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="9">
         <v>20</v>
       </c>
       <c r="C22" s="9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -8684,51 +9101,62 @@
         <v>21</v>
       </c>
       <c r="C23" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="E23" t="s">
+        <v>400</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="9">
         <v>22</v>
       </c>
       <c r="C24" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
-        <v>402</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>527</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="9">
         <v>23</v>
       </c>
       <c r="C25" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="5"/>
+        <v>74</v>
+      </c>
+      <c r="E25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="9">
         <v>24</v>
       </c>
       <c r="C26" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="E26" t="s">
+        <v>546</v>
       </c>
       <c r="F26" s="5"/>
     </row>
@@ -8737,10 +9165,13 @@
         <v>25</v>
       </c>
       <c r="C27" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="E27" t="s">
+        <v>547</v>
       </c>
       <c r="F27" s="5"/>
     </row>
@@ -8749,62 +9180,63 @@
         <v>26</v>
       </c>
       <c r="C28" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>403</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>517</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="9">
         <v>27</v>
       </c>
       <c r="C29" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="E29" t="s">
+        <v>402</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="9">
         <v>28</v>
       </c>
       <c r="C30" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
-        <v>404</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>514</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="9">
         <v>29</v>
       </c>
       <c r="C31" s="9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E31" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>491</v>
+        <v>513</v>
       </c>
     </row>
     <row r="32" spans="2:6">
@@ -8812,16 +9244,16 @@
         <v>30</v>
       </c>
       <c r="C32" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>526</v>
+        <v>490</v>
       </c>
     </row>
     <row r="33" spans="2:6">
@@ -8829,51 +9261,62 @@
         <v>31</v>
       </c>
       <c r="C33" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33" s="5"/>
+        <v>97</v>
+      </c>
+      <c r="E33" t="s">
+        <v>404</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="9">
         <v>32</v>
       </c>
       <c r="C34" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E34" t="s">
-        <v>406</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>511</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="F34" s="5"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="9">
         <v>33</v>
       </c>
       <c r="C35" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
-      </c>
-      <c r="F35" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="E35" t="s">
+        <v>405</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="9">
         <v>34</v>
       </c>
       <c r="C36" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>103</v>
+      </c>
+      <c r="E36" t="s">
+        <v>551</v>
       </c>
       <c r="F36" s="5"/>
     </row>
@@ -8882,10 +9325,13 @@
         <v>35</v>
       </c>
       <c r="C37" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="E37" t="s">
+        <v>552</v>
       </c>
       <c r="F37" s="5"/>
     </row>
@@ -8894,10 +9340,13 @@
         <v>36</v>
       </c>
       <c r="C38" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>112</v>
+        <v>109</v>
+      </c>
+      <c r="E38" t="s">
+        <v>553</v>
       </c>
       <c r="F38" s="5"/>
     </row>
@@ -8906,10 +9355,13 @@
         <v>37</v>
       </c>
       <c r="C39" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>112</v>
+      </c>
+      <c r="E39" t="s">
+        <v>554</v>
       </c>
       <c r="F39" s="5"/>
     </row>
@@ -8918,10 +9370,13 @@
         <v>38</v>
       </c>
       <c r="C40" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>119</v>
+        <v>114</v>
+      </c>
+      <c r="E40" t="s">
+        <v>555</v>
       </c>
       <c r="F40" s="5"/>
     </row>
@@ -8930,10 +9385,13 @@
         <v>39</v>
       </c>
       <c r="C41" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="E41" t="s">
+        <v>556</v>
       </c>
       <c r="F41" s="5"/>
     </row>
@@ -8942,10 +9400,13 @@
         <v>40</v>
       </c>
       <c r="C42" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D42" t="s">
-        <v>123</v>
+        <v>121</v>
+      </c>
+      <c r="E42" t="s">
+        <v>557</v>
       </c>
       <c r="F42" s="5"/>
     </row>
@@ -8954,39 +9415,45 @@
         <v>41</v>
       </c>
       <c r="C43" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E43" t="s">
-        <v>407</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>516</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="F43" s="5"/>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="9">
         <v>42</v>
       </c>
       <c r="C44" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44" t="s">
-        <v>128</v>
-      </c>
-      <c r="F44" s="5"/>
+        <v>125</v>
+      </c>
+      <c r="E44" t="s">
+        <v>406</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="9">
         <v>43</v>
       </c>
       <c r="C45" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D45" t="s">
-        <v>131</v>
+        <v>128</v>
+      </c>
+      <c r="E45" t="s">
+        <v>559</v>
       </c>
       <c r="F45" s="5"/>
     </row>
@@ -8995,10 +9462,13 @@
         <v>44</v>
       </c>
       <c r="C46" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D46" t="s">
-        <v>135</v>
+        <v>131</v>
+      </c>
+      <c r="E46" t="s">
+        <v>560</v>
       </c>
       <c r="F46" s="5"/>
     </row>
@@ -9007,10 +9477,13 @@
         <v>45</v>
       </c>
       <c r="C47" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D47" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="E47" t="s">
+        <v>561</v>
       </c>
       <c r="F47" s="5"/>
     </row>
@@ -9019,10 +9492,13 @@
         <v>46</v>
       </c>
       <c r="C48" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D48" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="E48" t="s">
+        <v>562</v>
       </c>
       <c r="F48" s="5"/>
     </row>
@@ -9031,10 +9507,13 @@
         <v>47</v>
       </c>
       <c r="C49" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D49" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="E49" t="s">
+        <v>563</v>
       </c>
       <c r="F49" s="5"/>
     </row>
@@ -9043,10 +9522,13 @@
         <v>48</v>
       </c>
       <c r="C50" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D50" t="s">
-        <v>141</v>
+        <v>139</v>
+      </c>
+      <c r="E50" t="s">
+        <v>564</v>
       </c>
       <c r="F50" s="5"/>
     </row>
@@ -9055,39 +9537,45 @@
         <v>49</v>
       </c>
       <c r="C51" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D51" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E51" t="s">
-        <v>408</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>504</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="F51" s="5"/>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="9">
         <v>50</v>
       </c>
       <c r="C52" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D52" t="s">
-        <v>145</v>
-      </c>
-      <c r="F52" s="5"/>
+        <v>143</v>
+      </c>
+      <c r="E52" t="s">
+        <v>407</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="9">
         <v>51</v>
       </c>
       <c r="C53" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D53" t="s">
-        <v>150</v>
+        <v>145</v>
+      </c>
+      <c r="E53" t="s">
+        <v>566</v>
       </c>
       <c r="F53" s="5"/>
     </row>
@@ -9096,39 +9584,45 @@
         <v>52</v>
       </c>
       <c r="C54" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D54" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E54" t="s">
-        <v>429</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>521</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="F54" s="5"/>
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="9">
         <v>53</v>
       </c>
       <c r="C55" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D55" t="s">
-        <v>155</v>
-      </c>
-      <c r="F55" s="5"/>
+        <v>152</v>
+      </c>
+      <c r="E55" t="s">
+        <v>428</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="9">
         <v>54</v>
       </c>
       <c r="C56" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D56" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="E56" t="s">
+        <v>568</v>
       </c>
       <c r="F56" s="5"/>
     </row>
@@ -9137,10 +9631,13 @@
         <v>55</v>
       </c>
       <c r="C57" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D57" t="s">
-        <v>161</v>
+        <v>159</v>
+      </c>
+      <c r="E57" t="s">
+        <v>569</v>
       </c>
       <c r="F57" s="5"/>
     </row>
@@ -9149,10 +9646,13 @@
         <v>56</v>
       </c>
       <c r="C58" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D58" t="s">
-        <v>163</v>
+        <v>161</v>
+      </c>
+      <c r="E58" t="s">
+        <v>570</v>
       </c>
       <c r="F58" s="5"/>
     </row>
@@ -9161,10 +9661,13 @@
         <v>57</v>
       </c>
       <c r="C59" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D59" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="E59" t="s">
+        <v>571</v>
       </c>
       <c r="F59" s="5"/>
     </row>
@@ -9173,10 +9676,13 @@
         <v>58</v>
       </c>
       <c r="C60" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D60" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="E60" t="s">
+        <v>572</v>
       </c>
       <c r="F60" s="5"/>
     </row>
@@ -9185,10 +9691,13 @@
         <v>59</v>
       </c>
       <c r="C61" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D61" t="s">
-        <v>170</v>
+        <v>167</v>
+      </c>
+      <c r="E61" t="s">
+        <v>573</v>
       </c>
       <c r="F61" s="5"/>
     </row>
@@ -9197,10 +9706,13 @@
         <v>60</v>
       </c>
       <c r="C62" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D62" t="s">
-        <v>172</v>
+        <v>170</v>
+      </c>
+      <c r="E62" t="s">
+        <v>574</v>
       </c>
       <c r="F62" s="5"/>
     </row>
@@ -9209,10 +9721,13 @@
         <v>61</v>
       </c>
       <c r="C63" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D63" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+      <c r="E63" t="s">
+        <v>575</v>
       </c>
       <c r="F63" s="5"/>
     </row>
@@ -9221,39 +9736,45 @@
         <v>62</v>
       </c>
       <c r="C64" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E64" t="s">
-        <v>409</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>532</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="F64" s="5"/>
     </row>
     <row r="65" spans="2:6">
       <c r="B65" s="9">
         <v>63</v>
       </c>
       <c r="C65" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D65" t="s">
-        <v>178</v>
-      </c>
-      <c r="F65" s="5"/>
+        <v>176</v>
+      </c>
+      <c r="E65" t="s">
+        <v>408</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="66" spans="2:6">
       <c r="B66" s="9">
         <v>64</v>
       </c>
       <c r="C66" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D66" t="s">
-        <v>180</v>
+        <v>178</v>
+      </c>
+      <c r="E66" t="s">
+        <v>577</v>
       </c>
       <c r="F66" s="5"/>
     </row>
@@ -9262,10 +9783,13 @@
         <v>65</v>
       </c>
       <c r="C67" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D67" t="s">
-        <v>183</v>
+        <v>180</v>
+      </c>
+      <c r="E67" t="s">
+        <v>578</v>
       </c>
       <c r="F67" s="5"/>
     </row>
@@ -9274,91 +9798,95 @@
         <v>66</v>
       </c>
       <c r="C68" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D68" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E68" t="s">
-        <v>410</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>500</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="F68" s="5"/>
     </row>
     <row r="69" spans="2:6">
       <c r="B69" s="9">
         <v>67</v>
       </c>
       <c r="C69" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D69" t="s">
-        <v>187</v>
-      </c>
-      <c r="F69" s="5"/>
+        <v>185</v>
+      </c>
+      <c r="E69" t="s">
+        <v>409</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="70" spans="2:6">
       <c r="B70" s="9">
         <v>68</v>
       </c>
       <c r="C70" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D70" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E70" t="s">
-        <v>411</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>507</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="F70" s="5"/>
     </row>
     <row r="71" spans="2:6">
       <c r="B71" s="9">
         <v>69</v>
       </c>
       <c r="C71" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D71" t="s">
-        <v>191</v>
-      </c>
-      <c r="F71" s="5"/>
+        <v>189</v>
+      </c>
+      <c r="E71" t="s">
+        <v>410</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="72" spans="2:6">
       <c r="B72" s="9">
         <v>70</v>
       </c>
       <c r="C72" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D72" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E72" t="s">
-        <v>412</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>531</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="F72" s="5"/>
     </row>
     <row r="73" spans="2:6">
       <c r="B73" s="9">
         <v>71</v>
       </c>
       <c r="C73" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D73" t="s">
-        <v>196</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>413</v>
+        <v>193</v>
+      </c>
+      <c r="E73" t="s">
+        <v>411</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
     </row>
     <row r="74" spans="2:6">
@@ -9366,22 +9894,30 @@
         <v>72</v>
       </c>
       <c r="C74" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D74" t="s">
-        <v>199</v>
-      </c>
-      <c r="F74" s="5"/>
+        <v>196</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="75" spans="2:6">
       <c r="B75" s="9">
         <v>73</v>
       </c>
       <c r="C75" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D75" t="s">
-        <v>201</v>
+        <v>199</v>
+      </c>
+      <c r="E75" t="s">
+        <v>582</v>
       </c>
       <c r="F75" s="5"/>
     </row>
@@ -9390,39 +9926,45 @@
         <v>74</v>
       </c>
       <c r="C76" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D76" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E76" t="s">
-        <v>430</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>528</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="F76" s="5"/>
     </row>
     <row r="77" spans="2:6">
       <c r="B77" s="9">
         <v>75</v>
       </c>
       <c r="C77" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D77" t="s">
-        <v>205</v>
-      </c>
-      <c r="F77" s="5"/>
+        <v>203</v>
+      </c>
+      <c r="E77" t="s">
+        <v>429</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="78" spans="2:6">
       <c r="B78" s="9">
         <v>76</v>
       </c>
       <c r="C78" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D78" t="s">
-        <v>207</v>
+        <v>205</v>
+      </c>
+      <c r="E78" t="s">
+        <v>584</v>
       </c>
       <c r="F78" s="5"/>
     </row>
@@ -9431,62 +9973,63 @@
         <v>77</v>
       </c>
       <c r="C79" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D79" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E79" t="s">
-        <v>431</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>533</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="F79" s="5"/>
     </row>
     <row r="80" spans="2:6">
       <c r="B80" s="9">
         <v>78</v>
       </c>
       <c r="C80" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D80" t="s">
-        <v>211</v>
-      </c>
-      <c r="F80" s="5"/>
+        <v>208</v>
+      </c>
+      <c r="E80" t="s">
+        <v>430</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="81" spans="2:6">
       <c r="B81" s="9">
         <v>79</v>
       </c>
       <c r="C81" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D81" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E81" t="s">
-        <v>414</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>492</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="F81" s="5"/>
     </row>
     <row r="82" spans="2:6">
       <c r="B82" s="9">
         <v>80</v>
       </c>
       <c r="C82" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D82" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E82" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
     </row>
     <row r="83" spans="2:6">
@@ -9494,80 +10037,94 @@
         <v>81</v>
       </c>
       <c r="C83" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D83" t="s">
-        <v>216</v>
-      </c>
-      <c r="F83" s="5"/>
+        <v>215</v>
+      </c>
+      <c r="E83" t="s">
+        <v>431</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="84" spans="2:6">
       <c r="B84" s="9">
         <v>82</v>
       </c>
       <c r="C84" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D84" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E84" t="s">
-        <v>415</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>513</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="F84" s="5"/>
     </row>
     <row r="85" spans="2:6">
       <c r="B85" s="9">
         <v>83</v>
       </c>
       <c r="C85" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D85" t="s">
-        <v>222</v>
-      </c>
-      <c r="F85" s="5"/>
+        <v>218</v>
+      </c>
+      <c r="E85" t="s">
+        <v>414</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="86" spans="2:6">
       <c r="B86" s="9">
         <v>84</v>
       </c>
       <c r="C86" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D86" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E86" t="s">
-        <v>416</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>518</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="F86" s="5"/>
     </row>
     <row r="87" spans="2:6">
       <c r="B87" s="9">
         <v>85</v>
       </c>
       <c r="C87" s="9">
-        <v>85</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="F87" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="D87" t="s">
+        <v>224</v>
+      </c>
+      <c r="E87" t="s">
+        <v>415</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="88" spans="2:6">
       <c r="B88" s="9">
         <v>86</v>
       </c>
       <c r="C88" s="9">
-        <v>86</v>
-      </c>
-      <c r="D88" t="s">
-        <v>229</v>
+        <v>85</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E88" t="s">
+        <v>589</v>
       </c>
       <c r="F88" s="5"/>
     </row>
@@ -9576,39 +10133,45 @@
         <v>87</v>
       </c>
       <c r="C89" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D89" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E89" t="s">
-        <v>417</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>515</v>
-      </c>
+        <v>590</v>
+      </c>
+      <c r="F89" s="5"/>
     </row>
     <row r="90" spans="2:6">
       <c r="B90" s="9">
         <v>88</v>
       </c>
       <c r="C90" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D90" t="s">
-        <v>233</v>
-      </c>
-      <c r="F90" s="5"/>
+        <v>231</v>
+      </c>
+      <c r="E90" t="s">
+        <v>416</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="91" spans="2:6">
       <c r="B91" s="9">
         <v>89</v>
       </c>
       <c r="C91" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D91" t="s">
-        <v>235</v>
+        <v>233</v>
+      </c>
+      <c r="E91" t="s">
+        <v>591</v>
       </c>
       <c r="F91" s="5"/>
     </row>
@@ -9617,10 +10180,13 @@
         <v>90</v>
       </c>
       <c r="C92" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D92" t="s">
-        <v>237</v>
+        <v>235</v>
+      </c>
+      <c r="E92" t="s">
+        <v>592</v>
       </c>
       <c r="F92" s="5"/>
     </row>
@@ -9629,10 +10195,13 @@
         <v>91</v>
       </c>
       <c r="C93" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D93" t="s">
-        <v>240</v>
+        <v>237</v>
+      </c>
+      <c r="E93" t="s">
+        <v>593</v>
       </c>
       <c r="F93" s="5"/>
     </row>
@@ -9641,39 +10210,45 @@
         <v>92</v>
       </c>
       <c r="C94" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E94" t="s">
-        <v>418</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>495</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="F94" s="5"/>
     </row>
     <row r="95" spans="2:6">
       <c r="B95" s="9">
         <v>93</v>
       </c>
       <c r="C95" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D95" t="s">
-        <v>246</v>
-      </c>
-      <c r="F95" s="5"/>
+        <v>243</v>
+      </c>
+      <c r="E95" t="s">
+        <v>417</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="96" spans="2:6">
       <c r="B96" s="9">
         <v>94</v>
       </c>
       <c r="C96" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D96" t="s">
-        <v>248</v>
+        <v>246</v>
+      </c>
+      <c r="E96" t="s">
+        <v>595</v>
       </c>
       <c r="F96" s="5"/>
     </row>
@@ -9682,10 +10257,13 @@
         <v>95</v>
       </c>
       <c r="C97" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D97" t="s">
-        <v>250</v>
+        <v>248</v>
+      </c>
+      <c r="E97" t="s">
+        <v>596</v>
       </c>
       <c r="F97" s="5"/>
     </row>
@@ -9694,10 +10272,13 @@
         <v>96</v>
       </c>
       <c r="C98" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D98" t="s">
-        <v>253</v>
+        <v>250</v>
+      </c>
+      <c r="E98" t="s">
+        <v>597</v>
       </c>
       <c r="F98" s="5"/>
     </row>
@@ -9706,10 +10287,13 @@
         <v>97</v>
       </c>
       <c r="C99" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D99" t="s">
-        <v>255</v>
+        <v>253</v>
+      </c>
+      <c r="E99" t="s">
+        <v>598</v>
       </c>
       <c r="F99" s="5"/>
     </row>
@@ -9718,10 +10302,13 @@
         <v>98</v>
       </c>
       <c r="C100" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D100" t="s">
-        <v>257</v>
+        <v>255</v>
+      </c>
+      <c r="E100" t="s">
+        <v>599</v>
       </c>
       <c r="F100" s="5"/>
     </row>
@@ -9730,10 +10317,13 @@
         <v>99</v>
       </c>
       <c r="C101" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D101" t="s">
-        <v>259</v>
+        <v>257</v>
+      </c>
+      <c r="E101" t="s">
+        <v>600</v>
       </c>
       <c r="F101" s="5"/>
     </row>
@@ -9742,10 +10332,13 @@
         <v>100</v>
       </c>
       <c r="C102" s="9">
-        <v>100</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>260</v>
+        <v>99</v>
+      </c>
+      <c r="D102" t="s">
+        <v>259</v>
+      </c>
+      <c r="E102" t="s">
+        <v>601</v>
       </c>
       <c r="F102" s="5"/>
     </row>
@@ -9754,10 +10347,13 @@
         <v>101</v>
       </c>
       <c r="C103" s="9">
-        <v>101</v>
-      </c>
-      <c r="D103" t="s">
-        <v>262</v>
+        <v>100</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E103" t="s">
+        <v>602</v>
       </c>
       <c r="F103" s="5"/>
     </row>
@@ -9766,10 +10362,13 @@
         <v>102</v>
       </c>
       <c r="C104" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D104" t="s">
-        <v>264</v>
+        <v>262</v>
+      </c>
+      <c r="E104" t="s">
+        <v>603</v>
       </c>
       <c r="F104" s="5"/>
     </row>
@@ -9778,10 +10377,13 @@
         <v>103</v>
       </c>
       <c r="C105" s="9">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D105" t="s">
-        <v>265</v>
+        <v>264</v>
+      </c>
+      <c r="E105" t="s">
+        <v>604</v>
       </c>
       <c r="F105" s="5"/>
     </row>
@@ -9790,39 +10392,39 @@
         <v>104</v>
       </c>
       <c r="C106" s="9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D106" t="s">
-        <v>267</v>
-      </c>
-      <c r="E106" t="s">
-        <v>433</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>530</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="F106" s="5"/>
     </row>
     <row r="107" spans="2:6">
       <c r="B107" s="9">
         <v>105</v>
       </c>
       <c r="C107" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D107" t="s">
-        <v>269</v>
-      </c>
-      <c r="F107" s="5"/>
+        <v>267</v>
+      </c>
+      <c r="E107" t="s">
+        <v>432</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="108" spans="2:6">
       <c r="B108" s="9">
         <v>106</v>
       </c>
       <c r="C108" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D108" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F108" s="5"/>
     </row>
@@ -9831,10 +10433,13 @@
         <v>107</v>
       </c>
       <c r="C109" s="9">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D109" t="s">
-        <v>273</v>
+        <v>271</v>
+      </c>
+      <c r="E109" t="s">
+        <v>605</v>
       </c>
       <c r="F109" s="5"/>
     </row>
@@ -9843,10 +10448,13 @@
         <v>108</v>
       </c>
       <c r="C110" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D110" t="s">
-        <v>274</v>
+        <v>273</v>
+      </c>
+      <c r="E110" t="s">
+        <v>606</v>
       </c>
       <c r="F110" s="5"/>
     </row>
@@ -9855,10 +10463,13 @@
         <v>109</v>
       </c>
       <c r="C111" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D111" t="s">
-        <v>275</v>
+        <v>274</v>
+      </c>
+      <c r="E111" t="s">
+        <v>607</v>
       </c>
       <c r="F111" s="5"/>
     </row>
@@ -9867,10 +10478,13 @@
         <v>110</v>
       </c>
       <c r="C112" s="9">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D112" t="s">
-        <v>276</v>
+        <v>275</v>
+      </c>
+      <c r="E112" t="s">
+        <v>608</v>
       </c>
       <c r="F112" s="5"/>
     </row>
@@ -9879,10 +10493,13 @@
         <v>111</v>
       </c>
       <c r="C113" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D113" t="s">
-        <v>277</v>
+        <v>276</v>
+      </c>
+      <c r="E113" t="s">
+        <v>609</v>
       </c>
       <c r="F113" s="5"/>
     </row>
@@ -9891,10 +10508,13 @@
         <v>112</v>
       </c>
       <c r="C114" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D114" t="s">
-        <v>279</v>
+        <v>277</v>
+      </c>
+      <c r="E114" t="s">
+        <v>610</v>
       </c>
       <c r="F114" s="5"/>
     </row>
@@ -9903,10 +10523,13 @@
         <v>113</v>
       </c>
       <c r="C115" s="9">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D115" t="s">
-        <v>282</v>
+        <v>279</v>
+      </c>
+      <c r="E115" t="s">
+        <v>611</v>
       </c>
       <c r="F115" s="5"/>
     </row>
@@ -9915,39 +10538,45 @@
         <v>114</v>
       </c>
       <c r="C116" s="9">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D116" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E116" t="s">
-        <v>419</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>503</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="F116" s="5"/>
     </row>
     <row r="117" spans="2:6">
       <c r="B117" s="9">
         <v>115</v>
       </c>
       <c r="C117" s="9">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D117" t="s">
-        <v>286</v>
-      </c>
-      <c r="F117" s="5"/>
+        <v>284</v>
+      </c>
+      <c r="E117" t="s">
+        <v>418</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="118" spans="2:6">
       <c r="B118" s="9">
         <v>116</v>
       </c>
       <c r="C118" s="9">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D118" t="s">
-        <v>287</v>
+        <v>286</v>
+      </c>
+      <c r="E118" t="s">
+        <v>613</v>
       </c>
       <c r="F118" s="5"/>
     </row>
@@ -9956,10 +10585,13 @@
         <v>117</v>
       </c>
       <c r="C119" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D119" t="s">
-        <v>289</v>
+        <v>287</v>
+      </c>
+      <c r="E119" t="s">
+        <v>614</v>
       </c>
       <c r="F119" s="5"/>
     </row>
@@ -9968,10 +10600,13 @@
         <v>118</v>
       </c>
       <c r="C120" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D120" t="s">
-        <v>291</v>
+        <v>289</v>
+      </c>
+      <c r="E120" t="s">
+        <v>615</v>
       </c>
       <c r="F120" s="5"/>
     </row>
@@ -9980,10 +10615,13 @@
         <v>119</v>
       </c>
       <c r="C121" s="9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D121" t="s">
-        <v>293</v>
+        <v>291</v>
+      </c>
+      <c r="E121" t="s">
+        <v>616</v>
       </c>
       <c r="F121" s="5"/>
     </row>
@@ -9992,10 +10630,13 @@
         <v>120</v>
       </c>
       <c r="C122" s="9">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D122" t="s">
-        <v>294</v>
+        <v>293</v>
+      </c>
+      <c r="E122" t="s">
+        <v>617</v>
       </c>
       <c r="F122" s="5"/>
     </row>
@@ -10004,10 +10645,13 @@
         <v>121</v>
       </c>
       <c r="C123" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D123" t="s">
-        <v>295</v>
+        <v>294</v>
+      </c>
+      <c r="E123" t="s">
+        <v>618</v>
       </c>
       <c r="F123" s="5"/>
     </row>
@@ -10016,10 +10660,13 @@
         <v>122</v>
       </c>
       <c r="C124" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D124" t="s">
-        <v>299</v>
+        <v>295</v>
+      </c>
+      <c r="E124" t="s">
+        <v>619</v>
       </c>
       <c r="F124" s="5"/>
     </row>
@@ -10028,39 +10675,45 @@
         <v>123</v>
       </c>
       <c r="C125" s="9">
-        <v>123</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>301</v>
+        <v>122</v>
+      </c>
+      <c r="D125" t="s">
+        <v>299</v>
       </c>
       <c r="E125" t="s">
-        <v>434</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>523</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="F125" s="5"/>
     </row>
     <row r="126" spans="2:6">
       <c r="B126" s="9">
         <v>124</v>
       </c>
       <c r="C126" s="9">
-        <v>124</v>
-      </c>
-      <c r="D126" t="s">
-        <v>303</v>
-      </c>
-      <c r="F126" s="5"/>
+        <v>123</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E126" t="s">
+        <v>433</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="127" spans="2:6">
       <c r="B127" s="9">
         <v>125</v>
       </c>
       <c r="C127" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D127" t="s">
-        <v>305</v>
+        <v>303</v>
+      </c>
+      <c r="E127" t="s">
+        <v>621</v>
       </c>
       <c r="F127" s="5"/>
     </row>
@@ -10069,10 +10722,13 @@
         <v>126</v>
       </c>
       <c r="C128" s="9">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D128" t="s">
-        <v>308</v>
+        <v>305</v>
+      </c>
+      <c r="E128" t="s">
+        <v>622</v>
       </c>
       <c r="F128" s="5"/>
     </row>
@@ -10081,10 +10737,13 @@
         <v>127</v>
       </c>
       <c r="C129" s="9">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D129" t="s">
-        <v>310</v>
+        <v>308</v>
+      </c>
+      <c r="E129" t="s">
+        <v>623</v>
       </c>
       <c r="F129" s="5"/>
     </row>
@@ -10093,10 +10752,13 @@
         <v>128</v>
       </c>
       <c r="C130" s="9">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D130" t="s">
-        <v>312</v>
+        <v>310</v>
+      </c>
+      <c r="E130" t="s">
+        <v>624</v>
       </c>
       <c r="F130" s="5"/>
     </row>
@@ -10105,10 +10767,13 @@
         <v>129</v>
       </c>
       <c r="C131" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D131" t="s">
-        <v>313</v>
+        <v>312</v>
+      </c>
+      <c r="E131" t="s">
+        <v>625</v>
       </c>
       <c r="F131" s="5"/>
     </row>
@@ -10117,10 +10782,13 @@
         <v>130</v>
       </c>
       <c r="C132" s="9">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D132" t="s">
-        <v>314</v>
+        <v>313</v>
+      </c>
+      <c r="E132" t="s">
+        <v>626</v>
       </c>
       <c r="F132" s="5"/>
     </row>
@@ -10129,39 +10797,45 @@
         <v>131</v>
       </c>
       <c r="C133" s="9">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D133" t="s">
-        <v>316</v>
+        <v>627</v>
       </c>
       <c r="E133" t="s">
-        <v>420</v>
-      </c>
-      <c r="F133" s="5" t="s">
-        <v>509</v>
-      </c>
+        <v>628</v>
+      </c>
+      <c r="F133" s="5"/>
     </row>
     <row r="134" spans="2:6">
       <c r="B134" s="9">
         <v>132</v>
       </c>
       <c r="C134" s="9">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D134" t="s">
-        <v>317</v>
-      </c>
-      <c r="F134" s="5"/>
+        <v>315</v>
+      </c>
+      <c r="E134" t="s">
+        <v>419</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="135" spans="2:6">
       <c r="B135" s="9">
         <v>133</v>
       </c>
       <c r="C135" s="9">
-        <v>133</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>319</v>
+        <v>132</v>
+      </c>
+      <c r="D135" t="s">
+        <v>316</v>
+      </c>
+      <c r="E135" t="s">
+        <v>629</v>
       </c>
       <c r="F135" s="5"/>
     </row>
@@ -10170,10 +10844,10 @@
         <v>134</v>
       </c>
       <c r="C136" s="9">
-        <v>134</v>
-      </c>
-      <c r="D136" t="s">
-        <v>321</v>
+        <v>133</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>318</v>
       </c>
       <c r="F136" s="5"/>
     </row>
@@ -10182,10 +10856,13 @@
         <v>135</v>
       </c>
       <c r="C137" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D137" t="s">
-        <v>322</v>
+        <v>320</v>
+      </c>
+      <c r="E137" t="s">
+        <v>630</v>
       </c>
       <c r="F137" s="5"/>
     </row>
@@ -10194,10 +10871,13 @@
         <v>136</v>
       </c>
       <c r="C138" s="9">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D138" t="s">
-        <v>324</v>
+        <v>321</v>
+      </c>
+      <c r="E138" t="s">
+        <v>631</v>
       </c>
       <c r="F138" s="5"/>
     </row>
@@ -10206,10 +10886,13 @@
         <v>137</v>
       </c>
       <c r="C139" s="9">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D139" t="s">
-        <v>325</v>
+        <v>323</v>
+      </c>
+      <c r="E139" t="s">
+        <v>632</v>
       </c>
       <c r="F139" s="5"/>
     </row>
@@ -10218,10 +10901,13 @@
         <v>138</v>
       </c>
       <c r="C140" s="9">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D140" t="s">
-        <v>326</v>
+        <v>324</v>
+      </c>
+      <c r="E140" t="s">
+        <v>633</v>
       </c>
       <c r="F140" s="5"/>
     </row>
@@ -10230,10 +10916,13 @@
         <v>139</v>
       </c>
       <c r="C141" s="9">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D141" t="s">
-        <v>330</v>
+        <v>325</v>
+      </c>
+      <c r="E141" t="s">
+        <v>634</v>
       </c>
       <c r="F141" s="5"/>
     </row>
@@ -10242,10 +10931,13 @@
         <v>140</v>
       </c>
       <c r="C142" s="9">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D142" t="s">
-        <v>332</v>
+        <v>329</v>
+      </c>
+      <c r="E142" t="s">
+        <v>635</v>
       </c>
       <c r="F142" s="5"/>
     </row>
@@ -10254,10 +10946,13 @@
         <v>141</v>
       </c>
       <c r="C143" s="9">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D143" t="s">
-        <v>334</v>
+        <v>331</v>
+      </c>
+      <c r="E143" t="s">
+        <v>636</v>
       </c>
       <c r="F143" s="5"/>
     </row>
@@ -10266,33 +10961,28 @@
         <v>142</v>
       </c>
       <c r="C144" s="9">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D144" t="s">
-        <v>336</v>
-      </c>
-      <c r="E144" t="s">
-        <v>435</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>510</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="F144" s="5"/>
     </row>
     <row r="145" spans="2:6">
       <c r="B145" s="9">
         <v>143</v>
       </c>
       <c r="C145" s="9">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D145" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E145" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
     </row>
     <row r="146" spans="2:6">
@@ -10300,22 +10990,30 @@
         <v>144</v>
       </c>
       <c r="C146" s="9">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D146" t="s">
-        <v>340</v>
-      </c>
-      <c r="F146" s="5"/>
+        <v>337</v>
+      </c>
+      <c r="E146" t="s">
+        <v>435</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="147" spans="2:6">
       <c r="B147" s="9">
         <v>145</v>
       </c>
       <c r="C147" s="9">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D147" t="s">
-        <v>343</v>
+        <v>339</v>
+      </c>
+      <c r="E147" t="s">
+        <v>637</v>
       </c>
       <c r="F147" s="5"/>
     </row>
@@ -10324,10 +11022,13 @@
         <v>146</v>
       </c>
       <c r="C148" s="9">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D148" t="s">
-        <v>345</v>
+        <v>342</v>
+      </c>
+      <c r="E148" t="s">
+        <v>638</v>
       </c>
       <c r="F148" s="5"/>
     </row>
@@ -10336,10 +11037,13 @@
         <v>147</v>
       </c>
       <c r="C149" s="9">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D149" t="s">
-        <v>346</v>
+        <v>344</v>
+      </c>
+      <c r="E149" t="s">
+        <v>639</v>
       </c>
       <c r="F149" s="5"/>
     </row>
@@ -10348,10 +11052,13 @@
         <v>148</v>
       </c>
       <c r="C150" s="9">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D150" t="s">
-        <v>348</v>
+        <v>345</v>
+      </c>
+      <c r="E150" t="s">
+        <v>640</v>
       </c>
       <c r="F150" s="5"/>
     </row>
@@ -10360,10 +11067,13 @@
         <v>149</v>
       </c>
       <c r="C151" s="9">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D151" t="s">
-        <v>349</v>
+        <v>347</v>
+      </c>
+      <c r="E151" t="s">
+        <v>641</v>
       </c>
       <c r="F151" s="5"/>
     </row>
@@ -10372,33 +11082,31 @@
         <v>150</v>
       </c>
       <c r="C152" s="9">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D152" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E152" t="s">
-        <v>437</v>
-      </c>
-      <c r="F152" s="5" t="s">
-        <v>508</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="F152" s="5"/>
     </row>
     <row r="153" spans="2:6">
       <c r="B153" s="9">
         <v>151</v>
       </c>
       <c r="C153" s="9">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D153" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E153" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
     </row>
     <row r="154" spans="2:6">
@@ -10406,16 +11114,16 @@
         <v>152</v>
       </c>
       <c r="C154" s="9">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D154" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E154" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
     </row>
     <row r="155" spans="2:6">
@@ -10423,16 +11131,16 @@
         <v>153</v>
       </c>
       <c r="C155" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D155" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E155" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="156" spans="2:6">
@@ -10440,51 +11148,62 @@
         <v>154</v>
       </c>
       <c r="C156" s="9">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D156" t="s">
-        <v>355</v>
-      </c>
-      <c r="F156" s="5"/>
+        <v>352</v>
+      </c>
+      <c r="E156" t="s">
+        <v>422</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="157" spans="2:6">
       <c r="B157" s="9">
         <v>155</v>
       </c>
       <c r="C157" s="9">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D157" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E157" t="s">
-        <v>438</v>
-      </c>
-      <c r="F157" s="5" t="s">
-        <v>497</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="F157" s="5"/>
     </row>
     <row r="158" spans="2:6">
       <c r="B158" s="9">
         <v>156</v>
       </c>
       <c r="C158" s="9">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D158" t="s">
-        <v>359</v>
-      </c>
-      <c r="F158" s="5"/>
+        <v>356</v>
+      </c>
+      <c r="E158" t="s">
+        <v>437</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="159" spans="2:6">
       <c r="B159" s="9">
         <v>157</v>
       </c>
       <c r="C159" s="9">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D159" t="s">
-        <v>360</v>
+        <v>358</v>
+      </c>
+      <c r="E159" t="s">
+        <v>644</v>
       </c>
       <c r="F159" s="5"/>
     </row>
@@ -10493,10 +11212,13 @@
         <v>158</v>
       </c>
       <c r="C160" s="9">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D160" t="s">
-        <v>362</v>
+        <v>359</v>
+      </c>
+      <c r="E160" t="s">
+        <v>645</v>
       </c>
       <c r="F160" s="5"/>
     </row>
@@ -10505,10 +11227,13 @@
         <v>159</v>
       </c>
       <c r="C161" s="9">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D161" t="s">
-        <v>364</v>
+        <v>361</v>
+      </c>
+      <c r="E161" t="s">
+        <v>646</v>
       </c>
       <c r="F161" s="5"/>
     </row>
@@ -10517,10 +11242,13 @@
         <v>160</v>
       </c>
       <c r="C162" s="9">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D162" t="s">
-        <v>366</v>
+        <v>363</v>
+      </c>
+      <c r="E162" t="s">
+        <v>647</v>
       </c>
       <c r="F162" s="5"/>
     </row>
@@ -10529,10 +11257,10 @@
         <v>161</v>
       </c>
       <c r="C163" s="9">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D163" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F163" s="5"/>
     </row>
@@ -10541,10 +11269,13 @@
         <v>162</v>
       </c>
       <c r="C164" s="9">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D164" t="s">
-        <v>369</v>
+        <v>366</v>
+      </c>
+      <c r="E164" t="s">
+        <v>648</v>
       </c>
       <c r="F164" s="5"/>
     </row>
@@ -10553,10 +11284,13 @@
         <v>163</v>
       </c>
       <c r="C165" s="9">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D165" t="s">
-        <v>371</v>
+        <v>368</v>
+      </c>
+      <c r="E165" t="s">
+        <v>649</v>
       </c>
       <c r="F165" s="5"/>
     </row>
@@ -10565,10 +11299,13 @@
         <v>164</v>
       </c>
       <c r="C166" s="9">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D166" t="s">
-        <v>372</v>
+        <v>370</v>
+      </c>
+      <c r="E166" t="s">
+        <v>650</v>
       </c>
       <c r="F166" s="5"/>
     </row>
@@ -10577,10 +11314,13 @@
         <v>165</v>
       </c>
       <c r="C167" s="9">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D167" t="s">
-        <v>374</v>
+        <v>371</v>
+      </c>
+      <c r="E167" t="s">
+        <v>651</v>
       </c>
       <c r="F167" s="5"/>
     </row>
@@ -10589,10 +11329,13 @@
         <v>166</v>
       </c>
       <c r="C168" s="9">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D168" t="s">
-        <v>376</v>
+        <v>373</v>
+      </c>
+      <c r="E168" t="s">
+        <v>652</v>
       </c>
       <c r="F168" s="5"/>
     </row>
@@ -10601,10 +11344,13 @@
         <v>167</v>
       </c>
       <c r="C169" s="9">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D169" t="s">
-        <v>378</v>
+        <v>375</v>
+      </c>
+      <c r="E169" t="s">
+        <v>653</v>
       </c>
       <c r="F169" s="5"/>
     </row>
@@ -10613,10 +11359,13 @@
         <v>168</v>
       </c>
       <c r="C170" s="9">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D170" t="s">
-        <v>379</v>
+        <v>377</v>
+      </c>
+      <c r="E170" t="s">
+        <v>654</v>
       </c>
       <c r="F170" s="5"/>
     </row>
@@ -10625,10 +11374,13 @@
         <v>169</v>
       </c>
       <c r="C171" s="9">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D171" t="s">
-        <v>381</v>
+        <v>378</v>
+      </c>
+      <c r="E171" t="s">
+        <v>655</v>
       </c>
       <c r="F171" s="5"/>
     </row>
@@ -10637,10 +11389,13 @@
         <v>170</v>
       </c>
       <c r="C172" s="9">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D172" t="s">
-        <v>384</v>
+        <v>380</v>
+      </c>
+      <c r="E172" t="s">
+        <v>656</v>
       </c>
       <c r="F172" s="5"/>
     </row>
@@ -10649,10 +11404,10 @@
         <v>171</v>
       </c>
       <c r="C173" s="9">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D173" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F173" s="5"/>
     </row>
@@ -10661,41 +11416,59 @@
         <v>172</v>
       </c>
       <c r="C174" s="9">
+        <v>171</v>
+      </c>
+      <c r="D174" t="s">
+        <v>384</v>
+      </c>
+      <c r="E174" t="s">
+        <v>657</v>
+      </c>
+      <c r="F174" s="5"/>
+    </row>
+    <row r="175" spans="2:6">
+      <c r="B175" s="9">
+        <v>173</v>
+      </c>
+      <c r="C175" s="9">
         <v>172</v>
       </c>
-      <c r="D174" t="s">
-        <v>387</v>
-      </c>
-      <c r="E174" t="s">
+      <c r="D175" t="s">
+        <v>386</v>
+      </c>
+      <c r="E175" t="s">
+        <v>438</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6">
+      <c r="B176" t="s">
         <v>439</v>
       </c>
-      <c r="F174" s="5" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="175" spans="2:6">
-      <c r="B175" t="s">
-        <v>440</v>
-      </c>
-      <c r="E175">
+      <c r="E176">
         <f>SUBTOTAL(103,Tabela2[File Name])</f>
-        <v>44</v>
-      </c>
-      <c r="F175">
+        <v>167</v>
+      </c>
+      <c r="F176">
         <f>SUBTOTAL(103,Tabela2[File Adress])</f>
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E3:E174">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  <conditionalFormatting sqref="E3:E4 E6:E12 E14 E16:E48 E50:E103 E105:E132 E134:E175">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F174">
+  <conditionalFormatting sqref="F3:F175">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E175">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F31" r:id="rId1" xr:uid="{68B4E8A5-0080-4372-B4E0-62930C0A68B4}"/>
-    <hyperlink ref="F28" r:id="rId2" xr:uid="{AD28D80B-ECEE-4289-A1F7-69B4666DA64D}"/>
+    <hyperlink ref="F32" r:id="rId1" xr:uid="{68B4E8A5-0080-4372-B4E0-62930C0A68B4}"/>
+    <hyperlink ref="F29" r:id="rId2" xr:uid="{AD28D80B-ECEE-4289-A1F7-69B4666DA64D}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">

--- a/PDE3 database - Institute of Translational Medicine - University of Liverpool.xlsx
+++ b/PDE3 database - Institute of Translational Medicine - University of Liverpool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivbie\Documents\2020 - Projetos mestrado\CYFIP2\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5281B1B-0128-4949-82DA-8FA3A0B77E87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EEA081-21A4-4351-89F1-26B261D86F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="660">
   <si>
     <t>Name</t>
   </si>
@@ -2003,6 +2003,12 @@
   </si>
   <si>
     <t>Conformer3D_CID_3000322</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/tree/master/PDB%20files%20model%20SDF</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/tree/master/pubchem%20files</t>
   </si>
 </sst>
 </file>
@@ -2672,8 +2678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R178"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A139" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D162" sqref="D162"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
@@ -8749,8 +8755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D00A50-BAF2-4D7C-9C79-39B14A850D5C}">
   <dimension ref="B2:F176"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8825,7 +8831,9 @@
       <c r="E5" t="s">
         <v>534</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="9">
@@ -8874,7 +8882,9 @@
       <c r="E8" t="s">
         <v>535</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="9">
@@ -8889,7 +8899,9 @@
       <c r="E9" t="s">
         <v>536</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="9">
@@ -8904,7 +8916,9 @@
       <c r="E10" t="s">
         <v>537</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="9">
@@ -8936,7 +8950,9 @@
       <c r="E12" t="s">
         <v>538</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="9">
@@ -8951,7 +8967,9 @@
       <c r="E13" t="s">
         <v>539</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="9">
@@ -8983,7 +9001,9 @@
       <c r="E15" t="s">
         <v>540</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="9">
@@ -8998,7 +9018,9 @@
       <c r="E16" t="s">
         <v>541</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="9">
@@ -9013,7 +9035,9 @@
       <c r="E17" t="s">
         <v>542</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="9">
@@ -9028,7 +9052,9 @@
       <c r="E18" t="s">
         <v>543</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="9">
@@ -9077,7 +9103,9 @@
       <c r="E21" t="s">
         <v>544</v>
       </c>
-      <c r="F21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="9">
@@ -9126,7 +9154,9 @@
       <c r="E24" t="s">
         <v>545</v>
       </c>
-      <c r="F24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="9">
@@ -9158,7 +9188,9 @@
       <c r="E26" t="s">
         <v>546</v>
       </c>
-      <c r="F26" s="5"/>
+      <c r="F26" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="9">
@@ -9173,7 +9205,9 @@
       <c r="E27" t="s">
         <v>547</v>
       </c>
-      <c r="F27" s="5"/>
+      <c r="F27" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="9">
@@ -9188,7 +9222,9 @@
       <c r="E28" t="s">
         <v>548</v>
       </c>
-      <c r="F28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="9">
@@ -9220,7 +9256,9 @@
       <c r="E30" t="s">
         <v>549</v>
       </c>
-      <c r="F30" s="5"/>
+      <c r="F30" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="9">
@@ -9286,7 +9324,9 @@
       <c r="E34" t="s">
         <v>550</v>
       </c>
-      <c r="F34" s="5"/>
+      <c r="F34" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="9">
@@ -9318,7 +9358,9 @@
       <c r="E36" t="s">
         <v>551</v>
       </c>
-      <c r="F36" s="5"/>
+      <c r="F36" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="9">
@@ -9333,7 +9375,9 @@
       <c r="E37" t="s">
         <v>552</v>
       </c>
-      <c r="F37" s="5"/>
+      <c r="F37" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="9">
@@ -9348,7 +9392,9 @@
       <c r="E38" t="s">
         <v>553</v>
       </c>
-      <c r="F38" s="5"/>
+      <c r="F38" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="9">
@@ -9363,7 +9409,9 @@
       <c r="E39" t="s">
         <v>554</v>
       </c>
-      <c r="F39" s="5"/>
+      <c r="F39" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="9">
@@ -9378,7 +9426,9 @@
       <c r="E40" t="s">
         <v>555</v>
       </c>
-      <c r="F40" s="5"/>
+      <c r="F40" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="9">
@@ -9393,7 +9443,9 @@
       <c r="E41" t="s">
         <v>556</v>
       </c>
-      <c r="F41" s="5"/>
+      <c r="F41" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="9">
@@ -9408,7 +9460,9 @@
       <c r="E42" t="s">
         <v>557</v>
       </c>
-      <c r="F42" s="5"/>
+      <c r="F42" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="9">
@@ -9423,7 +9477,9 @@
       <c r="E43" t="s">
         <v>558</v>
       </c>
-      <c r="F43" s="5"/>
+      <c r="F43" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="9">
@@ -9455,7 +9511,9 @@
       <c r="E45" t="s">
         <v>559</v>
       </c>
-      <c r="F45" s="5"/>
+      <c r="F45" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="9">
@@ -9470,7 +9528,9 @@
       <c r="E46" t="s">
         <v>560</v>
       </c>
-      <c r="F46" s="5"/>
+      <c r="F46" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="9">
@@ -9485,7 +9545,9 @@
       <c r="E47" t="s">
         <v>561</v>
       </c>
-      <c r="F47" s="5"/>
+      <c r="F47" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="9">
@@ -9500,7 +9562,9 @@
       <c r="E48" t="s">
         <v>562</v>
       </c>
-      <c r="F48" s="5"/>
+      <c r="F48" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="9">
@@ -9515,7 +9579,9 @@
       <c r="E49" t="s">
         <v>563</v>
       </c>
-      <c r="F49" s="5"/>
+      <c r="F49" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="9">
@@ -9530,7 +9596,9 @@
       <c r="E50" t="s">
         <v>564</v>
       </c>
-      <c r="F50" s="5"/>
+      <c r="F50" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="9">
@@ -9545,7 +9613,9 @@
       <c r="E51" t="s">
         <v>565</v>
       </c>
-      <c r="F51" s="5"/>
+      <c r="F51" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="9">
@@ -9577,7 +9647,9 @@
       <c r="E53" t="s">
         <v>566</v>
       </c>
-      <c r="F53" s="5"/>
+      <c r="F53" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="9">
@@ -9592,7 +9664,9 @@
       <c r="E54" t="s">
         <v>567</v>
       </c>
-      <c r="F54" s="5"/>
+      <c r="F54" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="9">
@@ -9624,7 +9698,9 @@
       <c r="E56" t="s">
         <v>568</v>
       </c>
-      <c r="F56" s="5"/>
+      <c r="F56" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="57" spans="2:6">
       <c r="B57" s="9">
@@ -9639,7 +9715,9 @@
       <c r="E57" t="s">
         <v>569</v>
       </c>
-      <c r="F57" s="5"/>
+      <c r="F57" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="9">
@@ -9654,7 +9732,9 @@
       <c r="E58" t="s">
         <v>570</v>
       </c>
-      <c r="F58" s="5"/>
+      <c r="F58" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="9">
@@ -9669,7 +9749,9 @@
       <c r="E59" t="s">
         <v>571</v>
       </c>
-      <c r="F59" s="5"/>
+      <c r="F59" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="9">
@@ -9684,7 +9766,9 @@
       <c r="E60" t="s">
         <v>572</v>
       </c>
-      <c r="F60" s="5"/>
+      <c r="F60" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="9">
@@ -9699,7 +9783,9 @@
       <c r="E61" t="s">
         <v>573</v>
       </c>
-      <c r="F61" s="5"/>
+      <c r="F61" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="62" spans="2:6">
       <c r="B62" s="9">
@@ -9714,7 +9800,9 @@
       <c r="E62" t="s">
         <v>574</v>
       </c>
-      <c r="F62" s="5"/>
+      <c r="F62" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="9">
@@ -9729,7 +9817,9 @@
       <c r="E63" t="s">
         <v>575</v>
       </c>
-      <c r="F63" s="5"/>
+      <c r="F63" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="9">
@@ -9744,7 +9834,9 @@
       <c r="E64" t="s">
         <v>576</v>
       </c>
-      <c r="F64" s="5"/>
+      <c r="F64" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="65" spans="2:6">
       <c r="B65" s="9">
@@ -9776,7 +9868,9 @@
       <c r="E66" t="s">
         <v>577</v>
       </c>
-      <c r="F66" s="5"/>
+      <c r="F66" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="67" spans="2:6">
       <c r="B67" s="9">
@@ -9791,7 +9885,9 @@
       <c r="E67" t="s">
         <v>578</v>
       </c>
-      <c r="F67" s="5"/>
+      <c r="F67" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="68" spans="2:6">
       <c r="B68" s="9">
@@ -9806,7 +9902,9 @@
       <c r="E68" t="s">
         <v>579</v>
       </c>
-      <c r="F68" s="5"/>
+      <c r="F68" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="69" spans="2:6">
       <c r="B69" s="9">
@@ -9838,7 +9936,9 @@
       <c r="E70" t="s">
         <v>580</v>
       </c>
-      <c r="F70" s="5"/>
+      <c r="F70" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="71" spans="2:6">
       <c r="B71" s="9">
@@ -9870,7 +9970,9 @@
       <c r="E72" t="s">
         <v>581</v>
       </c>
-      <c r="F72" s="5"/>
+      <c r="F72" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="73" spans="2:6">
       <c r="B73" s="9">
@@ -9919,7 +10021,9 @@
       <c r="E75" t="s">
         <v>582</v>
       </c>
-      <c r="F75" s="5"/>
+      <c r="F75" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="76" spans="2:6">
       <c r="B76" s="9">
@@ -9934,7 +10038,9 @@
       <c r="E76" t="s">
         <v>583</v>
       </c>
-      <c r="F76" s="5"/>
+      <c r="F76" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="77" spans="2:6">
       <c r="B77" s="9">
@@ -9966,7 +10072,9 @@
       <c r="E78" t="s">
         <v>584</v>
       </c>
-      <c r="F78" s="5"/>
+      <c r="F78" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="79" spans="2:6">
       <c r="B79" s="9">
@@ -9981,7 +10089,9 @@
       <c r="E79" t="s">
         <v>585</v>
       </c>
-      <c r="F79" s="5"/>
+      <c r="F79" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="80" spans="2:6">
       <c r="B80" s="9">
@@ -10013,7 +10123,9 @@
       <c r="E81" t="s">
         <v>586</v>
       </c>
-      <c r="F81" s="5"/>
+      <c r="F81" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="82" spans="2:6">
       <c r="B82" s="9">
@@ -10062,7 +10174,9 @@
       <c r="E84" t="s">
         <v>587</v>
       </c>
-      <c r="F84" s="5"/>
+      <c r="F84" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="85" spans="2:6">
       <c r="B85" s="9">
@@ -10094,7 +10208,9 @@
       <c r="E86" t="s">
         <v>588</v>
       </c>
-      <c r="F86" s="5"/>
+      <c r="F86" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="87" spans="2:6">
       <c r="B87" s="9">
@@ -10126,7 +10242,9 @@
       <c r="E88" t="s">
         <v>589</v>
       </c>
-      <c r="F88" s="5"/>
+      <c r="F88" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="89" spans="2:6">
       <c r="B89" s="9">
@@ -10141,7 +10259,9 @@
       <c r="E89" t="s">
         <v>590</v>
       </c>
-      <c r="F89" s="5"/>
+      <c r="F89" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="90" spans="2:6">
       <c r="B90" s="9">
@@ -10173,7 +10293,9 @@
       <c r="E91" t="s">
         <v>591</v>
       </c>
-      <c r="F91" s="5"/>
+      <c r="F91" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="92" spans="2:6">
       <c r="B92" s="9">
@@ -10188,7 +10310,9 @@
       <c r="E92" t="s">
         <v>592</v>
       </c>
-      <c r="F92" s="5"/>
+      <c r="F92" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="93" spans="2:6">
       <c r="B93" s="9">
@@ -10203,7 +10327,9 @@
       <c r="E93" t="s">
         <v>593</v>
       </c>
-      <c r="F93" s="5"/>
+      <c r="F93" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="94" spans="2:6">
       <c r="B94" s="9">
@@ -10218,7 +10344,9 @@
       <c r="E94" t="s">
         <v>594</v>
       </c>
-      <c r="F94" s="5"/>
+      <c r="F94" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="95" spans="2:6">
       <c r="B95" s="9">
@@ -10250,7 +10378,9 @@
       <c r="E96" t="s">
         <v>595</v>
       </c>
-      <c r="F96" s="5"/>
+      <c r="F96" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="97" spans="2:6">
       <c r="B97" s="9">
@@ -10265,7 +10395,9 @@
       <c r="E97" t="s">
         <v>596</v>
       </c>
-      <c r="F97" s="5"/>
+      <c r="F97" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="98" spans="2:6">
       <c r="B98" s="9">
@@ -10280,7 +10412,9 @@
       <c r="E98" t="s">
         <v>597</v>
       </c>
-      <c r="F98" s="5"/>
+      <c r="F98" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="99" spans="2:6">
       <c r="B99" s="9">
@@ -10295,7 +10429,9 @@
       <c r="E99" t="s">
         <v>598</v>
       </c>
-      <c r="F99" s="5"/>
+      <c r="F99" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="100" spans="2:6">
       <c r="B100" s="9">
@@ -10310,7 +10446,9 @@
       <c r="E100" t="s">
         <v>599</v>
       </c>
-      <c r="F100" s="5"/>
+      <c r="F100" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="101" spans="2:6">
       <c r="B101" s="9">
@@ -10325,7 +10463,9 @@
       <c r="E101" t="s">
         <v>600</v>
       </c>
-      <c r="F101" s="5"/>
+      <c r="F101" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="102" spans="2:6">
       <c r="B102" s="9">
@@ -10340,7 +10480,9 @@
       <c r="E102" t="s">
         <v>601</v>
       </c>
-      <c r="F102" s="5"/>
+      <c r="F102" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="103" spans="2:6">
       <c r="B103" s="9">
@@ -10355,7 +10497,9 @@
       <c r="E103" t="s">
         <v>602</v>
       </c>
-      <c r="F103" s="5"/>
+      <c r="F103" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="104" spans="2:6">
       <c r="B104" s="9">
@@ -10370,7 +10514,9 @@
       <c r="E104" t="s">
         <v>603</v>
       </c>
-      <c r="F104" s="5"/>
+      <c r="F104" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="105" spans="2:6">
       <c r="B105" s="9">
@@ -10385,7 +10531,9 @@
       <c r="E105" t="s">
         <v>604</v>
       </c>
-      <c r="F105" s="5"/>
+      <c r="F105" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="106" spans="2:6">
       <c r="B106" s="9">
@@ -10441,7 +10589,9 @@
       <c r="E109" t="s">
         <v>605</v>
       </c>
-      <c r="F109" s="5"/>
+      <c r="F109" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="110" spans="2:6">
       <c r="B110" s="9">
@@ -10456,7 +10606,9 @@
       <c r="E110" t="s">
         <v>606</v>
       </c>
-      <c r="F110" s="5"/>
+      <c r="F110" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="111" spans="2:6">
       <c r="B111" s="9">
@@ -10471,7 +10623,9 @@
       <c r="E111" t="s">
         <v>607</v>
       </c>
-      <c r="F111" s="5"/>
+      <c r="F111" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="112" spans="2:6">
       <c r="B112" s="9">
@@ -10486,7 +10640,9 @@
       <c r="E112" t="s">
         <v>608</v>
       </c>
-      <c r="F112" s="5"/>
+      <c r="F112" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="113" spans="2:6">
       <c r="B113" s="9">
@@ -10501,7 +10657,9 @@
       <c r="E113" t="s">
         <v>609</v>
       </c>
-      <c r="F113" s="5"/>
+      <c r="F113" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="114" spans="2:6">
       <c r="B114" s="9">
@@ -10516,7 +10674,9 @@
       <c r="E114" t="s">
         <v>610</v>
       </c>
-      <c r="F114" s="5"/>
+      <c r="F114" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="115" spans="2:6">
       <c r="B115" s="9">
@@ -10531,7 +10691,9 @@
       <c r="E115" t="s">
         <v>611</v>
       </c>
-      <c r="F115" s="5"/>
+      <c r="F115" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="116" spans="2:6">
       <c r="B116" s="9">
@@ -10546,7 +10708,9 @@
       <c r="E116" t="s">
         <v>612</v>
       </c>
-      <c r="F116" s="5"/>
+      <c r="F116" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="117" spans="2:6">
       <c r="B117" s="9">
@@ -10578,7 +10742,9 @@
       <c r="E118" t="s">
         <v>613</v>
       </c>
-      <c r="F118" s="5"/>
+      <c r="F118" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="119" spans="2:6">
       <c r="B119" s="9">
@@ -10593,7 +10759,9 @@
       <c r="E119" t="s">
         <v>614</v>
       </c>
-      <c r="F119" s="5"/>
+      <c r="F119" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="120" spans="2:6">
       <c r="B120" s="9">
@@ -10608,7 +10776,9 @@
       <c r="E120" t="s">
         <v>615</v>
       </c>
-      <c r="F120" s="5"/>
+      <c r="F120" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="121" spans="2:6">
       <c r="B121" s="9">
@@ -10623,7 +10793,9 @@
       <c r="E121" t="s">
         <v>616</v>
       </c>
-      <c r="F121" s="5"/>
+      <c r="F121" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="122" spans="2:6">
       <c r="B122" s="9">
@@ -10638,7 +10810,9 @@
       <c r="E122" t="s">
         <v>617</v>
       </c>
-      <c r="F122" s="5"/>
+      <c r="F122" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="123" spans="2:6">
       <c r="B123" s="9">
@@ -10653,7 +10827,9 @@
       <c r="E123" t="s">
         <v>618</v>
       </c>
-      <c r="F123" s="5"/>
+      <c r="F123" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="124" spans="2:6">
       <c r="B124" s="9">
@@ -10668,7 +10844,9 @@
       <c r="E124" t="s">
         <v>619</v>
       </c>
-      <c r="F124" s="5"/>
+      <c r="F124" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="125" spans="2:6">
       <c r="B125" s="9">
@@ -10683,7 +10861,9 @@
       <c r="E125" t="s">
         <v>620</v>
       </c>
-      <c r="F125" s="5"/>
+      <c r="F125" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="126" spans="2:6">
       <c r="B126" s="9">
@@ -10715,7 +10895,9 @@
       <c r="E127" t="s">
         <v>621</v>
       </c>
-      <c r="F127" s="5"/>
+      <c r="F127" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="128" spans="2:6">
       <c r="B128" s="9">
@@ -10730,7 +10912,9 @@
       <c r="E128" t="s">
         <v>622</v>
       </c>
-      <c r="F128" s="5"/>
+      <c r="F128" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="129" spans="2:6">
       <c r="B129" s="9">
@@ -10745,7 +10929,9 @@
       <c r="E129" t="s">
         <v>623</v>
       </c>
-      <c r="F129" s="5"/>
+      <c r="F129" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="130" spans="2:6">
       <c r="B130" s="9">
@@ -10760,7 +10946,9 @@
       <c r="E130" t="s">
         <v>624</v>
       </c>
-      <c r="F130" s="5"/>
+      <c r="F130" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="131" spans="2:6">
       <c r="B131" s="9">
@@ -10775,7 +10963,9 @@
       <c r="E131" t="s">
         <v>625</v>
       </c>
-      <c r="F131" s="5"/>
+      <c r="F131" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="132" spans="2:6">
       <c r="B132" s="9">
@@ -10790,7 +10980,9 @@
       <c r="E132" t="s">
         <v>626</v>
       </c>
-      <c r="F132" s="5"/>
+      <c r="F132" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="133" spans="2:6">
       <c r="B133" s="9">
@@ -10805,7 +10997,9 @@
       <c r="E133" t="s">
         <v>628</v>
       </c>
-      <c r="F133" s="5"/>
+      <c r="F133" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="134" spans="2:6">
       <c r="B134" s="9">
@@ -10837,7 +11031,9 @@
       <c r="E135" t="s">
         <v>629</v>
       </c>
-      <c r="F135" s="5"/>
+      <c r="F135" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="136" spans="2:6">
       <c r="B136" s="9">
@@ -10864,7 +11060,9 @@
       <c r="E137" t="s">
         <v>630</v>
       </c>
-      <c r="F137" s="5"/>
+      <c r="F137" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="138" spans="2:6">
       <c r="B138" s="9">
@@ -10879,7 +11077,9 @@
       <c r="E138" t="s">
         <v>631</v>
       </c>
-      <c r="F138" s="5"/>
+      <c r="F138" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="139" spans="2:6">
       <c r="B139" s="9">
@@ -10894,7 +11094,9 @@
       <c r="E139" t="s">
         <v>632</v>
       </c>
-      <c r="F139" s="5"/>
+      <c r="F139" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="140" spans="2:6">
       <c r="B140" s="9">
@@ -10909,7 +11111,9 @@
       <c r="E140" t="s">
         <v>633</v>
       </c>
-      <c r="F140" s="5"/>
+      <c r="F140" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="141" spans="2:6">
       <c r="B141" s="9">
@@ -10924,7 +11128,9 @@
       <c r="E141" t="s">
         <v>634</v>
       </c>
-      <c r="F141" s="5"/>
+      <c r="F141" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="142" spans="2:6">
       <c r="B142" s="9">
@@ -10939,7 +11145,9 @@
       <c r="E142" t="s">
         <v>635</v>
       </c>
-      <c r="F142" s="5"/>
+      <c r="F142" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="143" spans="2:6">
       <c r="B143" s="9">
@@ -10954,7 +11162,9 @@
       <c r="E143" t="s">
         <v>636</v>
       </c>
-      <c r="F143" s="5"/>
+      <c r="F143" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="144" spans="2:6">
       <c r="B144" s="9">
@@ -11015,7 +11225,9 @@
       <c r="E147" t="s">
         <v>637</v>
       </c>
-      <c r="F147" s="5"/>
+      <c r="F147" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="148" spans="2:6">
       <c r="B148" s="9">
@@ -11030,7 +11242,9 @@
       <c r="E148" t="s">
         <v>638</v>
       </c>
-      <c r="F148" s="5"/>
+      <c r="F148" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="149" spans="2:6">
       <c r="B149" s="9">
@@ -11045,7 +11259,9 @@
       <c r="E149" t="s">
         <v>639</v>
       </c>
-      <c r="F149" s="5"/>
+      <c r="F149" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="150" spans="2:6">
       <c r="B150" s="9">
@@ -11060,7 +11276,9 @@
       <c r="E150" t="s">
         <v>640</v>
       </c>
-      <c r="F150" s="5"/>
+      <c r="F150" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="151" spans="2:6">
       <c r="B151" s="9">
@@ -11075,7 +11293,9 @@
       <c r="E151" t="s">
         <v>641</v>
       </c>
-      <c r="F151" s="5"/>
+      <c r="F151" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="152" spans="2:6">
       <c r="B152" s="9">
@@ -11090,7 +11310,9 @@
       <c r="E152" t="s">
         <v>642</v>
       </c>
-      <c r="F152" s="5"/>
+      <c r="F152" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="153" spans="2:6">
       <c r="B153" s="9">
@@ -11173,7 +11395,9 @@
       <c r="E157" t="s">
         <v>643</v>
       </c>
-      <c r="F157" s="5"/>
+      <c r="F157" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="158" spans="2:6">
       <c r="B158" s="9">
@@ -11205,7 +11429,9 @@
       <c r="E159" t="s">
         <v>644</v>
       </c>
-      <c r="F159" s="5"/>
+      <c r="F159" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="160" spans="2:6">
       <c r="B160" s="9">
@@ -11220,7 +11446,9 @@
       <c r="E160" t="s">
         <v>645</v>
       </c>
-      <c r="F160" s="5"/>
+      <c r="F160" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="161" spans="2:6">
       <c r="B161" s="9">
@@ -11235,7 +11463,9 @@
       <c r="E161" t="s">
         <v>646</v>
       </c>
-      <c r="F161" s="5"/>
+      <c r="F161" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="162" spans="2:6">
       <c r="B162" s="9">
@@ -11250,7 +11480,9 @@
       <c r="E162" t="s">
         <v>647</v>
       </c>
-      <c r="F162" s="5"/>
+      <c r="F162" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="163" spans="2:6">
       <c r="B163" s="9">
@@ -11277,7 +11509,9 @@
       <c r="E164" t="s">
         <v>648</v>
       </c>
-      <c r="F164" s="5"/>
+      <c r="F164" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="165" spans="2:6">
       <c r="B165" s="9">
@@ -11292,7 +11526,9 @@
       <c r="E165" t="s">
         <v>649</v>
       </c>
-      <c r="F165" s="5"/>
+      <c r="F165" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="166" spans="2:6">
       <c r="B166" s="9">
@@ -11307,7 +11543,9 @@
       <c r="E166" t="s">
         <v>650</v>
       </c>
-      <c r="F166" s="5"/>
+      <c r="F166" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="167" spans="2:6">
       <c r="B167" s="9">
@@ -11322,7 +11560,9 @@
       <c r="E167" t="s">
         <v>651</v>
       </c>
-      <c r="F167" s="5"/>
+      <c r="F167" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="168" spans="2:6">
       <c r="B168" s="9">
@@ -11337,7 +11577,9 @@
       <c r="E168" t="s">
         <v>652</v>
       </c>
-      <c r="F168" s="5"/>
+      <c r="F168" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="169" spans="2:6">
       <c r="B169" s="9">
@@ -11352,7 +11594,9 @@
       <c r="E169" t="s">
         <v>653</v>
       </c>
-      <c r="F169" s="5"/>
+      <c r="F169" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="170" spans="2:6">
       <c r="B170" s="9">
@@ -11367,7 +11611,9 @@
       <c r="E170" t="s">
         <v>654</v>
       </c>
-      <c r="F170" s="5"/>
+      <c r="F170" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="171" spans="2:6">
       <c r="B171" s="9">
@@ -11382,7 +11628,9 @@
       <c r="E171" t="s">
         <v>655</v>
       </c>
-      <c r="F171" s="5"/>
+      <c r="F171" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="172" spans="2:6">
       <c r="B172" s="9">
@@ -11397,7 +11645,9 @@
       <c r="E172" t="s">
         <v>656</v>
       </c>
-      <c r="F172" s="5"/>
+      <c r="F172" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="173" spans="2:6">
       <c r="B173" s="9">
@@ -11424,7 +11674,9 @@
       <c r="E174" t="s">
         <v>657</v>
       </c>
-      <c r="F174" s="5"/>
+      <c r="F174" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="175" spans="2:6">
       <c r="B175" s="9">
@@ -11453,17 +11705,23 @@
       </c>
       <c r="F176">
         <f>SUBTOTAL(103,Tabela2[File Adress])</f>
-        <v>44</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:E4 E6:E12 E14 E16:E48 E50:E103 E105:E132 E134:E175">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F175">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E175">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B175">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:D175">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>

--- a/PDE3 database - Institute of Translational Medicine - University of Liverpool.xlsx
+++ b/PDE3 database - Institute of Translational Medicine - University of Liverpool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivbie\Documents\2020 - Projetos mestrado\CYFIP2\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EEA081-21A4-4351-89F1-26B261D86F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF5713F-B1DB-4083-8F51-5FB0C0F7314F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="781">
   <si>
     <t>Name</t>
   </si>
@@ -2005,10 +2005,373 @@
     <t>Conformer3D_CID_3000322</t>
   </si>
   <si>
-    <t>https://github.com/isisventbiem/pde3database/tree/master/PDB%20files%20model%20SDF</t>
-  </si>
-  <si>
-    <t>https://github.com/isisventbiem/pde3database/tree/master/pubchem%20files</t>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_10836.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_132999.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_135398737.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_1548943.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_16362.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_208902.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_2200.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_2381.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_2471.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_2474.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_2477.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_26757.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_2725.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_2955.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_3000322.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_3042.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_3108.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_3117.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_3226.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_33741.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_3397.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_3487.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_3516.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_3658.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_3784.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_4032.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_4058.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_4064.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_4095.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_4168.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_4171.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_4236.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_444.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_4474.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_4499.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_4595.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_4601.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_4636.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_4688.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_4761.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_4768.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_47811.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_4828.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_4911.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_4914.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_4927.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_4932.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_5002.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_5073.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_5282381.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_5311068.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_5360696.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_5361092.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_5388962.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_54687.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_5487.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_5572.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_5593.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_5656.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_56959.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_5702063.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_5732.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_5770.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_5775.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_5794.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_5870.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_6041.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_6047.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_6082.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_6279.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_638678.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_667477.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_6729.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_6914273.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_92253.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_9782.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C10%20H12%20Cl%20N%20O2.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C12%20H11%20N7.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C12%20H21%20N.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C13%20H10%20N2%20O4.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C13%20H16%20N2%20O2.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C14%20H14%20O3.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C14%20H22%20N2%20O.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C15%20H15%20N%20O2.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C15%20H21%20F3%20N2%20O2.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C15%20H24%20N2%20O2.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C17%20H14%20O4%20S.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C17%20H16%20F6%20N2%20O.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C17%20H17%20Cl2%20N.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C17%20H17%20N%20O2.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C17%20H18%20N2%20O6.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C17%20H19%20Cl%20N2%20S.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C18%20H18%20N8%20O7%20S3.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C18%20H19%20N%20O%20S.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C19%20H20%20N2%20O3%20S.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C19%20H21%20N5%20O4.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C19%20H24%20N2.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C19%20H27%20N%20O.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C20%20H21%20F%20N2%20O.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C20%20H23%20N.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C20%20H24%20N2%20O2.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C20%20H25%20Cl%20N2%20O5.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C21%20H21%20N.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C21%20H23%20Cl%20F%20N%20O2.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C21%20H26%20N2%20O7.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C21%20H26%20N2%20S2.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C21%20H27%20N3%20O2.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C22%20H23%20Cl%20N6%20O.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C22%20H26%20N2%20O4%20S.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C22%20H28%20N2%20O.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C22%20H29%20F%20O5.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C22%20H32%20O4.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C23%20H27%20Cl2%20N3%20O2.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C25%20H29%20I2%20N%20O3.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C27%20H38%20N2%20O4.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C32%20H40%20Br%20N5%20O5.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C33%20H30%20N4%20O2.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C4%20H11%20N5.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C8%20H5%20F3%20N2%20O%20S.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C8%20H7%20Cl%20N2%20O2%20S.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C9%20H9%20Cl2%20N3.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/RC17%20H18%20F3%20N%20O.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/SC17%20H18%20F3%20N%20O.txt</t>
   </si>
 </sst>
 </file>
@@ -2093,6 +2456,44 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2139,44 +2540,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2366,14 +2729,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54767107-61A5-4E5F-84FA-2A8D9B5C4D10}" name="Tabela2" displayName="Tabela2" ref="B2:F176" totalsRowCount="1" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54767107-61A5-4E5F-84FA-2A8D9B5C4D10}" name="Tabela2" displayName="Tabela2" ref="B2:F176" totalsRowCount="1" headerRowDxfId="3">
   <autoFilter ref="B2:F175" xr:uid="{2A0284F6-0E4E-4CE1-9526-7ACFD806AE5D}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F07FB46E-2261-4395-95B4-499CFE4DC5CC}" name="File ID" totalsRowLabel="Total" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{824CA5B7-C3F1-4EF2-BF5E-B7E729203F26}" name="Compound ID" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{F07FB46E-2261-4395-95B4-499CFE4DC5CC}" name="File ID" totalsRowLabel="Total" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{824CA5B7-C3F1-4EF2-BF5E-B7E729203F26}" name="Compound ID" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{8E5ABDBD-3B43-49EC-BA36-F6AADA0EA1ED}" name="Compound Name"/>
     <tableColumn id="3" xr3:uid="{18BA9869-4705-4B91-9295-CA0136FABA04}" name="File Name" totalsRowFunction="count"/>
-    <tableColumn id="4" xr3:uid="{FB23DE31-DBC1-42B4-ABAA-CDF6F245AAEB}" name="File Adress" totalsRowFunction="count" dataDxfId="5" dataCellStyle="Hiperlink"/>
+    <tableColumn id="4" xr3:uid="{FB23DE31-DBC1-42B4-ABAA-CDF6F245AAEB}" name="File Adress" totalsRowFunction="count" dataDxfId="0" dataCellStyle="Hiperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8755,15 +9118,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D00A50-BAF2-4D7C-9C79-39B14A850D5C}">
   <dimension ref="B2:F176"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="114.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8786,832 +9149,832 @@
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="9">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C3" s="9">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>396</v>
+        <v>128</v>
+      </c>
+      <c r="E3" t="s">
+        <v>559</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>524</v>
+        <v>734</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="9">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="C4" s="9">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>395</v>
+        <v>273</v>
+      </c>
+      <c r="E4" t="s">
+        <v>606</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>519</v>
+        <v>735</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="9">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C5" s="9">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="E5" t="s">
-        <v>534</v>
+        <v>560</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>658</v>
+        <v>736</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="9">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="C6" s="9">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>627</v>
       </c>
       <c r="E6" t="s">
-        <v>397</v>
+        <v>628</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>533</v>
+        <v>737</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="9">
-        <v>5</v>
+        <v>139</v>
       </c>
       <c r="C7" s="9">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>325</v>
       </c>
       <c r="E7" t="s">
-        <v>423</v>
+        <v>634</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>521</v>
+        <v>738</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="9">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C8" s="9">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>658</v>
+        <v>739</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="9">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C9" s="9">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
-        <v>536</v>
+        <v>557</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>658</v>
+        <v>740</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="9">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C10" s="9">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="E10" t="s">
-        <v>537</v>
+        <v>578</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>658</v>
+        <v>741</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="9">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="C11" s="9">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>246</v>
       </c>
       <c r="E11" t="s">
-        <v>424</v>
+        <v>595</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>493</v>
+        <v>742</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="9">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C12" s="9">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>259</v>
       </c>
       <c r="E12" t="s">
-        <v>538</v>
+        <v>601</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>658</v>
+        <v>743</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="9">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C13" s="9">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>539</v>
+        <v>427</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>658</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="9">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="C14" s="9">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>380</v>
       </c>
       <c r="E14" t="s">
-        <v>398</v>
+        <v>656</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>497</v>
+        <v>744</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="9">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="C15" s="9">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>262</v>
       </c>
       <c r="E15" t="s">
-        <v>540</v>
+        <v>603</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>658</v>
+        <v>745</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="9">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C16" s="9">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>659</v>
+        <v>746</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="9">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="C17" s="9">
-        <v>15</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>56</v>
+        <v>102</v>
+      </c>
+      <c r="D17" t="s">
+        <v>264</v>
       </c>
       <c r="E17" t="s">
-        <v>542</v>
+        <v>604</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>658</v>
+        <v>747</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C18" s="9">
-        <v>15</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>56</v>
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>658</v>
+        <v>748</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="9">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C19" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>178</v>
       </c>
       <c r="E19" t="s">
-        <v>425</v>
+        <v>577</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>528</v>
+        <v>749</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="9">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="C20" s="9">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>289</v>
       </c>
       <c r="E20" t="s">
-        <v>426</v>
+        <v>615</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>498</v>
+        <v>750</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="9">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C21" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>659</v>
+        <v>751</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C22" s="9">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="E22" t="s">
-        <v>399</v>
+        <v>561</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>500</v>
+        <v>752</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="C23" s="9">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="E23" t="s">
-        <v>400</v>
+        <v>587</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>495</v>
+        <v>753</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="9">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="C24" s="9">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="E24" t="s">
-        <v>545</v>
+        <v>583</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>659</v>
+        <v>754</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="9">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="C25" s="9">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>286</v>
       </c>
       <c r="E25" t="s">
-        <v>401</v>
+        <v>613</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>526</v>
+        <v>755</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="9">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C26" s="9">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>659</v>
+        <v>756</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="9">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C27" s="9">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>658</v>
+        <v>757</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E28" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>658</v>
+        <v>758</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="9">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C29" s="9">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>402</v>
+        <v>534</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>516</v>
+        <v>759</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="9">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="C30" s="9">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>282</v>
       </c>
       <c r="E30" t="s">
-        <v>549</v>
+        <v>612</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>659</v>
+        <v>760</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="9">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C31" s="9">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="E31" t="s">
-        <v>403</v>
+        <v>576</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>513</v>
+        <v>761</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="9">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="C32" s="9">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>305</v>
       </c>
       <c r="E32" t="s">
-        <v>427</v>
+        <v>622</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>490</v>
+        <v>762</v>
       </c>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="9">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="C33" s="9">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D33" t="s">
-        <v>97</v>
+        <v>312</v>
       </c>
       <c r="E33" t="s">
-        <v>404</v>
+        <v>625</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>525</v>
+        <v>763</v>
       </c>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="9">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="C34" s="9">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>363</v>
       </c>
       <c r="E34" t="s">
-        <v>550</v>
+        <v>647</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>659</v>
+        <v>764</v>
       </c>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="9">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C35" s="9">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>405</v>
+        <v>539</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>510</v>
+        <v>765</v>
       </c>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C36" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="E36" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>658</v>
+        <v>766</v>
       </c>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="9">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C37" s="9">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="E37" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>659</v>
+        <v>767</v>
       </c>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="9">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C38" s="9">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="E38" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>658</v>
+        <v>768</v>
       </c>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="9">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="C39" s="9">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="D39" t="s">
-        <v>112</v>
+        <v>321</v>
       </c>
       <c r="E39" t="s">
-        <v>554</v>
+        <v>631</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>659</v>
+        <v>769</v>
       </c>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="9">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C40" s="9">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="E40" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>659</v>
+        <v>770</v>
       </c>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="9">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C41" s="9">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="E41" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>659</v>
+        <v>771</v>
       </c>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="9">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C42" s="9">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="E42" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>658</v>
+        <v>772</v>
       </c>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="9">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="C43" s="9">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>213</v>
       </c>
       <c r="E43" t="s">
-        <v>558</v>
+        <v>413</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>658</v>
+        <v>491</v>
       </c>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="9">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C44" s="9">
-        <v>41</v>
-      </c>
-      <c r="D44" t="s">
-        <v>125</v>
+        <v>100</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>260</v>
       </c>
       <c r="E44" t="s">
-        <v>406</v>
+        <v>602</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>515</v>
+        <v>773</v>
       </c>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="9">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C45" s="9">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D45" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="E45" t="s">
-        <v>559</v>
+        <v>575</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>658</v>
+        <v>774</v>
       </c>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="9">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C46" s="9">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="E46" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>658</v>
+        <v>775</v>
       </c>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="9">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="C47" s="9">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="D47" t="s">
-        <v>135</v>
+        <v>255</v>
       </c>
       <c r="E47" t="s">
-        <v>561</v>
+        <v>599</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>658</v>
+        <v>776</v>
       </c>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="9">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="C48" s="9">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
+        <v>279</v>
       </c>
       <c r="E48" t="s">
-        <v>562</v>
+        <v>611</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>659</v>
+        <v>777</v>
       </c>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="9">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C49" s="9">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="E49" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>658</v>
+        <v>778</v>
       </c>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="9">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="C50" s="9">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="D50" t="s">
-        <v>139</v>
+        <v>359</v>
       </c>
       <c r="E50" t="s">
-        <v>564</v>
+        <v>645</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="9">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C51" s="9">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D51" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="E51" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>659</v>
@@ -9619,495 +9982,495 @@
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="9">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="C52" s="9">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="D52" t="s">
-        <v>143</v>
+        <v>275</v>
       </c>
       <c r="E52" t="s">
-        <v>407</v>
+        <v>608</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>503</v>
+        <v>660</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="9">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C53" s="9">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D53" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="E53" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="9">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="C54" s="9">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="D54" t="s">
-        <v>150</v>
+        <v>276</v>
       </c>
       <c r="E54" t="s">
-        <v>567</v>
+        <v>609</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="9">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="C55" s="9">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="D55" t="s">
-        <v>152</v>
+        <v>377</v>
       </c>
       <c r="E55" t="s">
-        <v>428</v>
+        <v>654</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>520</v>
+        <v>663</v>
       </c>
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="9">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="C56" s="9">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="D56" t="s">
-        <v>155</v>
+        <v>253</v>
       </c>
       <c r="E56" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
     </row>
     <row r="57" spans="2:6">
       <c r="B57" s="9">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="C57" s="9">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="D57" t="s">
-        <v>159</v>
+        <v>320</v>
       </c>
       <c r="E57" t="s">
-        <v>569</v>
+        <v>630</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="9">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C58" s="9">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D58" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="E58" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="9">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="C59" s="9">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="D59" t="s">
-        <v>163</v>
+        <v>257</v>
       </c>
       <c r="E59" t="s">
-        <v>571</v>
+        <v>600</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="9">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C60" s="9">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D60" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="E60" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="9">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C61" s="9">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="D61" t="s">
-        <v>167</v>
+        <v>229</v>
       </c>
       <c r="E61" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
     </row>
     <row r="62" spans="2:6">
       <c r="B62" s="9">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C62" s="9">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D62" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="E62" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="9">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="C63" s="9">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="D63" t="s">
-        <v>172</v>
+        <v>240</v>
       </c>
       <c r="E63" t="s">
-        <v>575</v>
+        <v>594</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="9">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="C64" s="9">
-        <v>61</v>
+        <v>171</v>
       </c>
       <c r="D64" t="s">
-        <v>175</v>
+        <v>384</v>
       </c>
       <c r="E64" t="s">
-        <v>576</v>
+        <v>657</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>658</v>
+        <v>672</v>
       </c>
     </row>
     <row r="65" spans="2:6">
       <c r="B65" s="9">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="C65" s="9">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="D65" t="s">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="E65" t="s">
-        <v>408</v>
+        <v>638</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>531</v>
+        <v>673</v>
       </c>
     </row>
     <row r="66" spans="2:6">
       <c r="B66" s="9">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C66" s="9">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D66" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E66" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>658</v>
+        <v>674</v>
       </c>
     </row>
     <row r="67" spans="2:6">
       <c r="B67" s="9">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C67" s="9">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D67" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="E67" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>658</v>
+        <v>675</v>
       </c>
     </row>
     <row r="68" spans="2:6">
       <c r="B68" s="9">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="C68" s="9">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="D68" t="s">
-        <v>183</v>
+        <v>344</v>
       </c>
       <c r="E68" t="s">
-        <v>579</v>
+        <v>639</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>659</v>
+        <v>676</v>
       </c>
     </row>
     <row r="69" spans="2:6">
       <c r="B69" s="9">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="C69" s="9">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>185</v>
+        <v>54</v>
       </c>
       <c r="E69" t="s">
-        <v>409</v>
+        <v>541</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>499</v>
+        <v>677</v>
       </c>
     </row>
     <row r="70" spans="2:6">
       <c r="B70" s="9">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="C70" s="9">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="D70" t="s">
-        <v>187</v>
+        <v>303</v>
       </c>
       <c r="E70" t="s">
-        <v>580</v>
+        <v>621</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>659</v>
+        <v>678</v>
       </c>
     </row>
     <row r="71" spans="2:6">
       <c r="B71" s="9">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="C71" s="9">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="D71" t="s">
-        <v>189</v>
+        <v>347</v>
       </c>
       <c r="E71" t="s">
-        <v>410</v>
+        <v>641</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>506</v>
+        <v>679</v>
       </c>
     </row>
     <row r="72" spans="2:6">
       <c r="B72" s="9">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="C72" s="9">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="D72" t="s">
-        <v>191</v>
+        <v>277</v>
       </c>
       <c r="E72" t="s">
-        <v>581</v>
+        <v>610</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>659</v>
+        <v>680</v>
       </c>
     </row>
     <row r="73" spans="2:6">
       <c r="B73" s="9">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C73" s="9">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D73" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="E73" t="s">
-        <v>411</v>
+        <v>570</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>530</v>
+        <v>681</v>
       </c>
     </row>
     <row r="74" spans="2:6">
       <c r="B74" s="9">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="C74" s="9">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="D74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>412</v>
+        <v>293</v>
+      </c>
+      <c r="E74" t="s">
+        <v>617</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>505</v>
+        <v>682</v>
       </c>
     </row>
     <row r="75" spans="2:6">
       <c r="B75" s="9">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c r="C75" s="9">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="D75" t="s">
-        <v>199</v>
+        <v>354</v>
       </c>
       <c r="E75" t="s">
-        <v>582</v>
+        <v>643</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>659</v>
+        <v>683</v>
       </c>
     </row>
     <row r="76" spans="2:6">
       <c r="B76" s="9">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="C76" s="9">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="D76" t="s">
-        <v>201</v>
+        <v>358</v>
       </c>
       <c r="E76" t="s">
-        <v>583</v>
+        <v>644</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>658</v>
+        <v>684</v>
       </c>
     </row>
     <row r="77" spans="2:6">
       <c r="B77" s="9">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="C77" s="9">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="D77" t="s">
-        <v>203</v>
+        <v>287</v>
       </c>
       <c r="E77" t="s">
-        <v>429</v>
+        <v>614</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>527</v>
+        <v>685</v>
       </c>
     </row>
     <row r="78" spans="2:6">
       <c r="B78" s="9">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="C78" s="9">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D78" t="s">
-        <v>205</v>
+        <v>99</v>
       </c>
       <c r="E78" t="s">
-        <v>584</v>
+        <v>550</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
     </row>
     <row r="79" spans="2:6">
       <c r="B79" s="9">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C79" s="9">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D79" t="s">
-        <v>207</v>
+        <v>139</v>
       </c>
       <c r="E79" t="s">
-        <v>585</v>
+        <v>564</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>659</v>
+        <v>687</v>
       </c>
     </row>
     <row r="80" spans="2:6">
       <c r="B80" s="9">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="C80" s="9">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D80" t="s">
-        <v>208</v>
+        <v>155</v>
       </c>
       <c r="E80" t="s">
-        <v>430</v>
+        <v>568</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>532</v>
+        <v>688</v>
       </c>
     </row>
     <row r="81" spans="2:6">
@@ -10124,1576 +10487,1576 @@
         <v>586</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>659</v>
+        <v>689</v>
       </c>
     </row>
     <row r="82" spans="2:6">
       <c r="B82" s="9">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C82" s="9">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D82" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="E82" t="s">
-        <v>413</v>
+        <v>597</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>491</v>
+        <v>690</v>
       </c>
     </row>
     <row r="83" spans="2:6">
       <c r="B83" s="9">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C83" s="9">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D83" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="E83" t="s">
-        <v>431</v>
+        <v>593</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>511</v>
+        <v>691</v>
       </c>
     </row>
     <row r="84" spans="2:6">
       <c r="B84" s="9">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="C84" s="9">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="D84" t="s">
-        <v>216</v>
+        <v>324</v>
       </c>
       <c r="E84" t="s">
-        <v>587</v>
+        <v>633</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>658</v>
+        <v>692</v>
       </c>
     </row>
     <row r="85" spans="2:6">
       <c r="B85" s="9">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C85" s="9">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D85" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="E85" t="s">
-        <v>414</v>
+        <v>581</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>512</v>
+        <v>693</v>
       </c>
     </row>
     <row r="86" spans="2:6">
       <c r="B86" s="9">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C86" s="9">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D86" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="E86" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>659</v>
+        <v>694</v>
       </c>
     </row>
     <row r="87" spans="2:6">
       <c r="B87" s="9">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="C87" s="9">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="D87" t="s">
-        <v>224</v>
+        <v>316</v>
       </c>
       <c r="E87" t="s">
-        <v>415</v>
+        <v>629</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>517</v>
+        <v>695</v>
       </c>
     </row>
     <row r="88" spans="2:6">
       <c r="B88" s="9">
-        <v>86</v>
+        <v>162</v>
       </c>
       <c r="C88" s="9">
-        <v>85</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>227</v>
+        <v>161</v>
+      </c>
+      <c r="D88" t="s">
+        <v>366</v>
       </c>
       <c r="E88" t="s">
-        <v>589</v>
+        <v>648</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>659</v>
+        <v>696</v>
       </c>
     </row>
     <row r="89" spans="2:6">
       <c r="B89" s="9">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="C89" s="9">
-        <v>86</v>
+        <v>162</v>
       </c>
       <c r="D89" t="s">
-        <v>229</v>
+        <v>368</v>
       </c>
       <c r="E89" t="s">
-        <v>590</v>
+        <v>649</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>659</v>
+        <v>697</v>
       </c>
     </row>
     <row r="90" spans="2:6">
       <c r="B90" s="9">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="C90" s="9">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="D90" t="s">
-        <v>231</v>
+        <v>299</v>
       </c>
       <c r="E90" t="s">
-        <v>416</v>
+        <v>620</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>514</v>
+        <v>698</v>
       </c>
     </row>
     <row r="91" spans="2:6">
       <c r="B91" s="9">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="C91" s="9">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="D91" t="s">
-        <v>233</v>
+        <v>294</v>
       </c>
       <c r="E91" t="s">
-        <v>591</v>
+        <v>618</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>659</v>
+        <v>699</v>
       </c>
     </row>
     <row r="92" spans="2:6">
       <c r="B92" s="9">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="C92" s="9">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="D92" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="E92" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>659</v>
+        <v>700</v>
       </c>
     </row>
     <row r="93" spans="2:6">
       <c r="B93" s="9">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="C93" s="9">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="D93" t="s">
-        <v>237</v>
+        <v>295</v>
       </c>
       <c r="E93" t="s">
-        <v>593</v>
+        <v>619</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>659</v>
+        <v>701</v>
       </c>
     </row>
     <row r="94" spans="2:6">
       <c r="B94" s="9">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="C94" s="9">
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="D94" t="s">
-        <v>240</v>
+        <v>373</v>
       </c>
       <c r="E94" t="s">
-        <v>594</v>
+        <v>652</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>659</v>
+        <v>702</v>
       </c>
     </row>
     <row r="95" spans="2:6">
       <c r="B95" s="9">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="C95" s="9">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="D95" t="s">
-        <v>243</v>
+        <v>141</v>
       </c>
       <c r="E95" t="s">
-        <v>417</v>
+        <v>565</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>494</v>
+        <v>703</v>
       </c>
     </row>
     <row r="96" spans="2:6">
       <c r="B96" s="9">
+        <v>95</v>
+      </c>
+      <c r="C96" s="9">
         <v>94</v>
       </c>
-      <c r="C96" s="9">
-        <v>93</v>
-      </c>
       <c r="D96" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E96" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>658</v>
+        <v>704</v>
       </c>
     </row>
     <row r="97" spans="2:6">
       <c r="B97" s="9">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="C97" s="9">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="D97" t="s">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="E97" t="s">
-        <v>596</v>
+        <v>546</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>659</v>
+        <v>705</v>
       </c>
     </row>
     <row r="98" spans="2:6">
       <c r="B98" s="9">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="C98" s="9">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="D98" t="s">
-        <v>250</v>
+        <v>112</v>
       </c>
       <c r="E98" t="s">
-        <v>597</v>
+        <v>554</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>659</v>
+        <v>706</v>
       </c>
     </row>
     <row r="99" spans="2:6">
       <c r="B99" s="9">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C99" s="9">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D99" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="E99" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>659</v>
+        <v>707</v>
       </c>
     </row>
     <row r="100" spans="2:6">
       <c r="B100" s="9">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="C100" s="9">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="D100" t="s">
-        <v>255</v>
+        <v>339</v>
       </c>
       <c r="E100" t="s">
-        <v>599</v>
+        <v>637</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>658</v>
+        <v>708</v>
       </c>
     </row>
     <row r="101" spans="2:6">
       <c r="B101" s="9">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="C101" s="9">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="D101" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c r="E101" t="s">
-        <v>600</v>
+        <v>623</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="102" spans="2:6">
       <c r="B102" s="9">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="C102" s="9">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="D102" t="s">
-        <v>259</v>
+        <v>331</v>
       </c>
       <c r="E102" t="s">
-        <v>601</v>
+        <v>636</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>658</v>
+        <v>710</v>
       </c>
     </row>
     <row r="103" spans="2:6">
       <c r="B103" s="9">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="C103" s="9">
-        <v>100</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>260</v>
+        <v>34</v>
+      </c>
+      <c r="D103" t="s">
+        <v>107</v>
       </c>
       <c r="E103" t="s">
-        <v>602</v>
+        <v>552</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>658</v>
+        <v>711</v>
       </c>
     </row>
     <row r="104" spans="2:6">
       <c r="B104" s="9">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="C104" s="9">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="D104" t="s">
-        <v>262</v>
+        <v>91</v>
       </c>
       <c r="E104" t="s">
-        <v>603</v>
+        <v>549</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>658</v>
+        <v>712</v>
       </c>
     </row>
     <row r="105" spans="2:6">
       <c r="B105" s="9">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C105" s="9">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="D105" t="s">
-        <v>264</v>
+        <v>207</v>
       </c>
       <c r="E105" t="s">
-        <v>604</v>
+        <v>585</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>658</v>
+        <v>713</v>
       </c>
     </row>
     <row r="106" spans="2:6">
       <c r="B106" s="9">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="C106" s="9">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="D106" t="s">
-        <v>265</v>
-      </c>
-      <c r="F106" s="5"/>
+        <v>205</v>
+      </c>
+      <c r="E106" t="s">
+        <v>584</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>714</v>
+      </c>
     </row>
     <row r="107" spans="2:6">
       <c r="B107" s="9">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="C107" s="9">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D107" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="E107" t="s">
-        <v>432</v>
+        <v>616</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>529</v>
+        <v>715</v>
       </c>
     </row>
     <row r="108" spans="2:6">
       <c r="B108" s="9">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="C108" s="9">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="D108" t="s">
-        <v>269</v>
-      </c>
-      <c r="F108" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="E108" t="s">
+        <v>544</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="109" spans="2:6">
       <c r="B109" s="9">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="C109" s="9">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="D109" t="s">
-        <v>271</v>
+        <v>187</v>
       </c>
       <c r="E109" t="s">
-        <v>605</v>
+        <v>580</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>659</v>
+        <v>717</v>
       </c>
     </row>
     <row r="110" spans="2:6">
       <c r="B110" s="9">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="C110" s="9">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="D110" t="s">
-        <v>273</v>
+        <v>348</v>
       </c>
       <c r="E110" t="s">
-        <v>606</v>
+        <v>642</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>658</v>
+        <v>718</v>
       </c>
     </row>
     <row r="111" spans="2:6">
       <c r="B111" s="9">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="C111" s="9">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="D111" t="s">
-        <v>274</v>
+        <v>150</v>
       </c>
       <c r="E111" t="s">
-        <v>607</v>
+        <v>567</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>659</v>
+        <v>719</v>
       </c>
     </row>
     <row r="112" spans="2:6">
       <c r="B112" s="9">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="C112" s="9">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="D112" t="s">
-        <v>275</v>
+        <v>378</v>
       </c>
       <c r="E112" t="s">
-        <v>608</v>
+        <v>655</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>659</v>
+        <v>720</v>
       </c>
     </row>
     <row r="113" spans="2:6">
       <c r="B113" s="9">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="C113" s="9">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="D113" t="s">
-        <v>276</v>
+        <v>370</v>
       </c>
       <c r="E113" t="s">
-        <v>609</v>
+        <v>650</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>659</v>
+        <v>721</v>
       </c>
     </row>
     <row r="114" spans="2:6">
       <c r="B114" s="9">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="C114" s="9">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="D114" t="s">
-        <v>277</v>
+        <v>371</v>
       </c>
       <c r="E114" t="s">
-        <v>610</v>
+        <v>651</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>659</v>
+        <v>722</v>
       </c>
     </row>
     <row r="115" spans="2:6">
       <c r="B115" s="9">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="C115" s="9">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="D115" t="s">
-        <v>279</v>
+        <v>345</v>
       </c>
       <c r="E115" t="s">
-        <v>611</v>
+        <v>640</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>658</v>
+        <v>723</v>
       </c>
     </row>
     <row r="116" spans="2:6">
       <c r="B116" s="9">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C116" s="9">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D116" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="E116" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>658</v>
+        <v>724</v>
       </c>
     </row>
     <row r="117" spans="2:6">
       <c r="B117" s="9">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C117" s="9">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="D117" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="E117" t="s">
-        <v>418</v>
+        <v>632</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>502</v>
+        <v>725</v>
       </c>
     </row>
     <row r="118" spans="2:6">
       <c r="B118" s="9">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="C118" s="9">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="D118" t="s">
-        <v>286</v>
+        <v>361</v>
       </c>
       <c r="E118" t="s">
-        <v>613</v>
+        <v>646</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>658</v>
+        <v>726</v>
       </c>
     </row>
     <row r="119" spans="2:6">
       <c r="B119" s="9">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="C119" s="9">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="D119" t="s">
-        <v>287</v>
+        <v>136</v>
       </c>
       <c r="E119" t="s">
-        <v>614</v>
+        <v>562</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>659</v>
+        <v>727</v>
       </c>
     </row>
     <row r="120" spans="2:6">
       <c r="B120" s="9">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="C120" s="9">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="D120" t="s">
-        <v>289</v>
+        <v>375</v>
       </c>
       <c r="E120" t="s">
-        <v>615</v>
+        <v>653</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>658</v>
+        <v>728</v>
       </c>
     </row>
     <row r="121" spans="2:6">
       <c r="B121" s="9">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C121" s="9">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="D121" t="s">
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="E121" t="s">
-        <v>616</v>
+        <v>591</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>659</v>
+        <v>729</v>
       </c>
     </row>
     <row r="122" spans="2:6">
       <c r="B122" s="9">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C122" s="9">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="D122" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="E122" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>659</v>
+        <v>730</v>
       </c>
     </row>
     <row r="123" spans="2:6">
       <c r="B123" s="9">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="C123" s="9">
-        <v>120</v>
-      </c>
-      <c r="D123" t="s">
-        <v>294</v>
+        <v>85</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="E123" t="s">
-        <v>618</v>
+        <v>589</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>659</v>
+        <v>731</v>
       </c>
     </row>
     <row r="124" spans="2:6">
       <c r="B124" s="9">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C124" s="9">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D124" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="E124" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>659</v>
+        <v>732</v>
       </c>
     </row>
     <row r="125" spans="2:6">
       <c r="B125" s="9">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="C125" s="9">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="D125" t="s">
-        <v>299</v>
+        <v>71</v>
       </c>
       <c r="E125" t="s">
-        <v>620</v>
+        <v>545</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>659</v>
+        <v>733</v>
       </c>
     </row>
     <row r="126" spans="2:6">
       <c r="B126" s="9">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="C126" s="9">
-        <v>123</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>301</v>
+        <v>172</v>
+      </c>
+      <c r="D126" t="s">
+        <v>386</v>
       </c>
       <c r="E126" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>522</v>
+        <v>492</v>
       </c>
     </row>
     <row r="127" spans="2:6">
       <c r="B127" s="9">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="C127" s="9">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>303</v>
+        <v>39</v>
       </c>
       <c r="E127" t="s">
-        <v>621</v>
+        <v>424</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>659</v>
+        <v>493</v>
       </c>
     </row>
     <row r="128" spans="2:6">
       <c r="B128" s="9">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="C128" s="9">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D128" t="s">
-        <v>305</v>
+        <v>243</v>
       </c>
       <c r="E128" t="s">
-        <v>622</v>
+        <v>417</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>658</v>
+        <v>494</v>
       </c>
     </row>
     <row r="129" spans="2:6">
       <c r="B129" s="9">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="C129" s="9">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="D129" t="s">
-        <v>308</v>
+        <v>69</v>
       </c>
       <c r="E129" t="s">
-        <v>623</v>
+        <v>400</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>659</v>
+        <v>495</v>
       </c>
     </row>
     <row r="130" spans="2:6">
       <c r="B130" s="9">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="C130" s="9">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="D130" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="E130" t="s">
-        <v>624</v>
+        <v>437</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>659</v>
+        <v>496</v>
       </c>
     </row>
     <row r="131" spans="2:6">
       <c r="B131" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="C131" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D131" t="s">
-        <v>312</v>
+        <v>49</v>
       </c>
       <c r="E131" t="s">
-        <v>625</v>
+        <v>398</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>658</v>
+        <v>497</v>
       </c>
     </row>
     <row r="132" spans="2:6">
       <c r="B132" s="9">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="C132" s="9">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="D132" t="s">
-        <v>313</v>
+        <v>61</v>
       </c>
       <c r="E132" t="s">
-        <v>626</v>
+        <v>426</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>659</v>
+        <v>498</v>
       </c>
     </row>
     <row r="133" spans="2:6">
       <c r="B133" s="9">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="C133" s="9">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="D133" t="s">
-        <v>627</v>
+        <v>185</v>
       </c>
       <c r="E133" t="s">
-        <v>628</v>
+        <v>409</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>658</v>
+        <v>499</v>
       </c>
     </row>
     <row r="134" spans="2:6">
       <c r="B134" s="9">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="C134" s="9">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="D134" t="s">
-        <v>315</v>
+        <v>68</v>
       </c>
       <c r="E134" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="135" spans="2:6">
       <c r="B135" s="9">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C135" s="9">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D135" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="E135" t="s">
-        <v>629</v>
+        <v>435</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>659</v>
+        <v>501</v>
       </c>
     </row>
     <row r="136" spans="2:6">
       <c r="B136" s="9">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C136" s="9">
-        <v>133</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="F136" s="5"/>
+        <v>114</v>
+      </c>
+      <c r="D136" t="s">
+        <v>284</v>
+      </c>
+      <c r="E136" t="s">
+        <v>418</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="137" spans="2:6">
       <c r="B137" s="9">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="C137" s="9">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="D137" t="s">
-        <v>320</v>
+        <v>143</v>
       </c>
       <c r="E137" t="s">
-        <v>630</v>
+        <v>407</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>659</v>
+        <v>503</v>
       </c>
     </row>
     <row r="138" spans="2:6">
       <c r="B138" s="9">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C138" s="9">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="D138" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="E138" t="s">
-        <v>631</v>
+        <v>421</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>658</v>
+        <v>504</v>
       </c>
     </row>
     <row r="139" spans="2:6">
       <c r="B139" s="9">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="C139" s="9">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="D139" t="s">
-        <v>323</v>
-      </c>
-      <c r="E139" t="s">
-        <v>632</v>
+        <v>196</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>412</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>659</v>
+        <v>505</v>
       </c>
     </row>
     <row r="140" spans="2:6">
       <c r="B140" s="9">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="C140" s="9">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="D140" t="s">
-        <v>324</v>
+        <v>189</v>
       </c>
       <c r="E140" t="s">
-        <v>633</v>
+        <v>410</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>659</v>
+        <v>506</v>
       </c>
     </row>
     <row r="141" spans="2:6">
       <c r="B141" s="9">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C141" s="9">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D141" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="E141" t="s">
-        <v>634</v>
+        <v>436</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>658</v>
+        <v>507</v>
       </c>
     </row>
     <row r="142" spans="2:6">
       <c r="B142" s="9">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C142" s="9">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D142" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E142" t="s">
-        <v>635</v>
+        <v>419</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>659</v>
+        <v>508</v>
       </c>
     </row>
     <row r="143" spans="2:6">
       <c r="B143" s="9">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C143" s="9">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D143" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="E143" t="s">
-        <v>636</v>
+        <v>434</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>659</v>
+        <v>509</v>
       </c>
     </row>
     <row r="144" spans="2:6">
       <c r="B144" s="9">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="C144" s="9">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="D144" t="s">
-        <v>333</v>
-      </c>
-      <c r="F144" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="E144" t="s">
+        <v>405</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="145" spans="2:6">
       <c r="B145" s="9">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="C145" s="9">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="D145" t="s">
-        <v>335</v>
+        <v>215</v>
       </c>
       <c r="E145" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="146" spans="2:6">
       <c r="B146" s="9">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="C146" s="9">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="D146" t="s">
-        <v>337</v>
+        <v>218</v>
       </c>
       <c r="E146" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
     </row>
     <row r="147" spans="2:6">
       <c r="B147" s="9">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="C147" s="9">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="D147" t="s">
-        <v>339</v>
+        <v>92</v>
       </c>
       <c r="E147" t="s">
-        <v>637</v>
+        <v>403</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>659</v>
+        <v>513</v>
       </c>
     </row>
     <row r="148" spans="2:6">
       <c r="B148" s="9">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="C148" s="9">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="D148" t="s">
-        <v>342</v>
+        <v>231</v>
       </c>
       <c r="E148" t="s">
-        <v>638</v>
+        <v>416</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>659</v>
+        <v>514</v>
       </c>
     </row>
     <row r="149" spans="2:6">
       <c r="B149" s="9">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="C149" s="9">
-        <v>146</v>
+        <v>41</v>
       </c>
       <c r="D149" t="s">
-        <v>344</v>
+        <v>125</v>
       </c>
       <c r="E149" t="s">
-        <v>639</v>
+        <v>406</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>659</v>
+        <v>515</v>
       </c>
     </row>
     <row r="150" spans="2:6">
       <c r="B150" s="9">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="C150" s="9">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="D150" t="s">
-        <v>345</v>
+        <v>86</v>
       </c>
       <c r="E150" t="s">
-        <v>640</v>
+        <v>402</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>659</v>
+        <v>516</v>
       </c>
     </row>
     <row r="151" spans="2:6">
       <c r="B151" s="9">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="C151" s="9">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="D151" t="s">
-        <v>347</v>
+        <v>224</v>
       </c>
       <c r="E151" t="s">
-        <v>641</v>
+        <v>415</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>659</v>
+        <v>517</v>
       </c>
     </row>
     <row r="152" spans="2:6">
       <c r="B152" s="9">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C152" s="9">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D152" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E152" t="s">
-        <v>642</v>
+        <v>422</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>659</v>
+        <v>518</v>
       </c>
     </row>
     <row r="153" spans="2:6">
       <c r="B153" s="9">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="C153" s="9">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="D153" t="s">
-        <v>349</v>
-      </c>
-      <c r="E153" t="s">
-        <v>436</v>
+        <v>14</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>395</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="154" spans="2:6">
       <c r="B154" s="9">
+        <v>53</v>
+      </c>
+      <c r="C154" s="9">
+        <v>52</v>
+      </c>
+      <c r="D154" t="s">
         <v>152</v>
       </c>
-      <c r="C154" s="9">
-        <v>151</v>
-      </c>
-      <c r="D154" t="s">
-        <v>350</v>
-      </c>
       <c r="E154" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="155" spans="2:6">
       <c r="B155" s="9">
-        <v>153</v>
+        <v>5</v>
       </c>
       <c r="C155" s="9">
-        <v>152</v>
+        <v>5</v>
       </c>
       <c r="D155" t="s">
-        <v>351</v>
+        <v>24</v>
       </c>
       <c r="E155" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
     </row>
     <row r="156" spans="2:6">
       <c r="B156" s="9">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="C156" s="9">
-        <v>153</v>
-      </c>
-      <c r="D156" t="s">
-        <v>352</v>
+        <v>123</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>301</v>
       </c>
       <c r="E156" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="157" spans="2:6">
       <c r="B157" s="9">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C157" s="9">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D157" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E157" t="s">
-        <v>643</v>
+        <v>420</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>659</v>
+        <v>523</v>
       </c>
     </row>
     <row r="158" spans="2:6">
       <c r="B158" s="9">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="C158" s="9">
-        <v>155</v>
+        <v>1</v>
       </c>
       <c r="D158" t="s">
-        <v>356</v>
-      </c>
-      <c r="E158" t="s">
-        <v>437</v>
+        <v>9</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>396</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>496</v>
+        <v>524</v>
       </c>
     </row>
     <row r="159" spans="2:6">
       <c r="B159" s="9">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="C159" s="9">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="D159" t="s">
-        <v>358</v>
+        <v>97</v>
       </c>
       <c r="E159" t="s">
-        <v>644</v>
+        <v>404</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>659</v>
+        <v>525</v>
       </c>
     </row>
     <row r="160" spans="2:6">
       <c r="B160" s="9">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="C160" s="9">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="D160" t="s">
-        <v>359</v>
+        <v>74</v>
       </c>
       <c r="E160" t="s">
-        <v>645</v>
+        <v>401</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>659</v>
+        <v>526</v>
       </c>
     </row>
     <row r="161" spans="2:6">
       <c r="B161" s="9">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="C161" s="9">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="D161" t="s">
-        <v>361</v>
+        <v>203</v>
       </c>
       <c r="E161" t="s">
-        <v>646</v>
+        <v>429</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>659</v>
+        <v>527</v>
       </c>
     </row>
     <row r="162" spans="2:6">
       <c r="B162" s="9">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="C162" s="9">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="D162" t="s">
-        <v>363</v>
+        <v>59</v>
       </c>
       <c r="E162" t="s">
-        <v>647</v>
+        <v>425</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>658</v>
+        <v>528</v>
       </c>
     </row>
     <row r="163" spans="2:6">
       <c r="B163" s="9">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="C163" s="9">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="D163" t="s">
-        <v>365</v>
-      </c>
-      <c r="F163" s="5"/>
+        <v>267</v>
+      </c>
+      <c r="E163" t="s">
+        <v>432</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="164" spans="2:6">
       <c r="B164" s="9">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="C164" s="9">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="D164" t="s">
-        <v>366</v>
+        <v>193</v>
       </c>
       <c r="E164" t="s">
-        <v>648</v>
+        <v>411</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>659</v>
+        <v>530</v>
       </c>
     </row>
     <row r="165" spans="2:6">
       <c r="B165" s="9">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="C165" s="9">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="D165" t="s">
-        <v>368</v>
+        <v>176</v>
       </c>
       <c r="E165" t="s">
-        <v>649</v>
+        <v>408</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>659</v>
+        <v>531</v>
       </c>
     </row>
     <row r="166" spans="2:6">
       <c r="B166" s="9">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="C166" s="9">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="D166" t="s">
-        <v>370</v>
+        <v>208</v>
       </c>
       <c r="E166" t="s">
-        <v>650</v>
+        <v>430</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>659</v>
+        <v>532</v>
       </c>
     </row>
     <row r="167" spans="2:6">
       <c r="B167" s="9">
-        <v>165</v>
+        <v>4</v>
       </c>
       <c r="C167" s="9">
-        <v>164</v>
+        <v>4</v>
       </c>
       <c r="D167" t="s">
-        <v>371</v>
+        <v>21</v>
       </c>
       <c r="E167" t="s">
-        <v>651</v>
+        <v>397</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>659</v>
+        <v>533</v>
       </c>
     </row>
     <row r="168" spans="2:6">
       <c r="B168" s="9">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="C168" s="9">
-        <v>165</v>
-      </c>
-      <c r="D168" t="s">
-        <v>373</v>
+        <v>15</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="E168" t="s">
-        <v>652</v>
+        <v>543</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>659</v>
+        <v>779</v>
       </c>
     </row>
     <row r="169" spans="2:6">
       <c r="B169" s="9">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="C169" s="9">
-        <v>166</v>
-      </c>
-      <c r="D169" t="s">
-        <v>375</v>
+        <v>15</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="E169" t="s">
-        <v>653</v>
+        <v>542</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>659</v>
+        <v>780</v>
       </c>
     </row>
     <row r="170" spans="2:6">
       <c r="B170" s="9">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="C170" s="9">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="D170" t="s">
-        <v>377</v>
-      </c>
-      <c r="E170" t="s">
-        <v>654</v>
-      </c>
-      <c r="F170" s="5" t="s">
-        <v>659</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="F170" s="5"/>
     </row>
     <row r="171" spans="2:6">
       <c r="B171" s="9">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="C171" s="9">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="D171" t="s">
-        <v>378</v>
-      </c>
-      <c r="E171" t="s">
-        <v>655</v>
-      </c>
-      <c r="F171" s="5" t="s">
-        <v>659</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="F171" s="5"/>
     </row>
     <row r="172" spans="2:6">
       <c r="B172" s="9">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="C172" s="9">
-        <v>169</v>
-      </c>
-      <c r="D172" t="s">
-        <v>380</v>
-      </c>
-      <c r="E172" t="s">
-        <v>656</v>
-      </c>
-      <c r="F172" s="5" t="s">
-        <v>658</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F172" s="5"/>
     </row>
     <row r="173" spans="2:6">
       <c r="B173" s="9">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="C173" s="9">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="D173" t="s">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="F173" s="5"/>
     </row>
     <row r="174" spans="2:6">
       <c r="B174" s="9">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C174" s="9">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D174" t="s">
-        <v>384</v>
-      </c>
-      <c r="E174" t="s">
-        <v>657</v>
-      </c>
-      <c r="F174" s="5" t="s">
-        <v>659</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="F174" s="5"/>
     </row>
     <row r="175" spans="2:6">
       <c r="B175" s="9">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C175" s="9">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D175" t="s">
-        <v>386</v>
-      </c>
-      <c r="E175" t="s">
-        <v>438</v>
-      </c>
-      <c r="F175" s="5" t="s">
-        <v>492</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="F175" s="5"/>
     </row>
     <row r="176" spans="2:6">
       <c r="B176" t="s">
@@ -11710,23 +12073,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:E4 E6:E12 E14 E16:E48 E50:E103 E105:E132 E134:E175">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F175">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E175">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B175">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D175">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F32" r:id="rId1" xr:uid="{68B4E8A5-0080-4372-B4E0-62930C0A68B4}"/>
-    <hyperlink ref="F29" r:id="rId2" xr:uid="{AD28D80B-ECEE-4289-A1F7-69B4666DA64D}"/>
+    <hyperlink ref="F13" r:id="rId1" xr:uid="{68B4E8A5-0080-4372-B4E0-62930C0A68B4}"/>
+    <hyperlink ref="F150" r:id="rId2" xr:uid="{AD28D80B-ECEE-4289-A1F7-69B4666DA64D}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">

--- a/PDE3 database - Institute of Translational Medicine - University of Liverpool.xlsx
+++ b/PDE3 database - Institute of Translational Medicine - University of Liverpool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivbie\Documents\2020 - Projetos mestrado\CYFIP2\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF5713F-B1DB-4083-8F51-5FB0C0F7314F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6F3232-A099-4288-9838-0FF4E06EC303}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9118,8 +9118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D00A50-BAF2-4D7C-9C79-39B14A850D5C}">
   <dimension ref="B2:F176"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12090,10 +12090,11 @@
   <hyperlinks>
     <hyperlink ref="F13" r:id="rId1" xr:uid="{68B4E8A5-0080-4372-B4E0-62930C0A68B4}"/>
     <hyperlink ref="F150" r:id="rId2" xr:uid="{AD28D80B-ECEE-4289-A1F7-69B4666DA64D}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{089BB201-5735-4507-91DB-4AD5B83E47BC}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/PDE3 database - Institute of Translational Medicine - University of Liverpool.xlsx
+++ b/PDE3 database - Institute of Translational Medicine - University of Liverpool.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivbie\Documents\2020 - Projetos mestrado\CYFIP2\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6F3232-A099-4288-9838-0FF4E06EC303}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBBF18C-F78A-4680-B1BA-AF6FC5A9F3F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compounds" sheetId="1" r:id="rId1"/>
-    <sheet name="PDB files from HIC-Up" sheetId="2" r:id="rId2"/>
+    <sheet name="Compounds2" sheetId="3" r:id="rId2"/>
+    <sheet name="PDB files from HIC-Up" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="819">
   <si>
     <t>Name</t>
   </si>
@@ -2372,13 +2373,146 @@
   </si>
   <si>
     <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/SC17%20H18%20F3%20N%20O.txt</t>
+  </si>
+  <si>
+    <t>5-iodotubercidin</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MIRZA, N. et al. Identifying new antiepileptic drugs through genomicsbased drug repurposing. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Human Molecular Genetics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, v. 26, n. 3, p. 527–537, 2017.</t>
+    </r>
+  </si>
+  <si>
+    <t>Mechanism of action</t>
+  </si>
+  <si>
+    <t>Suppression of epileptiform activity evoked by brief, high-frequency stimulation in rat hippocampal slices (57). Antiepileptic effect in rodent bicuculline (58), kainic acid (59), maximal electric shock (60,61) models.</t>
+  </si>
+  <si>
+    <t>Adenosine kinase inhibitor Androstenol</t>
+  </si>
+  <si>
+    <t>Androstenol</t>
+  </si>
+  <si>
+    <t>Camptothecin</t>
+  </si>
+  <si>
+    <t>Curcumin</t>
+  </si>
+  <si>
+    <t>FGIN-1-27</t>
+  </si>
+  <si>
+    <t>Lestaurtinib</t>
+  </si>
+  <si>
+    <t>Mepacrine</t>
+  </si>
+  <si>
+    <t>Quinidine</t>
+  </si>
+  <si>
+    <t>Resveratrol</t>
+  </si>
+  <si>
+    <t>Neurosteroid, GABAA recep- tor modulator</t>
+  </si>
+  <si>
+    <t>Inhibitor ofDNA topoisom- erase I</t>
+  </si>
+  <si>
+    <t>Antioxidant</t>
+  </si>
+  <si>
+    <t>Mitochondrial benzodiaze- pine receptor agonist</t>
+  </si>
+  <si>
+    <t>Tyrosine kinase inhibitor</t>
+  </si>
+  <si>
+    <t>Multiple actions, including inhibition of PLA2</t>
+  </si>
+  <si>
+    <t>Sodium channel blocker</t>
+  </si>
+  <si>
+    <t>Produced naturally by sev- eral plants; principal mode of action unknown</t>
+  </si>
+  <si>
+    <t>Antiepileptic effect in the rodent FeCl3 (92), increasing current electroshock (93), kainic acid (94,95), and pentylenetetrazole (96) models. Antiepileptogenic effect in the rodent pentylenetetrazole model (93,15).</t>
+  </si>
+  <si>
+    <t>Antiepileptic effect in the rodent 6Hz electroshock and pentylenetetrazol (62) models</t>
+  </si>
+  <si>
+    <t>Antiepileptic effect in a Drosophila model of epilepsy (70)</t>
+  </si>
+  <si>
+    <t>Antiepileptic effect in the zebrafish model (71), and in rodent amygdaloid kindling (72), increasing current electroshock (73,74), iron-induced epileptogenesis (75), kainic acid (76), penicillin-induced epileptiform activity (77), pentylenetetrazole (33,73,78–81), and pilocarpine (82,83) models. Anticonvulsant in pilocarpine- (84) and pentylenetet- razol-induced status epilepticus (73). Protects against pentylenetetrazole-induced kindling (85), and exerts a favourable disease-modifying effect in the kainic acid model (86).</t>
+  </si>
+  <si>
+    <t>Antiepileptic effect in the rodent isoniazid (87,88), metrazol (87) and pentylenetetrazole (89) model.</t>
+  </si>
+  <si>
+    <t>Antiepileptogenic effect in rats: administration of lestaurtinib within 12 hours of the first neonatal seizure attenuates increased susceptibility to seizures in later life (22).</t>
+  </si>
+  <si>
+    <t>Antiepileptic effect in the rodent lithium-pilocarpine (34) model.</t>
+  </si>
+  <si>
+    <t>Antiepileptic effect in electroshock (90) and penicillin-induced (91) seizures in cats.</t>
+  </si>
+  <si>
+    <t>Formula C11 H13 I N4 O4</t>
+  </si>
+  <si>
+    <t>Formula C20 H16 N2 O4</t>
+  </si>
+  <si>
+    <t>Formula C14 H12 O3</t>
+  </si>
+  <si>
+    <t>C21 H20 O6</t>
+  </si>
+  <si>
+    <t>C26 H19 N3 O4</t>
+  </si>
+  <si>
+    <t>C23 H30 Cl N3 O</t>
+  </si>
+  <si>
+    <t>C20 H24 N2 O2 (2)</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_132496</t>
+  </si>
+  <si>
+    <t>Conformer3D_CID_101989</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -2412,6 +2546,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2421,7 +2562,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2429,12 +2570,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2449,47 +2599,20 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2540,6 +2663,156 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2704,17 +2977,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B424DCE3-2D94-4B01-8D4C-13D38CF07CAE}" name="Tabela1" displayName="Tabela1" ref="B2:Q174" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B424DCE3-2D94-4B01-8D4C-13D38CF07CAE}" name="Tabela1" displayName="Tabela1" ref="B2:Q174" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="B2:Q174" xr:uid="{4AB5E234-523A-40D6-A65E-0BBB1D90474A}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{4D3698C4-EA49-4C98-83ED-B651DA65BAD9}" name="Compound ID" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{4D3698C4-EA49-4C98-83ED-B651DA65BAD9}" name="Compound ID" dataDxfId="26"/>
     <tableColumn id="2" xr3:uid="{1A309358-CA89-41E0-9A90-F70309D9DB35}" name="Name"/>
     <tableColumn id="3" xr3:uid="{D13F5563-5245-4C67-94CA-3D8EDEFE37DF}" name="Indications"/>
-    <tableColumn id="4" xr3:uid="{76964F19-9FCA-42C4-B5B4-2AF969873583}" name="First licensed (year)" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{B915C42A-C3AD-4EE8-B307-583A94B2DF61}" name="Prescriptions items dispensed in England in 2016 (number)" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{1B0C2226-493B-4FBE-99AD-673CA85A1B15}" name="Prescriptions items dispensed in England in 2016 (rank)" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{D6EC2CBC-8C62-4043-BB6D-10AA76365A08}" name="Number of studies" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{0A534E60-C891-4915-8B75-E57E2E5FF298}" name="Number of unique models" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{76964F19-9FCA-42C4-B5B4-2AF969873583}" name="First licensed (year)" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{B915C42A-C3AD-4EE8-B307-583A94B2DF61}" name="Prescriptions items dispensed in England in 2016 (number)" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{1B0C2226-493B-4FBE-99AD-673CA85A1B15}" name="Prescriptions items dispensed in England in 2016 (rank)" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{D6EC2CBC-8C62-4043-BB6D-10AA76365A08}" name="Number of studies" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{0A534E60-C891-4915-8B75-E57E2E5FF298}" name="Number of unique models" dataDxfId="21"/>
     <tableColumn id="9" xr3:uid="{A9116F38-0E87-4451-8ABE-9A3C77A0A932}" name="Models"/>
     <tableColumn id="10" xr3:uid="{29B8A375-527D-4674-B623-E53F6154EE54}" name="AEDs enhanced"/>
     <tableColumn id="11" xr3:uid="{1CDE8E53-BAB9-4B1F-B65F-C4873C03DFE7}" name="Number of studies2"/>
@@ -2729,14 +3002,33 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54767107-61A5-4E5F-84FA-2A8D9B5C4D10}" name="Tabela2" displayName="Tabela2" ref="B2:F176" totalsRowCount="1" headerRowDxfId="3">
-  <autoFilter ref="B2:F175" xr:uid="{2A0284F6-0E4E-4CE1-9526-7ACFD806AE5D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DE97478E-D924-46B0-849D-E454BF6A3413}" name="Tabela3" displayName="Tabela3" ref="B2:H11" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="16">
+  <autoFilter ref="B2:H11" xr:uid="{0FEBD1EE-11C8-4AA6-BBDA-64553AC64D72}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{CA7172B0-8C6E-41F1-8B91-4307A61A98E9}" name="Compound ID"/>
+    <tableColumn id="2" xr3:uid="{A0616F48-063D-4ACD-AB7D-CFF224DEF6AD}" name="Name"/>
+    <tableColumn id="7" xr3:uid="{4413120F-F7AF-4224-91C2-F353172E5D20}" name="Mechanism of action"/>
+    <tableColumn id="3" xr3:uid="{5646920D-981A-4BA9-BB92-AB19EFCBAD6A}" name="Indications"/>
+    <tableColumn id="4" xr3:uid="{8EBBE2C8-BB8F-4E6B-B794-5A1AADF45B06}" name="Pediatric use 1- recommended 0-  not recommended (New Pediatric Labeling Information Database)"/>
+    <tableColumn id="5" xr3:uid="{C4C365CE-2FDF-4953-8F17-FEAC7965F88B}" name="New Pediatric Labeling Information Database"/>
+    <tableColumn id="6" xr3:uid="{3F3682C1-D92A-4FD1-9D88-8B854BCE48BE}" name="Usado pela paciente (1-usado 0-não usado)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54767107-61A5-4E5F-84FA-2A8D9B5C4D10}" name="Tabela2" displayName="Tabela2" ref="B2:F185" totalsRowCount="1" headerRowDxfId="20">
+  <autoFilter ref="B2:F184" xr:uid="{2A0284F6-0E4E-4CE1-9526-7ACFD806AE5D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F175">
+    <sortCondition ref="B2"/>
+  </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F07FB46E-2261-4395-95B4-499CFE4DC5CC}" name="File ID" totalsRowLabel="Total" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{824CA5B7-C3F1-4EF2-BF5E-B7E729203F26}" name="Compound ID" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{F07FB46E-2261-4395-95B4-499CFE4DC5CC}" name="File ID" totalsRowLabel="Total" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{824CA5B7-C3F1-4EF2-BF5E-B7E729203F26}" name="Compound ID" dataDxfId="18"/>
     <tableColumn id="5" xr3:uid="{8E5ABDBD-3B43-49EC-BA36-F6AADA0EA1ED}" name="Compound Name"/>
     <tableColumn id="3" xr3:uid="{18BA9869-4705-4B91-9295-CA0136FABA04}" name="File Name" totalsRowFunction="count"/>
-    <tableColumn id="4" xr3:uid="{FB23DE31-DBC1-42B4-ABAA-CDF6F245AAEB}" name="File Adress" totalsRowFunction="count" dataDxfId="0" dataCellStyle="Hiperlink"/>
+    <tableColumn id="4" xr3:uid="{FB23DE31-DBC1-42B4-ABAA-CDF6F245AAEB}" name="File Adress" totalsRowFunction="count" dataDxfId="17" dataCellStyle="Hiperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3041,8 +3333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R178"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView showGridLines="0" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
@@ -9115,11 +9407,192 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785189E3-0BEB-4CF8-82F0-78D91E41F12B}">
+  <dimension ref="B1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="73.42578125" customWidth="1"/>
+    <col min="7" max="7" width="43" customWidth="1"/>
+    <col min="8" max="8" width="41.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8">
+      <c r="B1" s="4" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="B2" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>783</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3">
+        <v>173</v>
+      </c>
+      <c r="C3" t="s">
+        <v>781</v>
+      </c>
+      <c r="D3" t="s">
+        <v>785</v>
+      </c>
+      <c r="E3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4">
+        <v>174</v>
+      </c>
+      <c r="C4" t="s">
+        <v>786</v>
+      </c>
+      <c r="D4" t="s">
+        <v>794</v>
+      </c>
+      <c r="E4" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5">
+        <v>175</v>
+      </c>
+      <c r="C5" t="s">
+        <v>787</v>
+      </c>
+      <c r="D5" t="s">
+        <v>795</v>
+      </c>
+      <c r="E5" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6">
+        <v>176</v>
+      </c>
+      <c r="C6" t="s">
+        <v>788</v>
+      </c>
+      <c r="D6" t="s">
+        <v>796</v>
+      </c>
+      <c r="E6" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7">
+        <v>177</v>
+      </c>
+      <c r="C7" t="s">
+        <v>789</v>
+      </c>
+      <c r="D7" t="s">
+        <v>797</v>
+      </c>
+      <c r="E7" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8">
+        <v>178</v>
+      </c>
+      <c r="C8" t="s">
+        <v>790</v>
+      </c>
+      <c r="D8" t="s">
+        <v>798</v>
+      </c>
+      <c r="E8" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9">
+        <v>179</v>
+      </c>
+      <c r="C9" t="s">
+        <v>791</v>
+      </c>
+      <c r="D9" t="s">
+        <v>799</v>
+      </c>
+      <c r="E9" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10">
+        <v>180</v>
+      </c>
+      <c r="C10" t="s">
+        <v>792</v>
+      </c>
+      <c r="D10" t="s">
+        <v>800</v>
+      </c>
+      <c r="E10" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11">
+        <v>181</v>
+      </c>
+      <c r="C11" t="s">
+        <v>793</v>
+      </c>
+      <c r="D11" t="s">
+        <v>801</v>
+      </c>
+      <c r="E11" t="s">
+        <v>802</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D00A50-BAF2-4D7C-9C79-39B14A850D5C}">
-  <dimension ref="B2:F176"/>
+  <dimension ref="B2:F185"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="E177" sqref="E177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9149,1328 +9622,1328 @@
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="9">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C3" s="9">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" t="s">
-        <v>559</v>
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>396</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>734</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="9">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="C4" s="9">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>273</v>
-      </c>
-      <c r="E4" t="s">
-        <v>606</v>
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>395</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>735</v>
+        <v>519</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="9">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C5" s="9">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>560</v>
+        <v>534</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>736</v>
+        <v>759</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="9">
-        <v>131</v>
+        <v>4</v>
       </c>
       <c r="C6" s="9">
-        <v>130</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>627</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>628</v>
+        <v>397</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>737</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="9">
-        <v>139</v>
+        <v>5</v>
       </c>
       <c r="C7" s="9">
-        <v>138</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>325</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>634</v>
+        <v>423</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>738</v>
+        <v>521</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="9">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C8" s="9">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>739</v>
+        <v>775</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="9">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C9" s="9">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>740</v>
+        <v>756</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="9">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="C10" s="9">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>578</v>
+        <v>537</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>741</v>
+        <v>757</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="9">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="C11" s="9">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>246</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>595</v>
+        <v>424</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>742</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="9">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C12" s="9">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>259</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>601</v>
+        <v>538</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="9">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C13" s="9">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>427</v>
+        <v>539</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>490</v>
+        <v>765</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="9">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="C14" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>380</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>656</v>
+        <v>398</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>744</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="9">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="C15" s="9">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>262</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>603</v>
+        <v>540</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="9">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C16" s="9">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>746</v>
+        <v>677</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="9">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="C17" s="9">
-        <v>102</v>
-      </c>
-      <c r="D17" t="s">
-        <v>264</v>
+        <v>15</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>604</v>
+        <v>542</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>747</v>
+        <v>780</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C18" s="9">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>103</v>
+        <v>15</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>748</v>
+        <v>779</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="9">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C19" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>577</v>
+        <v>425</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>749</v>
+        <v>528</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="9">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="C20" s="9">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>289</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>615</v>
+        <v>426</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>750</v>
+        <v>498</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="9">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C21" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>751</v>
+        <v>716</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C22" s="9">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>561</v>
+        <v>399</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>752</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="9">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="C23" s="9">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>587</v>
+        <v>400</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>753</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="9">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="C24" s="9">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>201</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
-        <v>583</v>
+        <v>545</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>754</v>
+        <v>733</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="9">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="C25" s="9">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>286</v>
+        <v>74</v>
       </c>
       <c r="E25" t="s">
-        <v>613</v>
+        <v>401</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>755</v>
+        <v>526</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="9">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C26" s="9">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="E26" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>756</v>
+        <v>705</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="9">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C27" s="9">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="E27" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="9">
+        <v>26</v>
+      </c>
+      <c r="C28" s="9">
         <v>25</v>
       </c>
-      <c r="C28" s="9">
-        <v>24</v>
-      </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="9">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C29" s="9">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="E29" t="s">
-        <v>534</v>
+        <v>402</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>759</v>
+        <v>516</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="9">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="C30" s="9">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>282</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
-        <v>612</v>
+        <v>549</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>760</v>
+        <v>712</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="9">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="C31" s="9">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c r="E31" t="s">
-        <v>576</v>
+        <v>403</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>761</v>
+        <v>513</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="9">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="C32" s="9">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>305</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
-        <v>622</v>
+        <v>427</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>762</v>
+        <v>490</v>
       </c>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="9">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="C33" s="9">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>312</v>
+        <v>97</v>
       </c>
       <c r="E33" t="s">
-        <v>625</v>
+        <v>404</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>763</v>
+        <v>525</v>
       </c>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="9">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="C34" s="9">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>363</v>
+        <v>99</v>
       </c>
       <c r="E34" t="s">
-        <v>647</v>
+        <v>550</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>764</v>
+        <v>686</v>
       </c>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="9">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C35" s="9">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="E35" t="s">
-        <v>539</v>
+        <v>405</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>765</v>
+        <v>510</v>
       </c>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C36" s="9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="E36" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>766</v>
+        <v>748</v>
       </c>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="9">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C37" s="9">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E37" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>767</v>
+        <v>711</v>
       </c>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="9">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C38" s="9">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="E38" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>768</v>
+        <v>751</v>
       </c>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="9">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="C39" s="9">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>321</v>
+        <v>112</v>
       </c>
       <c r="E39" t="s">
-        <v>631</v>
+        <v>554</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>769</v>
+        <v>706</v>
       </c>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="9">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C40" s="9">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="E40" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>770</v>
+        <v>666</v>
       </c>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="9">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C41" s="9">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="E41" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>771</v>
+        <v>670</v>
       </c>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="9">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C42" s="9">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D42" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="E42" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>772</v>
+        <v>740</v>
       </c>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="9">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="C43" s="9">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>213</v>
+        <v>123</v>
       </c>
       <c r="E43" t="s">
-        <v>413</v>
+        <v>558</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>491</v>
+        <v>767</v>
       </c>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="9">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="C44" s="9">
-        <v>100</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>260</v>
+        <v>41</v>
+      </c>
+      <c r="D44" t="s">
+        <v>125</v>
       </c>
       <c r="E44" t="s">
-        <v>602</v>
+        <v>406</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>773</v>
+        <v>515</v>
       </c>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="9">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C45" s="9">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D45" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="E45" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>774</v>
+        <v>734</v>
       </c>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="9">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="C46" s="9">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D46" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="E46" t="s">
-        <v>535</v>
+        <v>560</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>775</v>
+        <v>736</v>
       </c>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="9">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="C47" s="9">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="D47" t="s">
-        <v>255</v>
+        <v>135</v>
       </c>
       <c r="E47" t="s">
-        <v>599</v>
+        <v>561</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>776</v>
+        <v>752</v>
       </c>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="9">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="C48" s="9">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="D48" t="s">
-        <v>279</v>
+        <v>136</v>
       </c>
       <c r="E48" t="s">
-        <v>611</v>
+        <v>562</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>777</v>
+        <v>727</v>
       </c>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="9">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C49" s="9">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D49" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="E49" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="9">
-        <v>158</v>
+        <v>48</v>
       </c>
       <c r="C50" s="9">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c r="D50" t="s">
-        <v>359</v>
+        <v>139</v>
       </c>
       <c r="E50" t="s">
-        <v>645</v>
+        <v>564</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>658</v>
+        <v>687</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="9">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C51" s="9">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D51" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="E51" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>659</v>
+        <v>703</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="9">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="C52" s="9">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="D52" t="s">
-        <v>275</v>
+        <v>143</v>
       </c>
       <c r="E52" t="s">
-        <v>608</v>
+        <v>407</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>660</v>
+        <v>503</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="9">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C53" s="9">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D53" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="E53" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>661</v>
+        <v>772</v>
       </c>
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="9">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="C54" s="9">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="D54" t="s">
-        <v>276</v>
+        <v>150</v>
       </c>
       <c r="E54" t="s">
-        <v>609</v>
+        <v>567</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>662</v>
+        <v>719</v>
       </c>
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="9">
-        <v>168</v>
+        <v>53</v>
       </c>
       <c r="C55" s="9">
-        <v>167</v>
+        <v>52</v>
       </c>
       <c r="D55" t="s">
-        <v>377</v>
+        <v>152</v>
       </c>
       <c r="E55" t="s">
-        <v>654</v>
+        <v>428</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>663</v>
+        <v>520</v>
       </c>
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="9">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="C56" s="9">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="D56" t="s">
-        <v>253</v>
+        <v>155</v>
       </c>
       <c r="E56" t="s">
-        <v>598</v>
+        <v>568</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>664</v>
+        <v>688</v>
       </c>
     </row>
     <row r="57" spans="2:6">
       <c r="B57" s="9">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="C57" s="9">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="D57" t="s">
-        <v>320</v>
+        <v>159</v>
       </c>
       <c r="E57" t="s">
-        <v>630</v>
+        <v>569</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>665</v>
+        <v>768</v>
       </c>
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="9">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C58" s="9">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D58" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="E58" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="9">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="C59" s="9">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="D59" t="s">
-        <v>257</v>
+        <v>163</v>
       </c>
       <c r="E59" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>667</v>
+        <v>771</v>
       </c>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="9">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C60" s="9">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D60" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="E60" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="9">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C61" s="9">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="D61" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="E61" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>669</v>
+        <v>778</v>
       </c>
     </row>
     <row r="62" spans="2:6">
       <c r="B62" s="9">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C62" s="9">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D62" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="E62" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="9">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C63" s="9">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="D63" t="s">
-        <v>240</v>
+        <v>172</v>
       </c>
       <c r="E63" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>671</v>
+        <v>774</v>
       </c>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="9">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="C64" s="9">
-        <v>171</v>
+        <v>61</v>
       </c>
       <c r="D64" t="s">
-        <v>384</v>
+        <v>175</v>
       </c>
       <c r="E64" t="s">
-        <v>657</v>
+        <v>576</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>672</v>
+        <v>761</v>
       </c>
     </row>
     <row r="65" spans="2:6">
       <c r="B65" s="9">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="C65" s="9">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="D65" t="s">
-        <v>342</v>
+        <v>176</v>
       </c>
       <c r="E65" t="s">
-        <v>638</v>
+        <v>408</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>673</v>
+        <v>531</v>
       </c>
     </row>
     <row r="66" spans="2:6">
       <c r="B66" s="9">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C66" s="9">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D66" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="E66" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>674</v>
+        <v>749</v>
       </c>
     </row>
     <row r="67" spans="2:6">
       <c r="B67" s="9">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C67" s="9">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D67" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="E67" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>675</v>
+        <v>741</v>
       </c>
     </row>
     <row r="68" spans="2:6">
       <c r="B68" s="9">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="C68" s="9">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="D68" t="s">
-        <v>344</v>
+        <v>183</v>
       </c>
       <c r="E68" t="s">
-        <v>639</v>
+        <v>579</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
     </row>
     <row r="69" spans="2:6">
       <c r="B69" s="9">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C69" s="9">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="D69" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
       <c r="E69" t="s">
-        <v>541</v>
+        <v>409</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>677</v>
+        <v>499</v>
       </c>
     </row>
     <row r="70" spans="2:6">
       <c r="B70" s="9">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="C70" s="9">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="D70" t="s">
-        <v>303</v>
+        <v>187</v>
       </c>
       <c r="E70" t="s">
-        <v>621</v>
+        <v>580</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>678</v>
+        <v>717</v>
       </c>
     </row>
     <row r="71" spans="2:6">
       <c r="B71" s="9">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="C71" s="9">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="D71" t="s">
-        <v>347</v>
+        <v>189</v>
       </c>
       <c r="E71" t="s">
-        <v>641</v>
+        <v>410</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>679</v>
+        <v>506</v>
       </c>
     </row>
     <row r="72" spans="2:6">
       <c r="B72" s="9">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="C72" s="9">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="D72" t="s">
-        <v>277</v>
+        <v>191</v>
       </c>
       <c r="E72" t="s">
-        <v>610</v>
+        <v>581</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
     </row>
     <row r="73" spans="2:6">
       <c r="B73" s="9">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C73" s="9">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D73" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="E73" t="s">
-        <v>570</v>
+        <v>411</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>681</v>
+        <v>530</v>
       </c>
     </row>
     <row r="74" spans="2:6">
       <c r="B74" s="9">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="C74" s="9">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="D74" t="s">
-        <v>293</v>
-      </c>
-      <c r="E74" t="s">
-        <v>617</v>
+        <v>196</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>412</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>682</v>
+        <v>505</v>
       </c>
     </row>
     <row r="75" spans="2:6">
       <c r="B75" s="9">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="C75" s="9">
-        <v>154</v>
+        <v>72</v>
       </c>
       <c r="D75" t="s">
-        <v>354</v>
+        <v>199</v>
       </c>
       <c r="E75" t="s">
-        <v>643</v>
+        <v>582</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>683</v>
+        <v>668</v>
       </c>
     </row>
     <row r="76" spans="2:6">
       <c r="B76" s="9">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="C76" s="9">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="D76" t="s">
-        <v>358</v>
+        <v>201</v>
       </c>
       <c r="E76" t="s">
-        <v>644</v>
+        <v>583</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>684</v>
+        <v>754</v>
       </c>
     </row>
     <row r="77" spans="2:6">
       <c r="B77" s="9">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="C77" s="9">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="D77" t="s">
-        <v>287</v>
+        <v>203</v>
       </c>
       <c r="E77" t="s">
-        <v>614</v>
+        <v>429</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>685</v>
+        <v>527</v>
       </c>
     </row>
     <row r="78" spans="2:6">
       <c r="B78" s="9">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="C78" s="9">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="D78" t="s">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c r="E78" t="s">
-        <v>550</v>
+        <v>584</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>686</v>
+        <v>714</v>
       </c>
     </row>
     <row r="79" spans="2:6">
       <c r="B79" s="9">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C79" s="9">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="D79" t="s">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="E79" t="s">
-        <v>564</v>
+        <v>585</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>687</v>
+        <v>713</v>
       </c>
     </row>
     <row r="80" spans="2:6">
       <c r="B80" s="9">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C80" s="9">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="D80" t="s">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="E80" t="s">
-        <v>568</v>
+        <v>430</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>688</v>
+        <v>532</v>
       </c>
     </row>
     <row r="81" spans="2:6">
@@ -10492,1605 +10965,1743 @@
     </row>
     <row r="82" spans="2:6">
       <c r="B82" s="9">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C82" s="9">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D82" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="E82" t="s">
-        <v>597</v>
+        <v>413</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>690</v>
+        <v>491</v>
       </c>
     </row>
     <row r="83" spans="2:6">
       <c r="B83" s="9">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C83" s="9">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D83" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="E83" t="s">
-        <v>593</v>
+        <v>431</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>691</v>
+        <v>511</v>
       </c>
     </row>
     <row r="84" spans="2:6">
       <c r="B84" s="9">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="C84" s="9">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="D84" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="E84" t="s">
-        <v>633</v>
+        <v>587</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>692</v>
+        <v>753</v>
       </c>
     </row>
     <row r="85" spans="2:6">
       <c r="B85" s="9">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C85" s="9">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D85" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="E85" t="s">
-        <v>581</v>
+        <v>414</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>693</v>
+        <v>512</v>
       </c>
     </row>
     <row r="86" spans="2:6">
       <c r="B86" s="9">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C86" s="9">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D86" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="E86" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>694</v>
+        <v>675</v>
       </c>
     </row>
     <row r="87" spans="2:6">
       <c r="B87" s="9">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="C87" s="9">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="D87" t="s">
-        <v>316</v>
+        <v>224</v>
       </c>
       <c r="E87" t="s">
-        <v>629</v>
+        <v>415</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>695</v>
+        <v>517</v>
       </c>
     </row>
     <row r="88" spans="2:6">
       <c r="B88" s="9">
-        <v>162</v>
+        <v>86</v>
       </c>
       <c r="C88" s="9">
-        <v>161</v>
-      </c>
-      <c r="D88" t="s">
-        <v>366</v>
+        <v>85</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="E88" t="s">
-        <v>648</v>
+        <v>589</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>696</v>
+        <v>731</v>
       </c>
     </row>
     <row r="89" spans="2:6">
       <c r="B89" s="9">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="C89" s="9">
-        <v>162</v>
+        <v>86</v>
       </c>
       <c r="D89" t="s">
-        <v>368</v>
+        <v>229</v>
       </c>
       <c r="E89" t="s">
-        <v>649</v>
+        <v>590</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>697</v>
+        <v>669</v>
       </c>
     </row>
     <row r="90" spans="2:6">
       <c r="B90" s="9">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="C90" s="9">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="D90" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="E90" t="s">
-        <v>620</v>
+        <v>416</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>698</v>
+        <v>514</v>
       </c>
     </row>
     <row r="91" spans="2:6">
       <c r="B91" s="9">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="C91" s="9">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="D91" t="s">
-        <v>294</v>
+        <v>233</v>
       </c>
       <c r="E91" t="s">
-        <v>618</v>
+        <v>591</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>699</v>
+        <v>729</v>
       </c>
     </row>
     <row r="92" spans="2:6">
       <c r="B92" s="9">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C92" s="9">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D92" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="E92" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="93" spans="2:6">
       <c r="B93" s="9">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C93" s="9">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="D93" t="s">
-        <v>295</v>
+        <v>237</v>
       </c>
       <c r="E93" t="s">
-        <v>619</v>
+        <v>593</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
     </row>
     <row r="94" spans="2:6">
       <c r="B94" s="9">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="C94" s="9">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D94" t="s">
-        <v>373</v>
+        <v>240</v>
       </c>
       <c r="E94" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>702</v>
+        <v>671</v>
       </c>
     </row>
     <row r="95" spans="2:6">
       <c r="B95" s="9">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="C95" s="9">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="D95" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="E95" t="s">
-        <v>565</v>
+        <v>417</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>703</v>
+        <v>494</v>
       </c>
     </row>
     <row r="96" spans="2:6">
       <c r="B96" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C96" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D96" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E96" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>704</v>
+        <v>742</v>
       </c>
     </row>
     <row r="97" spans="2:6">
       <c r="B97" s="9">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="C97" s="9">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="D97" t="s">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="E97" t="s">
-        <v>546</v>
+        <v>596</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="98" spans="2:6">
       <c r="B98" s="9">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="C98" s="9">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="D98" t="s">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="E98" t="s">
-        <v>554</v>
+        <v>597</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
     </row>
     <row r="99" spans="2:6">
       <c r="B99" s="9">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C99" s="9">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D99" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="E99" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>707</v>
+        <v>664</v>
       </c>
     </row>
     <row r="100" spans="2:6">
       <c r="B100" s="9">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="C100" s="9">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D100" t="s">
-        <v>339</v>
+        <v>255</v>
       </c>
       <c r="E100" t="s">
-        <v>637</v>
+        <v>599</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>708</v>
+        <v>776</v>
       </c>
     </row>
     <row r="101" spans="2:6">
       <c r="B101" s="9">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="C101" s="9">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="D101" t="s">
-        <v>308</v>
+        <v>257</v>
       </c>
       <c r="E101" t="s">
-        <v>623</v>
+        <v>600</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>709</v>
+        <v>667</v>
       </c>
     </row>
     <row r="102" spans="2:6">
       <c r="B102" s="9">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="C102" s="9">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="D102" t="s">
-        <v>331</v>
+        <v>259</v>
       </c>
       <c r="E102" t="s">
-        <v>636</v>
+        <v>601</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>710</v>
+        <v>743</v>
       </c>
     </row>
     <row r="103" spans="2:6">
       <c r="B103" s="9">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="C103" s="9">
-        <v>34</v>
-      </c>
-      <c r="D103" t="s">
-        <v>107</v>
+        <v>100</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>260</v>
       </c>
       <c r="E103" t="s">
-        <v>552</v>
+        <v>602</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>711</v>
+        <v>773</v>
       </c>
     </row>
     <row r="104" spans="2:6">
       <c r="B104" s="9">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="C104" s="9">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="D104" t="s">
-        <v>91</v>
+        <v>262</v>
       </c>
       <c r="E104" t="s">
-        <v>549</v>
+        <v>603</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>712</v>
+        <v>745</v>
       </c>
     </row>
     <row r="105" spans="2:6">
       <c r="B105" s="9">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C105" s="9">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="D105" t="s">
-        <v>207</v>
+        <v>264</v>
       </c>
       <c r="E105" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>713</v>
+        <v>747</v>
       </c>
     </row>
     <row r="106" spans="2:6">
       <c r="B106" s="9">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="C106" s="9">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="D106" t="s">
-        <v>205</v>
-      </c>
-      <c r="E106" t="s">
-        <v>584</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>714</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="F106" s="5"/>
     </row>
     <row r="107" spans="2:6">
       <c r="B107" s="9">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C107" s="9">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D107" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="E107" t="s">
-        <v>616</v>
+        <v>432</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>715</v>
+        <v>529</v>
       </c>
     </row>
     <row r="108" spans="2:6">
       <c r="B108" s="9">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="C108" s="9">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="D108" t="s">
-        <v>66</v>
-      </c>
-      <c r="E108" t="s">
-        <v>544</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>716</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="F108" s="5"/>
     </row>
     <row r="109" spans="2:6">
       <c r="B109" s="9">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="C109" s="9">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="D109" t="s">
-        <v>187</v>
+        <v>271</v>
       </c>
       <c r="E109" t="s">
-        <v>580</v>
+        <v>605</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
     </row>
     <row r="110" spans="2:6">
       <c r="B110" s="9">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="C110" s="9">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="D110" t="s">
-        <v>348</v>
+        <v>273</v>
       </c>
       <c r="E110" t="s">
-        <v>642</v>
+        <v>606</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
     </row>
     <row r="111" spans="2:6">
       <c r="B111" s="9">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="C111" s="9">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="D111" t="s">
-        <v>150</v>
+        <v>274</v>
       </c>
       <c r="E111" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>719</v>
+        <v>700</v>
       </c>
     </row>
     <row r="112" spans="2:6">
       <c r="B112" s="9">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="C112" s="9">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="D112" t="s">
-        <v>378</v>
+        <v>275</v>
       </c>
       <c r="E112" t="s">
-        <v>655</v>
+        <v>608</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>720</v>
+        <v>660</v>
       </c>
     </row>
     <row r="113" spans="2:6">
       <c r="B113" s="9">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="C113" s="9">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="D113" t="s">
-        <v>370</v>
+        <v>276</v>
       </c>
       <c r="E113" t="s">
-        <v>650</v>
+        <v>609</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>721</v>
+        <v>662</v>
       </c>
     </row>
     <row r="114" spans="2:6">
       <c r="B114" s="9">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="C114" s="9">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="D114" t="s">
-        <v>371</v>
+        <v>277</v>
       </c>
       <c r="E114" t="s">
-        <v>651</v>
+        <v>610</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>722</v>
+        <v>680</v>
       </c>
     </row>
     <row r="115" spans="2:6">
       <c r="B115" s="9">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="C115" s="9">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="D115" t="s">
-        <v>345</v>
+        <v>279</v>
       </c>
       <c r="E115" t="s">
-        <v>640</v>
+        <v>611</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>723</v>
+        <v>777</v>
       </c>
     </row>
     <row r="116" spans="2:6">
       <c r="B116" s="9">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C116" s="9">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D116" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="E116" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>724</v>
+        <v>760</v>
       </c>
     </row>
     <row r="117" spans="2:6">
       <c r="B117" s="9">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C117" s="9">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="D117" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="E117" t="s">
-        <v>632</v>
+        <v>418</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>725</v>
+        <v>502</v>
       </c>
     </row>
     <row r="118" spans="2:6">
       <c r="B118" s="9">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="C118" s="9">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="D118" t="s">
-        <v>361</v>
+        <v>286</v>
       </c>
       <c r="E118" t="s">
-        <v>646</v>
+        <v>613</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>726</v>
+        <v>755</v>
       </c>
     </row>
     <row r="119" spans="2:6">
       <c r="B119" s="9">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="C119" s="9">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="D119" t="s">
-        <v>136</v>
+        <v>287</v>
       </c>
       <c r="E119" t="s">
-        <v>562</v>
+        <v>614</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>727</v>
+        <v>685</v>
       </c>
     </row>
     <row r="120" spans="2:6">
       <c r="B120" s="9">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="C120" s="9">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="D120" t="s">
-        <v>375</v>
+        <v>289</v>
       </c>
       <c r="E120" t="s">
-        <v>653</v>
+        <v>615</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>728</v>
+        <v>750</v>
       </c>
     </row>
     <row r="121" spans="2:6">
       <c r="B121" s="9">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C121" s="9">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="D121" t="s">
-        <v>233</v>
+        <v>291</v>
       </c>
       <c r="E121" t="s">
-        <v>591</v>
+        <v>616</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
     </row>
     <row r="122" spans="2:6">
       <c r="B122" s="9">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C122" s="9">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="D122" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="E122" t="s">
-        <v>635</v>
+        <v>617</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>730</v>
+        <v>682</v>
       </c>
     </row>
     <row r="123" spans="2:6">
       <c r="B123" s="9">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="C123" s="9">
-        <v>85</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>227</v>
+        <v>120</v>
+      </c>
+      <c r="D123" t="s">
+        <v>294</v>
       </c>
       <c r="E123" t="s">
-        <v>589</v>
+        <v>618</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>731</v>
+        <v>699</v>
       </c>
     </row>
     <row r="124" spans="2:6">
       <c r="B124" s="9">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C124" s="9">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D124" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="E124" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>732</v>
+        <v>701</v>
       </c>
     </row>
     <row r="125" spans="2:6">
       <c r="B125" s="9">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="C125" s="9">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="D125" t="s">
-        <v>71</v>
+        <v>299</v>
       </c>
       <c r="E125" t="s">
-        <v>545</v>
+        <v>620</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>733</v>
+        <v>698</v>
       </c>
     </row>
     <row r="126" spans="2:6">
       <c r="B126" s="9">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="C126" s="9">
-        <v>172</v>
-      </c>
-      <c r="D126" t="s">
-        <v>386</v>
+        <v>123</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>301</v>
       </c>
       <c r="E126" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>492</v>
+        <v>522</v>
       </c>
     </row>
     <row r="127" spans="2:6">
       <c r="B127" s="9">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="C127" s="9">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D127" t="s">
-        <v>39</v>
+        <v>303</v>
       </c>
       <c r="E127" t="s">
-        <v>424</v>
+        <v>621</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>493</v>
+        <v>678</v>
       </c>
     </row>
     <row r="128" spans="2:6">
       <c r="B128" s="9">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="C128" s="9">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="D128" t="s">
-        <v>243</v>
+        <v>305</v>
       </c>
       <c r="E128" t="s">
-        <v>417</v>
+        <v>622</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>494</v>
+        <v>762</v>
       </c>
     </row>
     <row r="129" spans="2:6">
       <c r="B129" s="9">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="C129" s="9">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="D129" t="s">
-        <v>69</v>
+        <v>308</v>
       </c>
       <c r="E129" t="s">
-        <v>400</v>
+        <v>623</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>495</v>
+        <v>709</v>
       </c>
     </row>
     <row r="130" spans="2:6">
       <c r="B130" s="9">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="C130" s="9">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="D130" t="s">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="E130" t="s">
-        <v>437</v>
+        <v>624</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>496</v>
+        <v>724</v>
       </c>
     </row>
     <row r="131" spans="2:6">
       <c r="B131" s="9">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="C131" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="D131" t="s">
-        <v>49</v>
+        <v>312</v>
       </c>
       <c r="E131" t="s">
-        <v>398</v>
+        <v>625</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>497</v>
+        <v>763</v>
       </c>
     </row>
     <row r="132" spans="2:6">
       <c r="B132" s="9">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="C132" s="9">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="D132" t="s">
-        <v>61</v>
+        <v>313</v>
       </c>
       <c r="E132" t="s">
-        <v>426</v>
+        <v>626</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>498</v>
+        <v>732</v>
       </c>
     </row>
     <row r="133" spans="2:6">
       <c r="B133" s="9">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="C133" s="9">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="D133" t="s">
-        <v>185</v>
+        <v>627</v>
       </c>
       <c r="E133" t="s">
-        <v>409</v>
+        <v>628</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>499</v>
+        <v>737</v>
       </c>
     </row>
     <row r="134" spans="2:6">
       <c r="B134" s="9">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="C134" s="9">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="D134" t="s">
-        <v>68</v>
+        <v>315</v>
       </c>
       <c r="E134" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
     </row>
     <row r="135" spans="2:6">
       <c r="B135" s="9">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C135" s="9">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D135" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="E135" t="s">
-        <v>435</v>
+        <v>629</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>501</v>
+        <v>695</v>
       </c>
     </row>
     <row r="136" spans="2:6">
       <c r="B136" s="9">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C136" s="9">
-        <v>114</v>
-      </c>
-      <c r="D136" t="s">
-        <v>284</v>
-      </c>
-      <c r="E136" t="s">
-        <v>418</v>
-      </c>
-      <c r="F136" s="5" t="s">
-        <v>502</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F136" s="5"/>
     </row>
     <row r="137" spans="2:6">
       <c r="B137" s="9">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="C137" s="9">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="D137" t="s">
-        <v>143</v>
+        <v>320</v>
       </c>
       <c r="E137" t="s">
-        <v>407</v>
+        <v>630</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>503</v>
+        <v>665</v>
       </c>
     </row>
     <row r="138" spans="2:6">
       <c r="B138" s="9">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C138" s="9">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D138" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="E138" t="s">
-        <v>421</v>
+        <v>631</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>504</v>
+        <v>769</v>
       </c>
     </row>
     <row r="139" spans="2:6">
       <c r="B139" s="9">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="C139" s="9">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="D139" t="s">
-        <v>196</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>412</v>
+        <v>323</v>
+      </c>
+      <c r="E139" t="s">
+        <v>632</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>505</v>
+        <v>725</v>
       </c>
     </row>
     <row r="140" spans="2:6">
       <c r="B140" s="9">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="C140" s="9">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="D140" t="s">
-        <v>189</v>
+        <v>324</v>
       </c>
       <c r="E140" t="s">
-        <v>410</v>
+        <v>633</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>506</v>
+        <v>692</v>
       </c>
     </row>
     <row r="141" spans="2:6">
       <c r="B141" s="9">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C141" s="9">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D141" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="E141" t="s">
-        <v>436</v>
+        <v>634</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>507</v>
+        <v>738</v>
       </c>
     </row>
     <row r="142" spans="2:6">
       <c r="B142" s="9">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C142" s="9">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D142" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="E142" t="s">
-        <v>419</v>
+        <v>635</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>508</v>
+        <v>730</v>
       </c>
     </row>
     <row r="143" spans="2:6">
       <c r="B143" s="9">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C143" s="9">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D143" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E143" t="s">
-        <v>434</v>
+        <v>636</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>509</v>
+        <v>710</v>
       </c>
     </row>
     <row r="144" spans="2:6">
       <c r="B144" s="9">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="C144" s="9">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="D144" t="s">
-        <v>101</v>
-      </c>
-      <c r="E144" t="s">
-        <v>405</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>510</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="F144" s="5"/>
     </row>
     <row r="145" spans="2:6">
       <c r="B145" s="9">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="C145" s="9">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="D145" t="s">
-        <v>215</v>
+        <v>335</v>
       </c>
       <c r="E145" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="146" spans="2:6">
       <c r="B146" s="9">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="C146" s="9">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="D146" t="s">
-        <v>218</v>
+        <v>337</v>
       </c>
       <c r="E146" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
     </row>
     <row r="147" spans="2:6">
       <c r="B147" s="9">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="C147" s="9">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="D147" t="s">
-        <v>92</v>
+        <v>339</v>
       </c>
       <c r="E147" t="s">
-        <v>403</v>
+        <v>637</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>513</v>
+        <v>708</v>
       </c>
     </row>
     <row r="148" spans="2:6">
       <c r="B148" s="9">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="C148" s="9">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="D148" t="s">
-        <v>231</v>
+        <v>342</v>
       </c>
       <c r="E148" t="s">
-        <v>416</v>
+        <v>638</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>514</v>
+        <v>673</v>
       </c>
     </row>
     <row r="149" spans="2:6">
       <c r="B149" s="9">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="C149" s="9">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="D149" t="s">
-        <v>125</v>
+        <v>344</v>
       </c>
       <c r="E149" t="s">
-        <v>406</v>
+        <v>639</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>515</v>
+        <v>676</v>
       </c>
     </row>
     <row r="150" spans="2:6">
       <c r="B150" s="9">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="C150" s="9">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="D150" t="s">
-        <v>86</v>
+        <v>345</v>
       </c>
       <c r="E150" t="s">
-        <v>402</v>
+        <v>640</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>516</v>
+        <v>723</v>
       </c>
     </row>
     <row r="151" spans="2:6">
       <c r="B151" s="9">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="C151" s="9">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="D151" t="s">
-        <v>224</v>
+        <v>347</v>
       </c>
       <c r="E151" t="s">
-        <v>415</v>
+        <v>641</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>517</v>
+        <v>679</v>
       </c>
     </row>
     <row r="152" spans="2:6">
       <c r="B152" s="9">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C152" s="9">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D152" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E152" t="s">
-        <v>422</v>
+        <v>642</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>518</v>
+        <v>718</v>
       </c>
     </row>
     <row r="153" spans="2:6">
       <c r="B153" s="9">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="C153" s="9">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="D153" t="s">
-        <v>14</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>395</v>
+        <v>349</v>
+      </c>
+      <c r="E153" t="s">
+        <v>436</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
     </row>
     <row r="154" spans="2:6">
       <c r="B154" s="9">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="C154" s="9">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="D154" t="s">
-        <v>152</v>
+        <v>350</v>
       </c>
       <c r="E154" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="155" spans="2:6">
       <c r="B155" s="9">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C155" s="9">
-        <v>5</v>
+        <v>152</v>
       </c>
       <c r="D155" t="s">
-        <v>24</v>
+        <v>351</v>
       </c>
       <c r="E155" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="156" spans="2:6">
       <c r="B156" s="9">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="C156" s="9">
-        <v>123</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>301</v>
+        <v>153</v>
+      </c>
+      <c r="D156" t="s">
+        <v>352</v>
       </c>
       <c r="E156" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="157" spans="2:6">
       <c r="B157" s="9">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C157" s="9">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D157" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E157" t="s">
-        <v>420</v>
+        <v>643</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>523</v>
+        <v>683</v>
       </c>
     </row>
     <row r="158" spans="2:6">
       <c r="B158" s="9">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="C158" s="9">
-        <v>1</v>
+        <v>155</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>396</v>
+        <v>356</v>
+      </c>
+      <c r="E158" t="s">
+        <v>437</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>524</v>
+        <v>496</v>
       </c>
     </row>
     <row r="159" spans="2:6">
       <c r="B159" s="9">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="C159" s="9">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="D159" t="s">
-        <v>97</v>
+        <v>358</v>
       </c>
       <c r="E159" t="s">
-        <v>404</v>
+        <v>644</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>525</v>
+        <v>684</v>
       </c>
     </row>
     <row r="160" spans="2:6">
       <c r="B160" s="9">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="C160" s="9">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="D160" t="s">
-        <v>74</v>
+        <v>359</v>
       </c>
       <c r="E160" t="s">
-        <v>401</v>
+        <v>645</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>526</v>
+        <v>658</v>
       </c>
     </row>
     <row r="161" spans="2:6">
       <c r="B161" s="9">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="C161" s="9">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="D161" t="s">
-        <v>203</v>
+        <v>361</v>
       </c>
       <c r="E161" t="s">
-        <v>429</v>
+        <v>646</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>527</v>
+        <v>726</v>
       </c>
     </row>
     <row r="162" spans="2:6">
       <c r="B162" s="9">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="C162" s="9">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="D162" t="s">
-        <v>59</v>
+        <v>363</v>
       </c>
       <c r="E162" t="s">
-        <v>425</v>
+        <v>647</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>528</v>
+        <v>764</v>
       </c>
     </row>
     <row r="163" spans="2:6">
       <c r="B163" s="9">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="C163" s="9">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="D163" t="s">
-        <v>267</v>
-      </c>
-      <c r="E163" t="s">
-        <v>432</v>
-      </c>
-      <c r="F163" s="5" t="s">
-        <v>529</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="F163" s="5"/>
     </row>
     <row r="164" spans="2:6">
       <c r="B164" s="9">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="C164" s="9">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="D164" t="s">
-        <v>193</v>
+        <v>366</v>
       </c>
       <c r="E164" t="s">
-        <v>411</v>
+        <v>648</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>530</v>
+        <v>696</v>
       </c>
     </row>
     <row r="165" spans="2:6">
       <c r="B165" s="9">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="C165" s="9">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="D165" t="s">
-        <v>176</v>
+        <v>368</v>
       </c>
       <c r="E165" t="s">
-        <v>408</v>
+        <v>649</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>531</v>
+        <v>697</v>
       </c>
     </row>
     <row r="166" spans="2:6">
       <c r="B166" s="9">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="C166" s="9">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="D166" t="s">
-        <v>208</v>
+        <v>370</v>
       </c>
       <c r="E166" t="s">
-        <v>430</v>
+        <v>650</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>532</v>
+        <v>721</v>
       </c>
     </row>
     <row r="167" spans="2:6">
       <c r="B167" s="9">
-        <v>4</v>
+        <v>165</v>
       </c>
       <c r="C167" s="9">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="D167" t="s">
-        <v>21</v>
+        <v>371</v>
       </c>
       <c r="E167" t="s">
-        <v>397</v>
+        <v>651</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>533</v>
+        <v>722</v>
       </c>
     </row>
     <row r="168" spans="2:6">
       <c r="B168" s="9">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="C168" s="9">
-        <v>15</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>56</v>
+        <v>165</v>
+      </c>
+      <c r="D168" t="s">
+        <v>373</v>
       </c>
       <c r="E168" t="s">
-        <v>543</v>
+        <v>652</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>779</v>
+        <v>702</v>
       </c>
     </row>
     <row r="169" spans="2:6">
       <c r="B169" s="9">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="C169" s="9">
-        <v>15</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>56</v>
+        <v>166</v>
+      </c>
+      <c r="D169" t="s">
+        <v>375</v>
       </c>
       <c r="E169" t="s">
-        <v>542</v>
+        <v>653</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>780</v>
+        <v>728</v>
       </c>
     </row>
     <row r="170" spans="2:6">
       <c r="B170" s="9">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="C170" s="9">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="D170" t="s">
-        <v>265</v>
-      </c>
-      <c r="F170" s="5"/>
+        <v>377</v>
+      </c>
+      <c r="E170" t="s">
+        <v>654</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="171" spans="2:6">
       <c r="B171" s="9">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="C171" s="9">
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="D171" t="s">
-        <v>269</v>
-      </c>
-      <c r="F171" s="5"/>
+        <v>378</v>
+      </c>
+      <c r="E171" t="s">
+        <v>655</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="172" spans="2:6">
       <c r="B172" s="9">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="C172" s="9">
-        <v>133</v>
-      </c>
-      <c r="D172" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="F172" s="5"/>
+        <v>169</v>
+      </c>
+      <c r="D172" t="s">
+        <v>380</v>
+      </c>
+      <c r="E172" t="s">
+        <v>656</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="173" spans="2:6">
       <c r="B173" s="9">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="C173" s="9">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="D173" t="s">
-        <v>333</v>
+        <v>383</v>
       </c>
       <c r="F173" s="5"/>
     </row>
     <row r="174" spans="2:6">
       <c r="B174" s="9">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C174" s="9">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="D174" t="s">
-        <v>365</v>
-      </c>
-      <c r="F174" s="5"/>
+        <v>384</v>
+      </c>
+      <c r="E174" t="s">
+        <v>657</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="175" spans="2:6">
       <c r="B175" s="9">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C175" s="9">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D175" t="s">
-        <v>383</v>
-      </c>
-      <c r="F175" s="5"/>
+        <v>386</v>
+      </c>
+      <c r="E175" t="s">
+        <v>438</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="176" spans="2:6">
-      <c r="B176" t="s">
+      <c r="B176">
+        <v>174</v>
+      </c>
+      <c r="C176">
+        <v>173</v>
+      </c>
+      <c r="D176" t="s">
+        <v>781</v>
+      </c>
+      <c r="E176" t="s">
+        <v>810</v>
+      </c>
+      <c r="F176" s="5"/>
+    </row>
+    <row r="177" spans="2:6">
+      <c r="B177">
+        <v>175</v>
+      </c>
+      <c r="C177">
+        <v>174</v>
+      </c>
+      <c r="D177" t="s">
+        <v>786</v>
+      </c>
+      <c r="E177" t="s">
+        <v>818</v>
+      </c>
+      <c r="F177" s="5"/>
+    </row>
+    <row r="178" spans="2:6">
+      <c r="B178">
+        <v>176</v>
+      </c>
+      <c r="C178">
+        <v>175</v>
+      </c>
+      <c r="D178" t="s">
+        <v>787</v>
+      </c>
+      <c r="E178" t="s">
+        <v>811</v>
+      </c>
+      <c r="F178" s="5"/>
+    </row>
+    <row r="179" spans="2:6">
+      <c r="B179">
+        <v>177</v>
+      </c>
+      <c r="C179">
+        <v>176</v>
+      </c>
+      <c r="D179" t="s">
+        <v>788</v>
+      </c>
+      <c r="E179" t="s">
+        <v>813</v>
+      </c>
+      <c r="F179" s="5"/>
+    </row>
+    <row r="180" spans="2:6">
+      <c r="B180">
+        <v>178</v>
+      </c>
+      <c r="C180">
+        <v>177</v>
+      </c>
+      <c r="D180" t="s">
+        <v>789</v>
+      </c>
+      <c r="E180" t="s">
+        <v>817</v>
+      </c>
+      <c r="F180" s="5"/>
+    </row>
+    <row r="181" spans="2:6">
+      <c r="B181">
+        <v>179</v>
+      </c>
+      <c r="C181">
+        <v>178</v>
+      </c>
+      <c r="D181" t="s">
+        <v>790</v>
+      </c>
+      <c r="E181" t="s">
+        <v>814</v>
+      </c>
+      <c r="F181" s="5"/>
+    </row>
+    <row r="182" spans="2:6">
+      <c r="B182">
+        <v>180</v>
+      </c>
+      <c r="C182">
+        <v>179</v>
+      </c>
+      <c r="D182" t="s">
+        <v>791</v>
+      </c>
+      <c r="E182" t="s">
+        <v>815</v>
+      </c>
+      <c r="F182" s="5"/>
+    </row>
+    <row r="183" spans="2:6">
+      <c r="B183">
+        <v>181</v>
+      </c>
+      <c r="C183">
+        <v>180</v>
+      </c>
+      <c r="D183" t="s">
+        <v>792</v>
+      </c>
+      <c r="E183" t="s">
+        <v>816</v>
+      </c>
+      <c r="F183" s="5"/>
+    </row>
+    <row r="184" spans="2:6">
+      <c r="B184" s="9">
+        <v>182</v>
+      </c>
+      <c r="C184">
+        <v>181</v>
+      </c>
+      <c r="D184" t="s">
+        <v>793</v>
+      </c>
+      <c r="E184" t="s">
+        <v>812</v>
+      </c>
+      <c r="F184" s="5"/>
+    </row>
+    <row r="185" spans="2:6">
+      <c r="B185" t="s">
         <v>439</v>
       </c>
-      <c r="E176">
+      <c r="E185">
         <f>SUBTOTAL(103,Tabela2[File Name])</f>
-        <v>167</v>
-      </c>
-      <c r="F176">
+        <v>176</v>
+      </c>
+      <c r="F185">
         <f>SUBTOTAL(103,Tabela2[File Adress])</f>
         <v>167</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:E4 E6:E12 E14 E16:E48 E50:E103 E105:E132 E134:E175">
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F184">
     <cfRule type="duplicateValues" dxfId="8" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F175">
+  <conditionalFormatting sqref="E3:E184">
     <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E175">
+  <conditionalFormatting sqref="B3:B175 B184">
     <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B175">
+  <conditionalFormatting sqref="C3:D184">
     <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:D175">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  <conditionalFormatting sqref="B176:B183">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F13" r:id="rId1" xr:uid="{68B4E8A5-0080-4372-B4E0-62930C0A68B4}"/>
-    <hyperlink ref="F150" r:id="rId2" xr:uid="{AD28D80B-ECEE-4289-A1F7-69B4666DA64D}"/>
-    <hyperlink ref="F3" r:id="rId3" xr:uid="{089BB201-5735-4507-91DB-4AD5B83E47BC}"/>
+    <hyperlink ref="F32" r:id="rId1" xr:uid="{68B4E8A5-0080-4372-B4E0-62930C0A68B4}"/>
+    <hyperlink ref="F29" r:id="rId2" xr:uid="{AD28D80B-ECEE-4289-A1F7-69B4666DA64D}"/>
+    <hyperlink ref="F45" r:id="rId3" xr:uid="{089BB201-5735-4507-91DB-4AD5B83E47BC}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">

--- a/PDE3 database - Institute of Translational Medicine - University of Liverpool.xlsx
+++ b/PDE3 database - Institute of Translational Medicine - University of Liverpool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivbie\Documents\2020 - Projetos mestrado\CYFIP2\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBBF18C-F78A-4680-B1BA-AF6FC5A9F3F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD5E4C3-57A3-4169-9C46-CCFE9CF857B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="828">
   <si>
     <t>Name</t>
   </si>
@@ -2506,6 +2506,33 @@
   </si>
   <si>
     <t>Conformer3D_CID_101989</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C11%20H13%20I%20N4%20O4.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C14%20H12%20O3.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20from%20HIC-Up/Formula%20C20%20H16%20N2%20O4.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C20%20H24%20N2%20O2%20(2).txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C21%20H20%20O6.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C23%20H30%20Cl%20N3%20O.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/PDB%20files%20model%20SDF/C26%20H19%20N3%20O4.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_132496.sdf</t>
+  </si>
+  <si>
+    <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_101989.sdf</t>
   </si>
 </sst>
 </file>
@@ -2605,14 +2632,42 @@
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2677,74 +2732,18 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2763,58 +2762,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2977,17 +2924,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B424DCE3-2D94-4B01-8D4C-13D38CF07CAE}" name="Tabela1" displayName="Tabela1" ref="B2:Q174" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B424DCE3-2D94-4B01-8D4C-13D38CF07CAE}" name="Tabela1" displayName="Tabela1" ref="B2:Q174" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="B2:Q174" xr:uid="{4AB5E234-523A-40D6-A65E-0BBB1D90474A}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{4D3698C4-EA49-4C98-83ED-B651DA65BAD9}" name="Compound ID" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{4D3698C4-EA49-4C98-83ED-B651DA65BAD9}" name="Compound ID" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{1A309358-CA89-41E0-9A90-F70309D9DB35}" name="Name"/>
     <tableColumn id="3" xr3:uid="{D13F5563-5245-4C67-94CA-3D8EDEFE37DF}" name="Indications"/>
-    <tableColumn id="4" xr3:uid="{76964F19-9FCA-42C4-B5B4-2AF969873583}" name="First licensed (year)" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{B915C42A-C3AD-4EE8-B307-583A94B2DF61}" name="Prescriptions items dispensed in England in 2016 (number)" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{1B0C2226-493B-4FBE-99AD-673CA85A1B15}" name="Prescriptions items dispensed in England in 2016 (rank)" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{D6EC2CBC-8C62-4043-BB6D-10AA76365A08}" name="Number of studies" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{0A534E60-C891-4915-8B75-E57E2E5FF298}" name="Number of unique models" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{76964F19-9FCA-42C4-B5B4-2AF969873583}" name="First licensed (year)" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{B915C42A-C3AD-4EE8-B307-583A94B2DF61}" name="Prescriptions items dispensed in England in 2016 (number)" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{1B0C2226-493B-4FBE-99AD-673CA85A1B15}" name="Prescriptions items dispensed in England in 2016 (rank)" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{D6EC2CBC-8C62-4043-BB6D-10AA76365A08}" name="Number of studies" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{0A534E60-C891-4915-8B75-E57E2E5FF298}" name="Number of unique models" dataDxfId="13"/>
     <tableColumn id="9" xr3:uid="{A9116F38-0E87-4451-8ABE-9A3C77A0A932}" name="Models"/>
     <tableColumn id="10" xr3:uid="{29B8A375-527D-4674-B623-E53F6154EE54}" name="AEDs enhanced"/>
     <tableColumn id="11" xr3:uid="{1CDE8E53-BAB9-4B1F-B65F-C4873C03DFE7}" name="Number of studies2"/>
@@ -3002,7 +2949,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DE97478E-D924-46B0-849D-E454BF6A3413}" name="Tabela3" displayName="Tabela3" ref="B2:H11" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DE97478E-D924-46B0-849D-E454BF6A3413}" name="Tabela3" displayName="Tabela3" ref="B2:H11" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="B2:H11" xr:uid="{0FEBD1EE-11C8-4AA6-BBDA-64553AC64D72}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{CA7172B0-8C6E-41F1-8B91-4307A61A98E9}" name="Compound ID"/>
@@ -3018,17 +2965,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54767107-61A5-4E5F-84FA-2A8D9B5C4D10}" name="Tabela2" displayName="Tabela2" ref="B2:F185" totalsRowCount="1" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54767107-61A5-4E5F-84FA-2A8D9B5C4D10}" name="Tabela2" displayName="Tabela2" ref="B2:F185" totalsRowCount="1" headerRowDxfId="3">
   <autoFilter ref="B2:F184" xr:uid="{2A0284F6-0E4E-4CE1-9526-7ACFD806AE5D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F175">
     <sortCondition ref="B2"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F07FB46E-2261-4395-95B4-499CFE4DC5CC}" name="File ID" totalsRowLabel="Total" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{824CA5B7-C3F1-4EF2-BF5E-B7E729203F26}" name="Compound ID" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{F07FB46E-2261-4395-95B4-499CFE4DC5CC}" name="File ID" totalsRowLabel="Total" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{824CA5B7-C3F1-4EF2-BF5E-B7E729203F26}" name="Compound ID" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{8E5ABDBD-3B43-49EC-BA36-F6AADA0EA1ED}" name="Compound Name"/>
     <tableColumn id="3" xr3:uid="{18BA9869-4705-4B91-9295-CA0136FABA04}" name="File Name" totalsRowFunction="count"/>
-    <tableColumn id="4" xr3:uid="{FB23DE31-DBC1-42B4-ABAA-CDF6F245AAEB}" name="File Adress" totalsRowFunction="count" dataDxfId="17" dataCellStyle="Hiperlink"/>
+    <tableColumn id="4" xr3:uid="{FB23DE31-DBC1-42B4-ABAA-CDF6F245AAEB}" name="File Adress" totalsRowFunction="count" dataDxfId="0" dataCellStyle="Hiperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9591,9 +9538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D00A50-BAF2-4D7C-9C79-39B14A850D5C}">
   <dimension ref="B2:F185"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="E177" sqref="E177"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12544,7 +12489,9 @@
       <c r="E176" t="s">
         <v>810</v>
       </c>
-      <c r="F176" s="5"/>
+      <c r="F176" s="5" t="s">
+        <v>819</v>
+      </c>
     </row>
     <row r="177" spans="2:6">
       <c r="B177">
@@ -12559,7 +12506,9 @@
       <c r="E177" t="s">
         <v>818</v>
       </c>
-      <c r="F177" s="5"/>
+      <c r="F177" s="5" t="s">
+        <v>827</v>
+      </c>
     </row>
     <row r="178" spans="2:6">
       <c r="B178">
@@ -12574,7 +12523,9 @@
       <c r="E178" t="s">
         <v>811</v>
       </c>
-      <c r="F178" s="5"/>
+      <c r="F178" s="5" t="s">
+        <v>821</v>
+      </c>
     </row>
     <row r="179" spans="2:6">
       <c r="B179">
@@ -12589,7 +12540,9 @@
       <c r="E179" t="s">
         <v>813</v>
       </c>
-      <c r="F179" s="5"/>
+      <c r="F179" s="5" t="s">
+        <v>823</v>
+      </c>
     </row>
     <row r="180" spans="2:6">
       <c r="B180">
@@ -12604,7 +12557,9 @@
       <c r="E180" t="s">
         <v>817</v>
       </c>
-      <c r="F180" s="5"/>
+      <c r="F180" s="5" t="s">
+        <v>826</v>
+      </c>
     </row>
     <row r="181" spans="2:6">
       <c r="B181">
@@ -12619,7 +12574,9 @@
       <c r="E181" t="s">
         <v>814</v>
       </c>
-      <c r="F181" s="5"/>
+      <c r="F181" s="5" t="s">
+        <v>825</v>
+      </c>
     </row>
     <row r="182" spans="2:6">
       <c r="B182">
@@ -12634,7 +12591,9 @@
       <c r="E182" t="s">
         <v>815</v>
       </c>
-      <c r="F182" s="5"/>
+      <c r="F182" s="5" t="s">
+        <v>824</v>
+      </c>
     </row>
     <row r="183" spans="2:6">
       <c r="B183">
@@ -12649,7 +12608,9 @@
       <c r="E183" t="s">
         <v>816</v>
       </c>
-      <c r="F183" s="5"/>
+      <c r="F183" s="5" t="s">
+        <v>822</v>
+      </c>
     </row>
     <row r="184" spans="2:6">
       <c r="B184" s="9">
@@ -12664,7 +12625,9 @@
       <c r="E184" t="s">
         <v>812</v>
       </c>
-      <c r="F184" s="5"/>
+      <c r="F184" s="5" t="s">
+        <v>820</v>
+      </c>
     </row>
     <row r="185" spans="2:6">
       <c r="B185" t="s">
@@ -12676,7 +12639,7 @@
       </c>
       <c r="F185">
         <f>SUBTOTAL(103,Tabela2[File Adress])</f>
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -12696,7 +12659,7 @@
     <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B176:B183">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F32" r:id="rId1" xr:uid="{68B4E8A5-0080-4372-B4E0-62930C0A68B4}"/>

--- a/PDE3 database - Institute of Translational Medicine - University of Liverpool.xlsx
+++ b/PDE3 database - Institute of Translational Medicine - University of Liverpool.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivbie\Documents\2020 - Projetos mestrado\CYFIP2\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD5E4C3-57A3-4169-9C46-CCFE9CF857B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958B325B-03E5-4C23-9CF1-26807BE05D54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compounds" sheetId="1" r:id="rId1"/>
     <sheet name="Compounds2" sheetId="3" r:id="rId2"/>
-    <sheet name="PDB files from HIC-Up" sheetId="2" r:id="rId3"/>
+    <sheet name="Compounds3" sheetId="4" r:id="rId3"/>
+    <sheet name="PDB files from HIC-Up" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="830">
   <si>
     <t>Name</t>
   </si>
@@ -2533,6 +2534,12 @@
   </si>
   <si>
     <t>https://github.com/isisventbiem/pde3database/blob/master/pubchem%20files/Conformer3D_CID_101989.sdf</t>
+  </si>
+  <si>
+    <t>N-ACETYL-L-CYSTEINE</t>
+  </si>
+  <si>
+    <t>C5 H9 N O3 S</t>
   </si>
 </sst>
 </file>
@@ -2581,15 +2588,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2606,12 +2619,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2627,47 +2675,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2728,6 +2751,112 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2924,17 +3053,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B424DCE3-2D94-4B01-8D4C-13D38CF07CAE}" name="Tabela1" displayName="Tabela1" ref="B2:Q174" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B424DCE3-2D94-4B01-8D4C-13D38CF07CAE}" name="Tabela1" displayName="Tabela1" ref="B2:Q174" totalsRowShown="0" headerRowDxfId="25">
   <autoFilter ref="B2:Q174" xr:uid="{4AB5E234-523A-40D6-A65E-0BBB1D90474A}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{4D3698C4-EA49-4C98-83ED-B651DA65BAD9}" name="Compound ID" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{4D3698C4-EA49-4C98-83ED-B651DA65BAD9}" name="Compound ID" dataDxfId="24"/>
     <tableColumn id="2" xr3:uid="{1A309358-CA89-41E0-9A90-F70309D9DB35}" name="Name"/>
     <tableColumn id="3" xr3:uid="{D13F5563-5245-4C67-94CA-3D8EDEFE37DF}" name="Indications"/>
-    <tableColumn id="4" xr3:uid="{76964F19-9FCA-42C4-B5B4-2AF969873583}" name="First licensed (year)" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{B915C42A-C3AD-4EE8-B307-583A94B2DF61}" name="Prescriptions items dispensed in England in 2016 (number)" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{1B0C2226-493B-4FBE-99AD-673CA85A1B15}" name="Prescriptions items dispensed in England in 2016 (rank)" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{D6EC2CBC-8C62-4043-BB6D-10AA76365A08}" name="Number of studies" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{0A534E60-C891-4915-8B75-E57E2E5FF298}" name="Number of unique models" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{76964F19-9FCA-42C4-B5B4-2AF969873583}" name="First licensed (year)" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{B915C42A-C3AD-4EE8-B307-583A94B2DF61}" name="Prescriptions items dispensed in England in 2016 (number)" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{1B0C2226-493B-4FBE-99AD-673CA85A1B15}" name="Prescriptions items dispensed in England in 2016 (rank)" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{D6EC2CBC-8C62-4043-BB6D-10AA76365A08}" name="Number of studies" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{0A534E60-C891-4915-8B75-E57E2E5FF298}" name="Number of unique models" dataDxfId="19"/>
     <tableColumn id="9" xr3:uid="{A9116F38-0E87-4451-8ABE-9A3C77A0A932}" name="Models"/>
     <tableColumn id="10" xr3:uid="{29B8A375-527D-4674-B623-E53F6154EE54}" name="AEDs enhanced"/>
     <tableColumn id="11" xr3:uid="{1CDE8E53-BAB9-4B1F-B65F-C4873C03DFE7}" name="Number of studies2"/>
@@ -2949,7 +3078,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DE97478E-D924-46B0-849D-E454BF6A3413}" name="Tabela3" displayName="Tabela3" ref="B2:H11" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DE97478E-D924-46B0-849D-E454BF6A3413}" name="Tabela3" displayName="Tabela3" ref="B2:H11" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
   <autoFilter ref="B2:H11" xr:uid="{0FEBD1EE-11C8-4AA6-BBDA-64553AC64D72}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{CA7172B0-8C6E-41F1-8B91-4307A61A98E9}" name="Compound ID"/>
@@ -2965,17 +3094,33 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54767107-61A5-4E5F-84FA-2A8D9B5C4D10}" name="Tabela2" displayName="Tabela2" ref="B2:F185" totalsRowCount="1" headerRowDxfId="3">
-  <autoFilter ref="B2:F184" xr:uid="{2A0284F6-0E4E-4CE1-9526-7ACFD806AE5D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{777E3901-86D6-4DE9-9230-24DF27EA05DC}" name="Tabela4" displayName="Tabela4" ref="B2:H3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B2:H3" xr:uid="{508AEA01-91FB-42A3-92C3-AD18FD4B3997}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{3C16F934-349A-42B3-A0A9-5C2F8E925CAA}" name="Compound ID"/>
+    <tableColumn id="2" xr3:uid="{9ED2C3E6-489E-4236-B741-8B55ABC2151F}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{CEB82E53-3D39-4847-BED1-C65E737AE3D6}" name="Mechanism of action"/>
+    <tableColumn id="4" xr3:uid="{4A103D08-826B-46BB-ADCA-5CD5C87B0023}" name="Indications"/>
+    <tableColumn id="5" xr3:uid="{A646E468-15A0-40B2-9D9E-EE1647D3D552}" name="Pediatric use 1- recommended 0-  not recommended (New Pediatric Labeling Information Database)"/>
+    <tableColumn id="6" xr3:uid="{B725682A-F6C3-4CE0-8C16-E28655BA9D34}" name="New Pediatric Labeling Information Database"/>
+    <tableColumn id="7" xr3:uid="{1AACC44F-B1FF-43D1-83B6-7B0AD809CEE6}" name="Usado pela paciente (1-usado 0-não usado)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54767107-61A5-4E5F-84FA-2A8D9B5C4D10}" name="Tabela2" displayName="Tabela2" ref="B2:F186" totalsRowCount="1" headerRowDxfId="15">
+  <autoFilter ref="B2:F185" xr:uid="{2A0284F6-0E4E-4CE1-9526-7ACFD806AE5D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F175">
     <sortCondition ref="B2"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F07FB46E-2261-4395-95B4-499CFE4DC5CC}" name="File ID" totalsRowLabel="Total" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{824CA5B7-C3F1-4EF2-BF5E-B7E729203F26}" name="Compound ID" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{F07FB46E-2261-4395-95B4-499CFE4DC5CC}" name="File ID" totalsRowLabel="Total" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{824CA5B7-C3F1-4EF2-BF5E-B7E729203F26}" name="Compound ID" dataDxfId="13"/>
     <tableColumn id="5" xr3:uid="{8E5ABDBD-3B43-49EC-BA36-F6AADA0EA1ED}" name="Compound Name"/>
     <tableColumn id="3" xr3:uid="{18BA9869-4705-4B91-9295-CA0136FABA04}" name="File Name" totalsRowFunction="count"/>
-    <tableColumn id="4" xr3:uid="{FB23DE31-DBC1-42B4-ABAA-CDF6F245AAEB}" name="File Adress" totalsRowFunction="count" dataDxfId="0" dataCellStyle="Hiperlink"/>
+    <tableColumn id="4" xr3:uid="{FB23DE31-DBC1-42B4-ABAA-CDF6F245AAEB}" name="File Adress" totalsRowFunction="count" dataDxfId="12" dataCellStyle="Hiperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9358,7 +9503,7 @@
   <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9535,10 +9680,70 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0277A7A-0E98-4F57-98B6-441A50EF6B9A}">
+  <dimension ref="B2:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="73.42578125" customWidth="1"/>
+    <col min="7" max="7" width="43" customWidth="1"/>
+    <col min="8" max="8" width="41.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3">
+        <v>182</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>828</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D00A50-BAF2-4D7C-9C79-39B14A850D5C}">
-  <dimension ref="B2:F185"/>
+  <dimension ref="B2:F186"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="E185" sqref="E185"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12630,36 +12835,51 @@
       </c>
     </row>
     <row r="185" spans="2:6">
-      <c r="B185" t="s">
+      <c r="B185" s="9">
+        <v>183</v>
+      </c>
+      <c r="C185" s="9">
+        <v>182</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="E185" t="s">
+        <v>829</v>
+      </c>
+      <c r="F185" s="5"/>
+    </row>
+    <row r="186" spans="2:6">
+      <c r="B186" t="s">
         <v>439</v>
       </c>
-      <c r="E185">
+      <c r="E186">
         <f>SUBTOTAL(103,Tabela2[File Name])</f>
-        <v>176</v>
-      </c>
-      <c r="F185">
+        <v>177</v>
+      </c>
+      <c r="F186">
         <f>SUBTOTAL(103,Tabela2[File Adress])</f>
         <v>176</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:E4 E6:E12 E14 E16:E48 E50:E103 E105:E132 E134:E175">
-    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F184">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+  <conditionalFormatting sqref="F3:F185">
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E184">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+  <conditionalFormatting sqref="E3:E185">
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B175 B184">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:D184">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+  <conditionalFormatting sqref="C3:D184 C185">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B176:B183">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F32" r:id="rId1" xr:uid="{68B4E8A5-0080-4372-B4E0-62930C0A68B4}"/>

--- a/PDE3 database - Institute of Translational Medicine - University of Liverpool.xlsx
+++ b/PDE3 database - Institute of Translational Medicine - University of Liverpool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivbie\Documents\2020 - Projetos mestrado\CYFIP2\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958B325B-03E5-4C23-9CF1-26807BE05D54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0A2D74-772A-4F7C-B6CB-BF5E1EA2580E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="833">
   <si>
     <t>Name</t>
   </si>
@@ -2540,6 +2540,15 @@
   </si>
   <si>
     <t>C5 H9 N O3 S</t>
+  </si>
+  <si>
+    <t>extension</t>
+  </si>
+  <si>
+    <t>MDL MOL/SDF</t>
+  </si>
+  <si>
+    <t>PDB</t>
   </si>
 </sst>
 </file>
@@ -2659,7 +2668,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2678,19 +2687,56 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2755,24 +2801,18 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2807,58 +2847,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border outline="0">
@@ -3053,17 +3041,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B424DCE3-2D94-4B01-8D4C-13D38CF07CAE}" name="Tabela1" displayName="Tabela1" ref="B2:Q174" totalsRowShown="0" headerRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B424DCE3-2D94-4B01-8D4C-13D38CF07CAE}" name="Tabela1" displayName="Tabela1" ref="B2:Q174" totalsRowShown="0" headerRowDxfId="23">
   <autoFilter ref="B2:Q174" xr:uid="{4AB5E234-523A-40D6-A65E-0BBB1D90474A}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{4D3698C4-EA49-4C98-83ED-B651DA65BAD9}" name="Compound ID" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{4D3698C4-EA49-4C98-83ED-B651DA65BAD9}" name="Compound ID" dataDxfId="22"/>
     <tableColumn id="2" xr3:uid="{1A309358-CA89-41E0-9A90-F70309D9DB35}" name="Name"/>
     <tableColumn id="3" xr3:uid="{D13F5563-5245-4C67-94CA-3D8EDEFE37DF}" name="Indications"/>
-    <tableColumn id="4" xr3:uid="{76964F19-9FCA-42C4-B5B4-2AF969873583}" name="First licensed (year)" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{B915C42A-C3AD-4EE8-B307-583A94B2DF61}" name="Prescriptions items dispensed in England in 2016 (number)" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{1B0C2226-493B-4FBE-99AD-673CA85A1B15}" name="Prescriptions items dispensed in England in 2016 (rank)" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{D6EC2CBC-8C62-4043-BB6D-10AA76365A08}" name="Number of studies" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{0A534E60-C891-4915-8B75-E57E2E5FF298}" name="Number of unique models" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{76964F19-9FCA-42C4-B5B4-2AF969873583}" name="First licensed (year)" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{B915C42A-C3AD-4EE8-B307-583A94B2DF61}" name="Prescriptions items dispensed in England in 2016 (number)" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{1B0C2226-493B-4FBE-99AD-673CA85A1B15}" name="Prescriptions items dispensed in England in 2016 (rank)" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{D6EC2CBC-8C62-4043-BB6D-10AA76365A08}" name="Number of studies" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{0A534E60-C891-4915-8B75-E57E2E5FF298}" name="Number of unique models" dataDxfId="17"/>
     <tableColumn id="9" xr3:uid="{A9116F38-0E87-4451-8ABE-9A3C77A0A932}" name="Models"/>
     <tableColumn id="10" xr3:uid="{29B8A375-527D-4674-B623-E53F6154EE54}" name="AEDs enhanced"/>
     <tableColumn id="11" xr3:uid="{1CDE8E53-BAB9-4B1F-B65F-C4873C03DFE7}" name="Number of studies2"/>
@@ -3078,7 +3066,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DE97478E-D924-46B0-849D-E454BF6A3413}" name="Tabela3" displayName="Tabela3" ref="B2:H11" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DE97478E-D924-46B0-849D-E454BF6A3413}" name="Tabela3" displayName="Tabela3" ref="B2:H11" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="B2:H11" xr:uid="{0FEBD1EE-11C8-4AA6-BBDA-64553AC64D72}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{CA7172B0-8C6E-41F1-8B91-4307A61A98E9}" name="Compound ID"/>
@@ -3094,7 +3082,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{777E3901-86D6-4DE9-9230-24DF27EA05DC}" name="Tabela4" displayName="Tabela4" ref="B2:H3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{777E3901-86D6-4DE9-9230-24DF27EA05DC}" name="Tabela4" displayName="Tabela4" ref="B2:H3" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="B2:H3" xr:uid="{508AEA01-91FB-42A3-92C3-AD18FD4B3997}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{3C16F934-349A-42B3-A0A9-5C2F8E925CAA}" name="Compound ID"/>
@@ -3110,17 +3098,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54767107-61A5-4E5F-84FA-2A8D9B5C4D10}" name="Tabela2" displayName="Tabela2" ref="B2:F186" totalsRowCount="1" headerRowDxfId="15">
-  <autoFilter ref="B2:F185" xr:uid="{2A0284F6-0E4E-4CE1-9526-7ACFD806AE5D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F175">
-    <sortCondition ref="B2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54767107-61A5-4E5F-84FA-2A8D9B5C4D10}" name="Tabela2" displayName="Tabela2" ref="B2:G186" totalsRowCount="1" headerRowDxfId="4">
+  <autoFilter ref="B2:G185" xr:uid="{2A0284F6-0E4E-4CE1-9526-7ACFD806AE5D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:G185">
+    <sortCondition ref="B3"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F07FB46E-2261-4395-95B4-499CFE4DC5CC}" name="File ID" totalsRowLabel="Total" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{824CA5B7-C3F1-4EF2-BF5E-B7E729203F26}" name="Compound ID" dataDxfId="13"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{F07FB46E-2261-4395-95B4-499CFE4DC5CC}" name="File ID" totalsRowLabel="Total" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{824CA5B7-C3F1-4EF2-BF5E-B7E729203F26}" name="Compound ID" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{8E5ABDBD-3B43-49EC-BA36-F6AADA0EA1ED}" name="Compound Name"/>
     <tableColumn id="3" xr3:uid="{18BA9869-4705-4B91-9295-CA0136FABA04}" name="File Name" totalsRowFunction="count"/>
-    <tableColumn id="4" xr3:uid="{FB23DE31-DBC1-42B4-ABAA-CDF6F245AAEB}" name="File Adress" totalsRowFunction="count" dataDxfId="12" dataCellStyle="Hiperlink"/>
+    <tableColumn id="4" xr3:uid="{FB23DE31-DBC1-42B4-ABAA-CDF6F245AAEB}" name="File Adress" totalsRowFunction="count" dataDxfId="1" dataCellStyle="Hiperlink"/>
+    <tableColumn id="6" xr3:uid="{28AC02DD-62DD-4B4D-8018-94D9BA51E2C4}" name="extension" dataDxfId="0" dataCellStyle="Hiperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9684,7 +9673,7 @@
   <dimension ref="B2:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9739,10 +9728,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D00A50-BAF2-4D7C-9C79-39B14A850D5C}">
-  <dimension ref="B2:F186"/>
+  <dimension ref="B2:G186"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="E185" sqref="E185"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="A185" sqref="A185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9751,9 +9740,10 @@
     <col min="4" max="4" width="24.28515625" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="114.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:7">
       <c r="B2" s="4" t="s">
         <v>391</v>
       </c>
@@ -9769,8 +9759,11 @@
       <c r="F2" s="4" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="3" spans="2:6">
+      <c r="G2" s="4" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
       <c r="B3" s="9">
         <v>1</v>
       </c>
@@ -9786,8 +9779,11 @@
       <c r="F3" s="5" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="4" spans="2:6">
+      <c r="G3" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
       <c r="B4" s="9">
         <v>2</v>
       </c>
@@ -9803,8 +9799,11 @@
       <c r="F4" s="5" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="5" spans="2:6">
+      <c r="G4" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="9">
         <v>3</v>
       </c>
@@ -9820,8 +9819,11 @@
       <c r="F5" s="5" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="6" spans="2:6">
+      <c r="G5" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="9">
         <v>4</v>
       </c>
@@ -9837,8 +9839,11 @@
       <c r="F6" s="5" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="7" spans="2:6">
+      <c r="G6" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="9">
         <v>5</v>
       </c>
@@ -9854,8 +9859,11 @@
       <c r="F7" s="5" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="8" spans="2:6">
+      <c r="G7" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" s="9">
         <v>6</v>
       </c>
@@ -9871,8 +9879,11 @@
       <c r="F8" s="5" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="9" spans="2:6">
+      <c r="G8" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="9">
         <v>7</v>
       </c>
@@ -9888,8 +9899,11 @@
       <c r="F9" s="5" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="10" spans="2:6">
+      <c r="G9" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10" s="9">
         <v>8</v>
       </c>
@@ -9905,8 +9919,11 @@
       <c r="F10" s="5" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="11" spans="2:6">
+      <c r="G10" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11" s="9">
         <v>9</v>
       </c>
@@ -9922,8 +9939,11 @@
       <c r="F11" s="5" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="12" spans="2:6">
+      <c r="G11" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" s="9">
         <v>10</v>
       </c>
@@ -9939,8 +9959,11 @@
       <c r="F12" s="5" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="13" spans="2:6">
+      <c r="G12" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
       <c r="B13" s="9">
         <v>11</v>
       </c>
@@ -9956,8 +9979,11 @@
       <c r="F13" s="5" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="14" spans="2:6">
+      <c r="G13" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14" s="9">
         <v>12</v>
       </c>
@@ -9973,8 +9999,11 @@
       <c r="F14" s="5" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="15" spans="2:6">
+      <c r="G14" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
       <c r="B15" s="9">
         <v>13</v>
       </c>
@@ -9990,8 +10019,11 @@
       <c r="F15" s="5" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="16" spans="2:6">
+      <c r="G15" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
       <c r="B16" s="9">
         <v>14</v>
       </c>
@@ -10007,8 +10039,11 @@
       <c r="F16" s="5" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="17" spans="2:6">
+      <c r="G16" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17" s="9">
         <v>15</v>
       </c>
@@ -10024,8 +10059,11 @@
       <c r="F17" s="5" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="18" spans="2:6">
+      <c r="G17" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18" s="9">
         <v>16</v>
       </c>
@@ -10041,8 +10079,11 @@
       <c r="F18" s="5" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="19" spans="2:6">
+      <c r="G18" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19" s="9">
         <v>17</v>
       </c>
@@ -10058,8 +10099,11 @@
       <c r="F19" s="5" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="20" spans="2:6">
+      <c r="G19" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20" s="9">
         <v>18</v>
       </c>
@@ -10075,8 +10119,11 @@
       <c r="F20" s="5" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="21" spans="2:6">
+      <c r="G20" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" s="9">
         <v>19</v>
       </c>
@@ -10092,8 +10139,11 @@
       <c r="F21" s="5" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="22" spans="2:6">
+      <c r="G21" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22" s="9">
         <v>20</v>
       </c>
@@ -10109,8 +10159,11 @@
       <c r="F22" s="5" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="23" spans="2:6">
+      <c r="G22" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
       <c r="B23" s="9">
         <v>21</v>
       </c>
@@ -10126,8 +10179,11 @@
       <c r="F23" s="5" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="24" spans="2:6">
+      <c r="G23" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
       <c r="B24" s="9">
         <v>22</v>
       </c>
@@ -10143,8 +10199,11 @@
       <c r="F24" s="5" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="25" spans="2:6">
+      <c r="G24" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
       <c r="B25" s="9">
         <v>23</v>
       </c>
@@ -10160,8 +10219,11 @@
       <c r="F25" s="5" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="26" spans="2:6">
+      <c r="G25" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
       <c r="B26" s="9">
         <v>24</v>
       </c>
@@ -10177,8 +10239,11 @@
       <c r="F26" s="5" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="27" spans="2:6">
+      <c r="G26" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
       <c r="B27" s="9">
         <v>25</v>
       </c>
@@ -10194,8 +10259,11 @@
       <c r="F27" s="5" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="28" spans="2:6">
+      <c r="G27" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
       <c r="B28" s="9">
         <v>26</v>
       </c>
@@ -10211,8 +10279,11 @@
       <c r="F28" s="5" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="29" spans="2:6">
+      <c r="G28" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
       <c r="B29" s="9">
         <v>27</v>
       </c>
@@ -10228,8 +10299,11 @@
       <c r="F29" s="5" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="30" spans="2:6">
+      <c r="G29" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
       <c r="B30" s="9">
         <v>28</v>
       </c>
@@ -10245,8 +10319,11 @@
       <c r="F30" s="5" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="31" spans="2:6">
+      <c r="G30" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
       <c r="B31" s="9">
         <v>29</v>
       </c>
@@ -10262,8 +10339,11 @@
       <c r="F31" s="5" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="32" spans="2:6">
+      <c r="G31" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
       <c r="B32" s="9">
         <v>30</v>
       </c>
@@ -10279,8 +10359,11 @@
       <c r="F32" s="5" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="33" spans="2:6">
+      <c r="G32" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
       <c r="B33" s="9">
         <v>31</v>
       </c>
@@ -10296,8 +10379,11 @@
       <c r="F33" s="5" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="34" spans="2:6">
+      <c r="G33" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
       <c r="B34" s="9">
         <v>32</v>
       </c>
@@ -10313,8 +10399,11 @@
       <c r="F34" s="5" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="35" spans="2:6">
+      <c r="G34" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
       <c r="B35" s="9">
         <v>33</v>
       </c>
@@ -10330,8 +10419,11 @@
       <c r="F35" s="5" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="36" spans="2:6">
+      <c r="G35" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
       <c r="B36" s="9">
         <v>34</v>
       </c>
@@ -10347,8 +10439,11 @@
       <c r="F36" s="5" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="37" spans="2:6">
+      <c r="G36" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
       <c r="B37" s="9">
         <v>35</v>
       </c>
@@ -10364,8 +10459,11 @@
       <c r="F37" s="5" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="38" spans="2:6">
+      <c r="G37" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
       <c r="B38" s="9">
         <v>36</v>
       </c>
@@ -10381,8 +10479,11 @@
       <c r="F38" s="5" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="39" spans="2:6">
+      <c r="G38" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
       <c r="B39" s="9">
         <v>37</v>
       </c>
@@ -10398,8 +10499,11 @@
       <c r="F39" s="5" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="40" spans="2:6">
+      <c r="G39" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
       <c r="B40" s="9">
         <v>38</v>
       </c>
@@ -10415,8 +10519,11 @@
       <c r="F40" s="5" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="41" spans="2:6">
+      <c r="G40" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
       <c r="B41" s="9">
         <v>39</v>
       </c>
@@ -10432,8 +10539,11 @@
       <c r="F41" s="5" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="42" spans="2:6">
+      <c r="G41" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
       <c r="B42" s="9">
         <v>40</v>
       </c>
@@ -10449,8 +10559,11 @@
       <c r="F42" s="5" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="43" spans="2:6">
+      <c r="G42" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
       <c r="B43" s="9">
         <v>41</v>
       </c>
@@ -10466,8 +10579,11 @@
       <c r="F43" s="5" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="44" spans="2:6">
+      <c r="G43" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
       <c r="B44" s="9">
         <v>42</v>
       </c>
@@ -10483,8 +10599,11 @@
       <c r="F44" s="5" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="45" spans="2:6">
+      <c r="G44" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
       <c r="B45" s="9">
         <v>43</v>
       </c>
@@ -10500,8 +10619,11 @@
       <c r="F45" s="5" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="46" spans="2:6">
+      <c r="G45" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
       <c r="B46" s="9">
         <v>44</v>
       </c>
@@ -10517,8 +10639,11 @@
       <c r="F46" s="5" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="47" spans="2:6">
+      <c r="G46" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
       <c r="B47" s="9">
         <v>45</v>
       </c>
@@ -10534,8 +10659,11 @@
       <c r="F47" s="5" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="48" spans="2:6">
+      <c r="G47" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
       <c r="B48" s="9">
         <v>46</v>
       </c>
@@ -10551,8 +10679,11 @@
       <c r="F48" s="5" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="49" spans="2:6">
+      <c r="G48" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
       <c r="B49" s="9">
         <v>47</v>
       </c>
@@ -10568,8 +10699,11 @@
       <c r="F49" s="5" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="50" spans="2:6">
+      <c r="G49" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
       <c r="B50" s="9">
         <v>48</v>
       </c>
@@ -10585,8 +10719,11 @@
       <c r="F50" s="5" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="51" spans="2:6">
+      <c r="G50" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
       <c r="B51" s="9">
         <v>49</v>
       </c>
@@ -10602,8 +10739,11 @@
       <c r="F51" s="5" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="52" spans="2:6">
+      <c r="G51" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
       <c r="B52" s="9">
         <v>50</v>
       </c>
@@ -10619,8 +10759,11 @@
       <c r="F52" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="53" spans="2:6">
+      <c r="G52" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
       <c r="B53" s="9">
         <v>51</v>
       </c>
@@ -10636,8 +10779,11 @@
       <c r="F53" s="5" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="54" spans="2:6">
+      <c r="G53" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
       <c r="B54" s="9">
         <v>52</v>
       </c>
@@ -10653,8 +10799,11 @@
       <c r="F54" s="5" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="55" spans="2:6">
+      <c r="G54" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
       <c r="B55" s="9">
         <v>53</v>
       </c>
@@ -10670,8 +10819,11 @@
       <c r="F55" s="5" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="56" spans="2:6">
+      <c r="G55" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
       <c r="B56" s="9">
         <v>54</v>
       </c>
@@ -10687,8 +10839,11 @@
       <c r="F56" s="5" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="57" spans="2:6">
+      <c r="G56" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
       <c r="B57" s="9">
         <v>55</v>
       </c>
@@ -10704,8 +10859,11 @@
       <c r="F57" s="5" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="58" spans="2:6">
+      <c r="G57" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
       <c r="B58" s="9">
         <v>56</v>
       </c>
@@ -10721,8 +10879,11 @@
       <c r="F58" s="5" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="59" spans="2:6">
+      <c r="G58" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
       <c r="B59" s="9">
         <v>57</v>
       </c>
@@ -10738,8 +10899,11 @@
       <c r="F59" s="5" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="60" spans="2:6">
+      <c r="G59" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
       <c r="B60" s="9">
         <v>58</v>
       </c>
@@ -10755,8 +10919,11 @@
       <c r="F60" s="5" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="61" spans="2:6">
+      <c r="G60" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
       <c r="B61" s="9">
         <v>59</v>
       </c>
@@ -10772,8 +10939,11 @@
       <c r="F61" s="5" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="62" spans="2:6">
+      <c r="G61" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
       <c r="B62" s="9">
         <v>60</v>
       </c>
@@ -10789,8 +10959,11 @@
       <c r="F62" s="5" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="63" spans="2:6">
+      <c r="G62" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
       <c r="B63" s="9">
         <v>61</v>
       </c>
@@ -10806,8 +10979,11 @@
       <c r="F63" s="5" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="64" spans="2:6">
+      <c r="G63" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
       <c r="B64" s="9">
         <v>62</v>
       </c>
@@ -10823,8 +10999,11 @@
       <c r="F64" s="5" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="65" spans="2:6">
+      <c r="G64" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
       <c r="B65" s="9">
         <v>63</v>
       </c>
@@ -10840,8 +11019,11 @@
       <c r="F65" s="5" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="66" spans="2:6">
+      <c r="G65" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7">
       <c r="B66" s="9">
         <v>64</v>
       </c>
@@ -10857,8 +11039,11 @@
       <c r="F66" s="5" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="67" spans="2:6">
+      <c r="G66" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
       <c r="B67" s="9">
         <v>65</v>
       </c>
@@ -10874,8 +11059,11 @@
       <c r="F67" s="5" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="68" spans="2:6">
+      <c r="G67" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
       <c r="B68" s="9">
         <v>66</v>
       </c>
@@ -10891,8 +11079,11 @@
       <c r="F68" s="5" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="69" spans="2:6">
+      <c r="G68" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
       <c r="B69" s="9">
         <v>67</v>
       </c>
@@ -10908,8 +11099,11 @@
       <c r="F69" s="5" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="70" spans="2:6">
+      <c r="G69" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
       <c r="B70" s="9">
         <v>68</v>
       </c>
@@ -10925,8 +11119,11 @@
       <c r="F70" s="5" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="71" spans="2:6">
+      <c r="G70" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
       <c r="B71" s="9">
         <v>69</v>
       </c>
@@ -10942,8 +11139,11 @@
       <c r="F71" s="5" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="72" spans="2:6">
+      <c r="G71" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
       <c r="B72" s="9">
         <v>70</v>
       </c>
@@ -10959,8 +11159,11 @@
       <c r="F72" s="5" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="73" spans="2:6">
+      <c r="G72" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
       <c r="B73" s="9">
         <v>71</v>
       </c>
@@ -10976,8 +11179,11 @@
       <c r="F73" s="5" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="74" spans="2:6">
+      <c r="G73" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
       <c r="B74" s="9">
         <v>72</v>
       </c>
@@ -10993,8 +11199,11 @@
       <c r="F74" s="5" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="75" spans="2:6">
+      <c r="G74" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
       <c r="B75" s="9">
         <v>73</v>
       </c>
@@ -11010,8 +11219,11 @@
       <c r="F75" s="5" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="76" spans="2:6">
+      <c r="G75" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
       <c r="B76" s="9">
         <v>74</v>
       </c>
@@ -11027,8 +11239,11 @@
       <c r="F76" s="5" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="77" spans="2:6">
+      <c r="G76" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
       <c r="B77" s="9">
         <v>75</v>
       </c>
@@ -11044,8 +11259,11 @@
       <c r="F77" s="5" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="78" spans="2:6">
+      <c r="G77" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7">
       <c r="B78" s="9">
         <v>76</v>
       </c>
@@ -11061,8 +11279,11 @@
       <c r="F78" s="5" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="79" spans="2:6">
+      <c r="G78" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7">
       <c r="B79" s="9">
         <v>77</v>
       </c>
@@ -11078,8 +11299,11 @@
       <c r="F79" s="5" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="80" spans="2:6">
+      <c r="G79" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7">
       <c r="B80" s="9">
         <v>78</v>
       </c>
@@ -11095,8 +11319,11 @@
       <c r="F80" s="5" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="81" spans="2:6">
+      <c r="G80" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
       <c r="B81" s="9">
         <v>79</v>
       </c>
@@ -11112,8 +11339,11 @@
       <c r="F81" s="5" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="82" spans="2:6">
+      <c r="G81" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7">
       <c r="B82" s="9">
         <v>80</v>
       </c>
@@ -11129,8 +11359,11 @@
       <c r="F82" s="5" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="83" spans="2:6">
+      <c r="G82" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
       <c r="B83" s="9">
         <v>81</v>
       </c>
@@ -11146,8 +11379,11 @@
       <c r="F83" s="5" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="84" spans="2:6">
+      <c r="G83" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
       <c r="B84" s="9">
         <v>82</v>
       </c>
@@ -11163,8 +11399,11 @@
       <c r="F84" s="5" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="85" spans="2:6">
+      <c r="G84" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
       <c r="B85" s="9">
         <v>83</v>
       </c>
@@ -11180,8 +11419,11 @@
       <c r="F85" s="5" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="86" spans="2:6">
+      <c r="G85" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7">
       <c r="B86" s="9">
         <v>84</v>
       </c>
@@ -11197,8 +11439,11 @@
       <c r="F86" s="5" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="87" spans="2:6">
+      <c r="G86" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7">
       <c r="B87" s="9">
         <v>85</v>
       </c>
@@ -11214,8 +11459,11 @@
       <c r="F87" s="5" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="88" spans="2:6">
+      <c r="G87" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7">
       <c r="B88" s="9">
         <v>86</v>
       </c>
@@ -11231,8 +11479,11 @@
       <c r="F88" s="5" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="89" spans="2:6">
+      <c r="G88" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7">
       <c r="B89" s="9">
         <v>87</v>
       </c>
@@ -11248,8 +11499,11 @@
       <c r="F89" s="5" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="90" spans="2:6">
+      <c r="G89" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7">
       <c r="B90" s="9">
         <v>88</v>
       </c>
@@ -11265,8 +11519,11 @@
       <c r="F90" s="5" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="91" spans="2:6">
+      <c r="G90" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7">
       <c r="B91" s="9">
         <v>89</v>
       </c>
@@ -11282,8 +11539,11 @@
       <c r="F91" s="5" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="92" spans="2:6">
+      <c r="G91" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7">
       <c r="B92" s="9">
         <v>90</v>
       </c>
@@ -11299,8 +11559,11 @@
       <c r="F92" s="5" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="93" spans="2:6">
+      <c r="G92" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7">
       <c r="B93" s="9">
         <v>91</v>
       </c>
@@ -11316,8 +11579,11 @@
       <c r="F93" s="5" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="94" spans="2:6">
+      <c r="G93" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
       <c r="B94" s="9">
         <v>92</v>
       </c>
@@ -11333,8 +11599,11 @@
       <c r="F94" s="5" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="95" spans="2:6">
+      <c r="G94" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7">
       <c r="B95" s="9">
         <v>93</v>
       </c>
@@ -11350,8 +11619,11 @@
       <c r="F95" s="5" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="96" spans="2:6">
+      <c r="G95" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7">
       <c r="B96" s="9">
         <v>94</v>
       </c>
@@ -11367,8 +11639,11 @@
       <c r="F96" s="5" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="97" spans="2:6">
+      <c r="G96" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7">
       <c r="B97" s="9">
         <v>95</v>
       </c>
@@ -11384,8 +11659,11 @@
       <c r="F97" s="5" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="98" spans="2:6">
+      <c r="G97" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7">
       <c r="B98" s="9">
         <v>96</v>
       </c>
@@ -11401,8 +11679,11 @@
       <c r="F98" s="5" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="99" spans="2:6">
+      <c r="G98" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7">
       <c r="B99" s="9">
         <v>97</v>
       </c>
@@ -11418,8 +11699,11 @@
       <c r="F99" s="5" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="100" spans="2:6">
+      <c r="G99" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7">
       <c r="B100" s="9">
         <v>98</v>
       </c>
@@ -11435,8 +11719,11 @@
       <c r="F100" s="5" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="101" spans="2:6">
+      <c r="G100" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7">
       <c r="B101" s="9">
         <v>99</v>
       </c>
@@ -11452,8 +11739,11 @@
       <c r="F101" s="5" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="102" spans="2:6">
+      <c r="G101" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7">
       <c r="B102" s="9">
         <v>100</v>
       </c>
@@ -11469,8 +11759,11 @@
       <c r="F102" s="5" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="103" spans="2:6">
+      <c r="G102" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7">
       <c r="B103" s="9">
         <v>101</v>
       </c>
@@ -11486,8 +11779,11 @@
       <c r="F103" s="5" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="104" spans="2:6">
+      <c r="G103" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7">
       <c r="B104" s="9">
         <v>102</v>
       </c>
@@ -11503,8 +11799,11 @@
       <c r="F104" s="5" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="105" spans="2:6">
+      <c r="G104" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7">
       <c r="B105" s="9">
         <v>103</v>
       </c>
@@ -11520,8 +11819,11 @@
       <c r="F105" s="5" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="106" spans="2:6">
+      <c r="G105" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7">
       <c r="B106" s="9">
         <v>104</v>
       </c>
@@ -11532,8 +11834,9 @@
         <v>265</v>
       </c>
       <c r="F106" s="5"/>
-    </row>
-    <row r="107" spans="2:6">
+      <c r="G106" s="5"/>
+    </row>
+    <row r="107" spans="2:7">
       <c r="B107" s="9">
         <v>105</v>
       </c>
@@ -11549,8 +11852,11 @@
       <c r="F107" s="5" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="108" spans="2:6">
+      <c r="G107" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7">
       <c r="B108" s="9">
         <v>106</v>
       </c>
@@ -11561,8 +11867,9 @@
         <v>269</v>
       </c>
       <c r="F108" s="5"/>
-    </row>
-    <row r="109" spans="2:6">
+      <c r="G108" s="5"/>
+    </row>
+    <row r="109" spans="2:7">
       <c r="B109" s="9">
         <v>107</v>
       </c>
@@ -11578,8 +11885,11 @@
       <c r="F109" s="5" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="110" spans="2:6">
+      <c r="G109" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7">
       <c r="B110" s="9">
         <v>108</v>
       </c>
@@ -11595,8 +11905,11 @@
       <c r="F110" s="5" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="111" spans="2:6">
+      <c r="G110" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7">
       <c r="B111" s="9">
         <v>109</v>
       </c>
@@ -11612,8 +11925,11 @@
       <c r="F111" s="5" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="112" spans="2:6">
+      <c r="G111" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7">
       <c r="B112" s="9">
         <v>110</v>
       </c>
@@ -11629,8 +11945,11 @@
       <c r="F112" s="5" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="113" spans="2:6">
+      <c r="G112" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7">
       <c r="B113" s="9">
         <v>111</v>
       </c>
@@ -11646,8 +11965,11 @@
       <c r="F113" s="5" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="114" spans="2:6">
+      <c r="G113" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7">
       <c r="B114" s="9">
         <v>112</v>
       </c>
@@ -11663,8 +11985,11 @@
       <c r="F114" s="5" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="115" spans="2:6">
+      <c r="G114" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7">
       <c r="B115" s="9">
         <v>113</v>
       </c>
@@ -11680,8 +12005,11 @@
       <c r="F115" s="5" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="116" spans="2:6">
+      <c r="G115" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7">
       <c r="B116" s="9">
         <v>114</v>
       </c>
@@ -11697,8 +12025,11 @@
       <c r="F116" s="5" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="117" spans="2:6">
+      <c r="G116" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7">
       <c r="B117" s="9">
         <v>115</v>
       </c>
@@ -11714,8 +12045,11 @@
       <c r="F117" s="5" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="118" spans="2:6">
+      <c r="G117" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7">
       <c r="B118" s="9">
         <v>116</v>
       </c>
@@ -11731,8 +12065,11 @@
       <c r="F118" s="5" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="119" spans="2:6">
+      <c r="G118" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7">
       <c r="B119" s="9">
         <v>117</v>
       </c>
@@ -11748,8 +12085,11 @@
       <c r="F119" s="5" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="120" spans="2:6">
+      <c r="G119" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7">
       <c r="B120" s="9">
         <v>118</v>
       </c>
@@ -11765,8 +12105,11 @@
       <c r="F120" s="5" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="121" spans="2:6">
+      <c r="G120" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7">
       <c r="B121" s="9">
         <v>119</v>
       </c>
@@ -11782,8 +12125,11 @@
       <c r="F121" s="5" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="122" spans="2:6">
+      <c r="G121" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7">
       <c r="B122" s="9">
         <v>120</v>
       </c>
@@ -11799,8 +12145,11 @@
       <c r="F122" s="5" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="123" spans="2:6">
+      <c r="G122" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7">
       <c r="B123" s="9">
         <v>121</v>
       </c>
@@ -11816,8 +12165,11 @@
       <c r="F123" s="5" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="124" spans="2:6">
+      <c r="G123" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7">
       <c r="B124" s="9">
         <v>122</v>
       </c>
@@ -11833,8 +12185,11 @@
       <c r="F124" s="5" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="125" spans="2:6">
+      <c r="G124" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7">
       <c r="B125" s="9">
         <v>123</v>
       </c>
@@ -11850,8 +12205,11 @@
       <c r="F125" s="5" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="126" spans="2:6">
+      <c r="G125" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7">
       <c r="B126" s="9">
         <v>124</v>
       </c>
@@ -11867,8 +12225,11 @@
       <c r="F126" s="5" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="127" spans="2:6">
+      <c r="G126" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7">
       <c r="B127" s="9">
         <v>125</v>
       </c>
@@ -11884,8 +12245,11 @@
       <c r="F127" s="5" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="128" spans="2:6">
+      <c r="G127" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7">
       <c r="B128" s="9">
         <v>126</v>
       </c>
@@ -11901,8 +12265,11 @@
       <c r="F128" s="5" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="129" spans="2:6">
+      <c r="G128" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7">
       <c r="B129" s="9">
         <v>127</v>
       </c>
@@ -11918,8 +12285,11 @@
       <c r="F129" s="5" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="130" spans="2:6">
+      <c r="G129" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7">
       <c r="B130" s="9">
         <v>128</v>
       </c>
@@ -11935,8 +12305,11 @@
       <c r="F130" s="5" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="131" spans="2:6">
+      <c r="G130" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7">
       <c r="B131" s="9">
         <v>129</v>
       </c>
@@ -11952,8 +12325,11 @@
       <c r="F131" s="5" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="132" spans="2:6">
+      <c r="G131" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7">
       <c r="B132" s="9">
         <v>130</v>
       </c>
@@ -11969,8 +12345,11 @@
       <c r="F132" s="5" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="133" spans="2:6">
+      <c r="G132" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7">
       <c r="B133" s="9">
         <v>131</v>
       </c>
@@ -11986,8 +12365,11 @@
       <c r="F133" s="5" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="134" spans="2:6">
+      <c r="G133" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7">
       <c r="B134" s="9">
         <v>132</v>
       </c>
@@ -12003,8 +12385,11 @@
       <c r="F134" s="5" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="135" spans="2:6">
+      <c r="G134" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7">
       <c r="B135" s="9">
         <v>133</v>
       </c>
@@ -12020,8 +12405,11 @@
       <c r="F135" s="5" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="136" spans="2:6">
+      <c r="G135" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7">
       <c r="B136" s="9">
         <v>134</v>
       </c>
@@ -12032,8 +12420,9 @@
         <v>318</v>
       </c>
       <c r="F136" s="5"/>
-    </row>
-    <row r="137" spans="2:6">
+      <c r="G136" s="5"/>
+    </row>
+    <row r="137" spans="2:7">
       <c r="B137" s="9">
         <v>135</v>
       </c>
@@ -12049,8 +12438,11 @@
       <c r="F137" s="5" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="138" spans="2:6">
+      <c r="G137" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7">
       <c r="B138" s="9">
         <v>136</v>
       </c>
@@ -12066,8 +12458,11 @@
       <c r="F138" s="5" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="139" spans="2:6">
+      <c r="G138" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7">
       <c r="B139" s="9">
         <v>137</v>
       </c>
@@ -12083,8 +12478,11 @@
       <c r="F139" s="5" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="140" spans="2:6">
+      <c r="G139" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7">
       <c r="B140" s="9">
         <v>138</v>
       </c>
@@ -12100,8 +12498,11 @@
       <c r="F140" s="5" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="141" spans="2:6">
+      <c r="G140" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7">
       <c r="B141" s="9">
         <v>139</v>
       </c>
@@ -12117,8 +12518,11 @@
       <c r="F141" s="5" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="142" spans="2:6">
+      <c r="G141" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7">
       <c r="B142" s="9">
         <v>140</v>
       </c>
@@ -12134,8 +12538,11 @@
       <c r="F142" s="5" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="143" spans="2:6">
+      <c r="G142" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7">
       <c r="B143" s="9">
         <v>141</v>
       </c>
@@ -12151,8 +12558,11 @@
       <c r="F143" s="5" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="144" spans="2:6">
+      <c r="G143" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7">
       <c r="B144" s="9">
         <v>142</v>
       </c>
@@ -12163,8 +12573,9 @@
         <v>333</v>
       </c>
       <c r="F144" s="5"/>
-    </row>
-    <row r="145" spans="2:6">
+      <c r="G144" s="5"/>
+    </row>
+    <row r="145" spans="2:7">
       <c r="B145" s="9">
         <v>143</v>
       </c>
@@ -12180,8 +12591,11 @@
       <c r="F145" s="5" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="146" spans="2:6">
+      <c r="G145" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7">
       <c r="B146" s="9">
         <v>144</v>
       </c>
@@ -12197,8 +12611,11 @@
       <c r="F146" s="5" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="147" spans="2:6">
+      <c r="G146" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7">
       <c r="B147" s="9">
         <v>145</v>
       </c>
@@ -12214,8 +12631,11 @@
       <c r="F147" s="5" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="148" spans="2:6">
+      <c r="G147" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7">
       <c r="B148" s="9">
         <v>146</v>
       </c>
@@ -12231,8 +12651,11 @@
       <c r="F148" s="5" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="149" spans="2:6">
+      <c r="G148" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7">
       <c r="B149" s="9">
         <v>147</v>
       </c>
@@ -12248,8 +12671,11 @@
       <c r="F149" s="5" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="150" spans="2:6">
+      <c r="G149" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7">
       <c r="B150" s="9">
         <v>148</v>
       </c>
@@ -12265,8 +12691,11 @@
       <c r="F150" s="5" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="151" spans="2:6">
+      <c r="G150" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7">
       <c r="B151" s="9">
         <v>149</v>
       </c>
@@ -12282,8 +12711,11 @@
       <c r="F151" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="152" spans="2:6">
+      <c r="G151" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7">
       <c r="B152" s="9">
         <v>150</v>
       </c>
@@ -12299,8 +12731,11 @@
       <c r="F152" s="5" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="153" spans="2:6">
+      <c r="G152" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7">
       <c r="B153" s="9">
         <v>151</v>
       </c>
@@ -12316,8 +12751,11 @@
       <c r="F153" s="5" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="154" spans="2:6">
+      <c r="G153" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7">
       <c r="B154" s="9">
         <v>152</v>
       </c>
@@ -12333,8 +12771,11 @@
       <c r="F154" s="5" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="155" spans="2:6">
+      <c r="G154" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7">
       <c r="B155" s="9">
         <v>153</v>
       </c>
@@ -12350,8 +12791,11 @@
       <c r="F155" s="5" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="156" spans="2:6">
+      <c r="G155" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7">
       <c r="B156" s="9">
         <v>154</v>
       </c>
@@ -12367,8 +12811,11 @@
       <c r="F156" s="5" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="157" spans="2:6">
+      <c r="G156" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7">
       <c r="B157" s="9">
         <v>155</v>
       </c>
@@ -12384,8 +12831,11 @@
       <c r="F157" s="5" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="158" spans="2:6">
+      <c r="G157" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7">
       <c r="B158" s="9">
         <v>156</v>
       </c>
@@ -12401,8 +12851,11 @@
       <c r="F158" s="5" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="159" spans="2:6">
+      <c r="G158" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7">
       <c r="B159" s="9">
         <v>157</v>
       </c>
@@ -12418,8 +12871,11 @@
       <c r="F159" s="5" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="160" spans="2:6">
+      <c r="G159" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7">
       <c r="B160" s="9">
         <v>158</v>
       </c>
@@ -12435,8 +12891,11 @@
       <c r="F160" s="5" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="161" spans="2:6">
+      <c r="G160" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7">
       <c r="B161" s="9">
         <v>159</v>
       </c>
@@ -12452,8 +12911,11 @@
       <c r="F161" s="5" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="162" spans="2:6">
+      <c r="G161" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7">
       <c r="B162" s="9">
         <v>160</v>
       </c>
@@ -12469,8 +12931,11 @@
       <c r="F162" s="5" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="163" spans="2:6">
+      <c r="G162" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7">
       <c r="B163" s="9">
         <v>161</v>
       </c>
@@ -12481,8 +12946,9 @@
         <v>365</v>
       </c>
       <c r="F163" s="5"/>
-    </row>
-    <row r="164" spans="2:6">
+      <c r="G163" s="5"/>
+    </row>
+    <row r="164" spans="2:7">
       <c r="B164" s="9">
         <v>162</v>
       </c>
@@ -12498,8 +12964,11 @@
       <c r="F164" s="5" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="165" spans="2:6">
+      <c r="G164" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7">
       <c r="B165" s="9">
         <v>163</v>
       </c>
@@ -12515,8 +12984,11 @@
       <c r="F165" s="5" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="166" spans="2:6">
+      <c r="G165" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7">
       <c r="B166" s="9">
         <v>164</v>
       </c>
@@ -12532,8 +13004,11 @@
       <c r="F166" s="5" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="167" spans="2:6">
+      <c r="G166" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7">
       <c r="B167" s="9">
         <v>165</v>
       </c>
@@ -12549,8 +13024,11 @@
       <c r="F167" s="5" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="168" spans="2:6">
+      <c r="G167" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7">
       <c r="B168" s="9">
         <v>166</v>
       </c>
@@ -12566,8 +13044,11 @@
       <c r="F168" s="5" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="169" spans="2:6">
+      <c r="G168" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7">
       <c r="B169" s="9">
         <v>167</v>
       </c>
@@ -12583,8 +13064,11 @@
       <c r="F169" s="5" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="170" spans="2:6">
+      <c r="G169" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7">
       <c r="B170" s="9">
         <v>168</v>
       </c>
@@ -12600,8 +13084,11 @@
       <c r="F170" s="5" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="171" spans="2:6">
+      <c r="G170" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7">
       <c r="B171" s="9">
         <v>169</v>
       </c>
@@ -12617,8 +13104,11 @@
       <c r="F171" s="5" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="172" spans="2:6">
+      <c r="G171" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7">
       <c r="B172" s="9">
         <v>170</v>
       </c>
@@ -12634,8 +13124,11 @@
       <c r="F172" s="5" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="173" spans="2:6">
+      <c r="G172" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7">
       <c r="B173" s="9">
         <v>171</v>
       </c>
@@ -12646,8 +13139,9 @@
         <v>383</v>
       </c>
       <c r="F173" s="5"/>
-    </row>
-    <row r="174" spans="2:6">
+      <c r="G173" s="5"/>
+    </row>
+    <row r="174" spans="2:7">
       <c r="B174" s="9">
         <v>172</v>
       </c>
@@ -12663,8 +13157,11 @@
       <c r="F174" s="5" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="175" spans="2:6">
+      <c r="G174" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7">
       <c r="B175" s="9">
         <v>173</v>
       </c>
@@ -12680,8 +13177,11 @@
       <c r="F175" s="5" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="176" spans="2:6">
+      <c r="G175" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7">
       <c r="B176">
         <v>174</v>
       </c>
@@ -12697,8 +13197,11 @@
       <c r="F176" s="5" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="177" spans="2:6">
+      <c r="G176" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7">
       <c r="B177">
         <v>175</v>
       </c>
@@ -12714,8 +13217,11 @@
       <c r="F177" s="5" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="178" spans="2:6">
+      <c r="G177" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7">
       <c r="B178">
         <v>176</v>
       </c>
@@ -12731,8 +13237,11 @@
       <c r="F178" s="5" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="179" spans="2:6">
+      <c r="G178" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7">
       <c r="B179">
         <v>177</v>
       </c>
@@ -12748,8 +13257,11 @@
       <c r="F179" s="5" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="180" spans="2:6">
+      <c r="G179" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7">
       <c r="B180">
         <v>178</v>
       </c>
@@ -12765,8 +13277,11 @@
       <c r="F180" s="5" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="181" spans="2:6">
+      <c r="G180" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7">
       <c r="B181">
         <v>179</v>
       </c>
@@ -12782,8 +13297,11 @@
       <c r="F181" s="5" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="182" spans="2:6">
+      <c r="G181" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7">
       <c r="B182">
         <v>180</v>
       </c>
@@ -12799,8 +13317,11 @@
       <c r="F182" s="5" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="183" spans="2:6">
+      <c r="G182" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7">
       <c r="B183">
         <v>181</v>
       </c>
@@ -12816,8 +13337,11 @@
       <c r="F183" s="5" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="184" spans="2:6">
+      <c r="G183" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7">
       <c r="B184" s="9">
         <v>182</v>
       </c>
@@ -12833,8 +13357,11 @@
       <c r="F184" s="5" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="185" spans="2:6">
+      <c r="G184" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7">
       <c r="B185" s="9">
         <v>183</v>
       </c>
@@ -12848,8 +13375,11 @@
         <v>829</v>
       </c>
       <c r="F185" s="5"/>
-    </row>
-    <row r="186" spans="2:6">
+      <c r="G185" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7">
       <c r="B186" t="s">
         <v>439</v>
       </c>
@@ -12864,22 +13394,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:E4 E6:E12 E14 E16:E48 E50:E103 E105:E132 E134:E175">
-    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F185">
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E185">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B175 B184">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D184 C185">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B176:B183">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F32" r:id="rId1" xr:uid="{68B4E8A5-0080-4372-B4E0-62930C0A68B4}"/>

--- a/PDE3 database - Institute of Translational Medicine - University of Liverpool.xlsx
+++ b/PDE3 database - Institute of Translational Medicine - University of Liverpool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivbie\Documents\2020 - Projetos mestrado\CYFIP2\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0A2D74-772A-4F7C-B6CB-BF5E1EA2580E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED472A8-6403-4E13-81FE-93632DB73AA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2668,7 +2668,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2688,6 +2688,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -9730,8 +9731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D00A50-BAF2-4D7C-9C79-39B14A850D5C}">
   <dimension ref="B2:G186"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="A185" sqref="A185"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9820,7 +9821,7 @@
         <v>759</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -9880,7 +9881,7 @@
         <v>775</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -9900,7 +9901,7 @@
         <v>756</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -9920,7 +9921,7 @@
         <v>757</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -9960,7 +9961,7 @@
         <v>746</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="13" spans="2:7">
@@ -9980,7 +9981,7 @@
         <v>765</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -10020,7 +10021,7 @@
         <v>739</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="16" spans="2:7">
@@ -10260,7 +10261,7 @@
         <v>758</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="28" spans="2:7">
@@ -10280,7 +10281,7 @@
         <v>766</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="29" spans="2:7">
@@ -10359,7 +10360,7 @@
       <c r="F32" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="15" t="s">
         <v>832</v>
       </c>
     </row>
@@ -10440,7 +10441,7 @@
         <v>748</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="37" spans="2:7">
@@ -10480,7 +10481,7 @@
         <v>751</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="39" spans="2:7">
@@ -10560,7 +10561,7 @@
         <v>740</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="43" spans="2:7">
@@ -10580,7 +10581,7 @@
         <v>767</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="44" spans="2:7">
@@ -10620,7 +10621,7 @@
         <v>734</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="46" spans="2:7">
@@ -10640,7 +10641,7 @@
         <v>736</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="47" spans="2:7">
@@ -10660,7 +10661,7 @@
         <v>752</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="48" spans="2:7">
@@ -10700,7 +10701,7 @@
         <v>770</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="50" spans="2:7">
@@ -10780,7 +10781,7 @@
         <v>772</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="54" spans="2:7">
@@ -10860,7 +10861,7 @@
         <v>768</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="58" spans="2:7">
@@ -10900,7 +10901,7 @@
         <v>771</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="60" spans="2:7">
@@ -10940,7 +10941,7 @@
         <v>778</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="62" spans="2:7">
@@ -10980,7 +10981,7 @@
         <v>774</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="64" spans="2:7">
@@ -11000,7 +11001,7 @@
         <v>761</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="65" spans="2:7">
@@ -11040,7 +11041,7 @@
         <v>749</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="67" spans="2:7">
@@ -11060,7 +11061,7 @@
         <v>741</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="68" spans="2:7">
@@ -11240,7 +11241,7 @@
         <v>754</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="77" spans="2:7">
@@ -11359,7 +11360,7 @@
       <c r="F82" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="G82" s="14" t="s">
+      <c r="G82" s="15" t="s">
         <v>832</v>
       </c>
     </row>
@@ -11400,7 +11401,7 @@
         <v>753</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="85" spans="2:7">
@@ -11640,7 +11641,7 @@
         <v>742</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="97" spans="2:7">
@@ -11720,7 +11721,7 @@
         <v>776</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="101" spans="2:7">
@@ -11760,7 +11761,7 @@
         <v>743</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="103" spans="2:7">
@@ -11780,7 +11781,7 @@
         <v>773</v>
       </c>
       <c r="G103" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="104" spans="2:7">
@@ -11800,7 +11801,7 @@
         <v>745</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="105" spans="2:7">
@@ -11820,7 +11821,7 @@
         <v>747</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="106" spans="2:7">
@@ -11906,7 +11907,7 @@
         <v>735</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="111" spans="2:7">
@@ -12006,7 +12007,7 @@
         <v>777</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="116" spans="2:7">
@@ -12026,7 +12027,7 @@
         <v>760</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="117" spans="2:7">
@@ -12066,7 +12067,7 @@
         <v>755</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="119" spans="2:7">
@@ -12106,7 +12107,7 @@
         <v>750</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="121" spans="2:7">
@@ -12266,7 +12267,7 @@
         <v>762</v>
       </c>
       <c r="G128" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="129" spans="2:7">
@@ -12326,7 +12327,7 @@
         <v>763</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="132" spans="2:7">
@@ -12366,7 +12367,7 @@
         <v>737</v>
       </c>
       <c r="G133" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="134" spans="2:7">
@@ -12459,7 +12460,7 @@
         <v>769</v>
       </c>
       <c r="G138" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="139" spans="2:7">
@@ -12519,7 +12520,7 @@
         <v>738</v>
       </c>
       <c r="G141" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="142" spans="2:7">
@@ -12932,7 +12933,7 @@
         <v>764</v>
       </c>
       <c r="G162" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="163" spans="2:7">
@@ -13125,7 +13126,7 @@
         <v>744</v>
       </c>
       <c r="G172" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="173" spans="2:7">
@@ -13258,7 +13259,7 @@
         <v>823</v>
       </c>
       <c r="G179" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="180" spans="2:7">
@@ -13298,7 +13299,7 @@
         <v>825</v>
       </c>
       <c r="G181" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="182" spans="2:7">
@@ -13318,7 +13319,7 @@
         <v>824</v>
       </c>
       <c r="G182" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="183" spans="2:7">
@@ -13338,7 +13339,7 @@
         <v>822</v>
       </c>
       <c r="G183" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="184" spans="2:7">
@@ -13376,7 +13377,7 @@
       </c>
       <c r="F185" s="5"/>
       <c r="G185" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="186" spans="2:7">

--- a/PDE3 database - Institute of Translational Medicine - University of Liverpool.xlsx
+++ b/PDE3 database - Institute of Translational Medicine - University of Liverpool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivbie\Documents\2020 - Projetos mestrado\CYFIP2\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED472A8-6403-4E13-81FE-93632DB73AA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620AEB25-1E07-4F11-9D74-2FACC641DBD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compounds" sheetId="1" r:id="rId1"/>
@@ -2555,7 +2555,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -2597,7 +2597,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2608,6 +2608,12 @@
       <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2668,7 +2674,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2689,6 +2695,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -3415,11 +3425,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R178"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -3441,8 +3451,8 @@
     <col min="19" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17"/>
-    <row r="2" spans="2:17">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>394</v>
       </c>
@@ -3492,7 +3502,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="9">
         <v>1</v>
       </c>
@@ -3542,7 +3552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="9">
         <v>2</v>
       </c>
@@ -3590,7 +3600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <v>3</v>
       </c>
@@ -3638,7 +3648,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
         <v>4</v>
       </c>
@@ -3682,7 +3692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
         <v>5</v>
       </c>
@@ -3726,7 +3736,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
         <v>6</v>
       </c>
@@ -3762,7 +3772,7 @@
       </c>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
         <v>7</v>
       </c>
@@ -3810,7 +3820,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
         <v>8</v>
       </c>
@@ -3854,7 +3864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="9">
         <v>9</v>
       </c>
@@ -3898,7 +3908,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>10</v>
       </c>
@@ -3934,7 +3944,7 @@
       </c>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="9">
         <v>11</v>
       </c>
@@ -3982,7 +3992,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:17">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="9">
         <v>12</v>
       </c>
@@ -4011,7 +4021,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="2:17">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
         <v>13</v>
       </c>
@@ -4047,7 +4057,7 @@
       </c>
       <c r="P15" s="4"/>
     </row>
-    <row r="16" spans="2:17">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
         <v>14</v>
       </c>
@@ -4076,7 +4086,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:17">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="9">
         <v>15</v>
       </c>
@@ -4124,7 +4134,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:17">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <v>16</v>
       </c>
@@ -4153,7 +4163,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="2:17">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="9">
         <v>17</v>
       </c>
@@ -4197,7 +4207,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="2:17">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
         <v>18</v>
       </c>
@@ -4244,7 +4254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:17">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="9">
         <v>19</v>
       </c>
@@ -4288,7 +4298,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:17">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="9">
         <v>20</v>
       </c>
@@ -4323,7 +4333,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="23" spans="2:17">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="9">
         <v>21</v>
       </c>
@@ -4352,7 +4362,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="2:17">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="9">
         <v>22</v>
       </c>
@@ -4381,7 +4391,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="2:17">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="9">
         <v>23</v>
       </c>
@@ -4416,7 +4426,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="26" spans="2:17">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="9">
         <v>24</v>
       </c>
@@ -4445,7 +4455,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:17">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="9">
         <v>25</v>
       </c>
@@ -4489,7 +4499,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="2:17">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="9">
         <v>26</v>
       </c>
@@ -4536,7 +4546,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="2:17">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="9">
         <v>27</v>
       </c>
@@ -4571,7 +4581,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="30" spans="2:17">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="9">
         <v>28</v>
       </c>
@@ -4606,7 +4616,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="31" spans="2:17">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="9">
         <v>29</v>
       </c>
@@ -4635,7 +4645,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="2:17">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="9">
         <v>30</v>
       </c>
@@ -4670,7 +4680,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="33" spans="2:17">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="9">
         <v>31</v>
       </c>
@@ -4699,7 +4709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:17">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="9">
         <v>32</v>
       </c>
@@ -4728,7 +4738,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="2:17">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="9">
         <v>33</v>
       </c>
@@ -4772,7 +4782,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="2:17">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="9">
         <v>34</v>
       </c>
@@ -4820,7 +4830,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="2:17">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="9">
         <v>35</v>
       </c>
@@ -4849,7 +4859,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="2:17">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="9">
         <v>36</v>
       </c>
@@ -4884,7 +4894,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="39" spans="2:17">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="9">
         <v>37</v>
       </c>
@@ -4928,7 +4938,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="2:17">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="9">
         <v>38</v>
       </c>
@@ -4963,7 +4973,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="41" spans="2:17">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="9">
         <v>39</v>
       </c>
@@ -4998,7 +5008,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="42" spans="2:17">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="9">
         <v>40</v>
       </c>
@@ -5033,7 +5043,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="43" spans="2:17">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" s="9">
         <v>41</v>
       </c>
@@ -5068,7 +5078,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="44" spans="2:17">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" s="9">
         <v>42</v>
       </c>
@@ -5112,7 +5122,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="2:17">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="9">
         <v>43</v>
       </c>
@@ -5156,7 +5166,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="2:17">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" s="9">
         <v>44</v>
       </c>
@@ -5185,7 +5195,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="2:17">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" s="9">
         <v>45</v>
       </c>
@@ -5214,7 +5224,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="2:17">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48" s="9">
         <v>46</v>
       </c>
@@ -5249,7 +5259,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="49" spans="2:17">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="9">
         <v>47</v>
       </c>
@@ -5278,7 +5288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="2:17">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50" s="9">
         <v>48</v>
       </c>
@@ -5307,7 +5317,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="2:17">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="9">
         <v>49</v>
       </c>
@@ -5336,7 +5346,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="2:17">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52" s="9">
         <v>50</v>
       </c>
@@ -5380,7 +5390,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="2:17">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53" s="9">
         <v>51</v>
       </c>
@@ -5415,7 +5425,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="54" spans="2:17">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" s="9">
         <v>52</v>
       </c>
@@ -5463,7 +5473,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="2:17">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B55" s="9">
         <v>53</v>
       </c>
@@ -5511,7 +5521,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="2:17">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56" s="9">
         <v>54</v>
       </c>
@@ -5540,7 +5550,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="2:17">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B57" s="9">
         <v>55</v>
       </c>
@@ -5569,7 +5579,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="2:17">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58" s="9">
         <v>56</v>
       </c>
@@ -5598,7 +5608,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="2:17">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59" s="9">
         <v>57</v>
       </c>
@@ -5627,7 +5637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="2:17">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B60" s="9">
         <v>58</v>
       </c>
@@ -5662,7 +5672,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="61" spans="2:17">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B61" s="9">
         <v>59</v>
       </c>
@@ -5697,7 +5707,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="62" spans="2:17">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B62" s="9">
         <v>60</v>
       </c>
@@ -5741,7 +5751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="2:17">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B63" s="9">
         <v>61</v>
       </c>
@@ -5770,7 +5780,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="2:17">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B64" s="9">
         <v>62</v>
       </c>
@@ -5805,7 +5815,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="65" spans="2:17">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B65" s="9">
         <v>63</v>
       </c>
@@ -5834,7 +5844,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="2:17">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B66" s="9">
         <v>64</v>
       </c>
@@ -5863,7 +5873,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="2:17">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B67" s="9">
         <v>65</v>
       </c>
@@ -5892,7 +5902,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="2:17">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B68" s="9">
         <v>66</v>
       </c>
@@ -5927,7 +5937,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="69" spans="2:17">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B69" s="9">
         <v>67</v>
       </c>
@@ -5956,7 +5966,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="2:17">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B70" s="9">
         <v>68</v>
       </c>
@@ -5988,7 +5998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:17">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B71" s="9">
         <v>69</v>
       </c>
@@ -6036,7 +6046,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="2:17">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B72" s="9">
         <v>70</v>
       </c>
@@ -6080,7 +6090,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="2:17">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B73" s="9">
         <v>71</v>
       </c>
@@ -6109,7 +6119,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="74" spans="2:17" ht="14.25" customHeight="1">
+    <row r="74" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="9">
         <v>72</v>
       </c>
@@ -6145,7 +6155,7 @@
       </c>
       <c r="P74" s="6"/>
     </row>
-    <row r="75" spans="2:17">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B75" s="9">
         <v>73</v>
       </c>
@@ -6189,7 +6199,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="2:17">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B76" s="9">
         <v>74</v>
       </c>
@@ -6224,7 +6234,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="77" spans="2:17">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B77" s="9">
         <v>75</v>
       </c>
@@ -6268,7 +6278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="2:17">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B78" s="9">
         <v>76</v>
       </c>
@@ -6297,7 +6307,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="2:17">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B79" s="9">
         <v>77</v>
       </c>
@@ -6343,7 +6353,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="2:17">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B80" s="9">
         <v>78</v>
       </c>
@@ -6391,7 +6401,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="2:17">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B81" s="9">
         <v>79</v>
       </c>
@@ -6420,7 +6430,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="2:17">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B82" s="9">
         <v>80</v>
       </c>
@@ -6449,7 +6459,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="2:17">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B83" s="9">
         <v>81</v>
       </c>
@@ -6478,7 +6488,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="2:17">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B84" s="9">
         <v>82</v>
       </c>
@@ -6524,7 +6534,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="2:17">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B85" s="9">
         <v>83</v>
       </c>
@@ -6553,7 +6563,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="2:17">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B86" s="9">
         <v>84</v>
       </c>
@@ -6588,7 +6598,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="87" spans="2:17">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B87" s="9">
         <v>85</v>
       </c>
@@ -6632,7 +6642,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="2:17">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B88" s="9">
         <v>86</v>
       </c>
@@ -6667,7 +6677,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="89" spans="2:17">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B89" s="9">
         <v>87</v>
       </c>
@@ -6696,7 +6706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="2:17">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B90" s="9">
         <v>88</v>
       </c>
@@ -6725,7 +6735,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="2:17">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B91" s="9">
         <v>89</v>
       </c>
@@ -6769,7 +6779,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="2:17">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B92" s="9">
         <v>90</v>
       </c>
@@ -6813,7 +6823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="2:17">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B93" s="9">
         <v>91</v>
       </c>
@@ -6848,7 +6858,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="94" spans="2:17">
+    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B94" s="9">
         <v>92</v>
       </c>
@@ -6892,7 +6902,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="95" spans="2:17">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B95" s="9">
         <v>93</v>
       </c>
@@ -6927,7 +6937,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="96" spans="2:17">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B96" s="9">
         <v>94</v>
       </c>
@@ -6971,7 +6981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="2:17">
+    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B97" s="9">
         <v>95</v>
       </c>
@@ -7015,7 +7025,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="2:17">
+    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B98" s="9">
         <v>96</v>
       </c>
@@ -7044,7 +7054,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="99" spans="2:17">
+    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B99" s="9">
         <v>97</v>
       </c>
@@ -7073,7 +7083,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="100" spans="2:17">
+    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B100" s="9">
         <v>98</v>
       </c>
@@ -7102,7 +7112,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="101" spans="2:17">
+    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B101" s="9">
         <v>99</v>
       </c>
@@ -7131,7 +7141,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="2:17">
+    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B102" s="9">
         <v>100</v>
       </c>
@@ -7160,7 +7170,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="2:17">
+    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B103" s="9">
         <v>101</v>
       </c>
@@ -7189,7 +7199,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="2:17">
+    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B104" s="9">
         <v>102</v>
       </c>
@@ -7218,7 +7228,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="105" spans="2:17">
+    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B105" s="9">
         <v>103</v>
       </c>
@@ -7253,7 +7263,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="106" spans="2:17">
+    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B106" s="9">
         <v>104</v>
       </c>
@@ -7288,7 +7298,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="107" spans="2:17">
+    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B107" s="9">
         <v>105</v>
       </c>
@@ -7317,7 +7327,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="108" spans="2:17">
+    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B108" s="9">
         <v>106</v>
       </c>
@@ -7346,7 +7356,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="109" spans="2:17">
+    <row r="109" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B109" s="9">
         <v>107</v>
       </c>
@@ -7375,7 +7385,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:17">
+    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B110" s="9">
         <v>108</v>
       </c>
@@ -7419,7 +7429,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="2:17">
+    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B111" s="9">
         <v>109</v>
       </c>
@@ -7448,7 +7458,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="2:17">
+    <row r="112" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B112" s="9">
         <v>110</v>
       </c>
@@ -7477,7 +7487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="2:17">
+    <row r="113" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B113" s="9">
         <v>111</v>
       </c>
@@ -7512,7 +7522,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="114" spans="2:17">
+    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B114" s="9">
         <v>112</v>
       </c>
@@ -7541,7 +7551,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="115" spans="2:17">
+    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B115" s="9">
         <v>113</v>
       </c>
@@ -7570,7 +7580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="2:17">
+    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B116" s="9">
         <v>114</v>
       </c>
@@ -7599,7 +7609,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="2:17">
+    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B117" s="9">
         <v>115</v>
       </c>
@@ -7628,7 +7638,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="118" spans="2:17">
+    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B118" s="9">
         <v>116</v>
       </c>
@@ -7657,7 +7667,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="119" spans="2:17">
+    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B119" s="9">
         <v>117</v>
       </c>
@@ -7686,7 +7696,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="120" spans="2:17">
+    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B120" s="9">
         <v>118</v>
       </c>
@@ -7715,7 +7725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="2:17">
+    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B121" s="9">
         <v>119</v>
       </c>
@@ -7744,7 +7754,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="122" spans="2:17">
+    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B122" s="9">
         <v>120</v>
       </c>
@@ -7773,7 +7783,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="123" spans="2:17">
+    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B123" s="9">
         <v>121</v>
       </c>
@@ -7817,7 +7827,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="124" spans="2:17">
+    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B124" s="9">
         <v>122</v>
       </c>
@@ -7846,7 +7856,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="125" spans="2:17">
+    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B125" s="9">
         <v>123</v>
       </c>
@@ -7881,7 +7891,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="126" spans="2:17">
+    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B126" s="9">
         <v>124</v>
       </c>
@@ -7910,7 +7920,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="127" spans="2:17">
+    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B127" s="9">
         <v>125</v>
       </c>
@@ -7954,7 +7964,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="128" spans="2:17">
+    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B128" s="9">
         <v>126</v>
       </c>
@@ -8002,7 +8012,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="2:17">
+    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B129" s="9">
         <v>127</v>
       </c>
@@ -8037,7 +8047,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="130" spans="2:17">
+    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B130" s="9">
         <v>128</v>
       </c>
@@ -8066,7 +8076,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="2:17">
+    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B131" s="9">
         <v>129</v>
       </c>
@@ -8095,7 +8105,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="132" spans="2:17">
+    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B132" s="9">
         <v>130</v>
       </c>
@@ -8124,7 +8134,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="133" spans="2:17">
+    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B133" s="9">
         <v>131</v>
       </c>
@@ -8153,7 +8163,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="134" spans="2:17">
+    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B134" s="9">
         <v>132</v>
       </c>
@@ -8182,7 +8192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="2:17">
+    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B135" s="9">
         <v>133</v>
       </c>
@@ -8211,7 +8221,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="2:17">
+    <row r="136" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B136" s="9">
         <v>134</v>
       </c>
@@ -8240,7 +8250,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="137" spans="2:17">
+    <row r="137" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B137" s="9">
         <v>135</v>
       </c>
@@ -8269,7 +8279,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="138" spans="2:17">
+    <row r="138" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B138" s="9">
         <v>136</v>
       </c>
@@ -8298,7 +8308,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="139" spans="2:17">
+    <row r="139" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B139" s="9">
         <v>137</v>
       </c>
@@ -8327,7 +8337,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="140" spans="2:17">
+    <row r="140" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B140" s="9">
         <v>138</v>
       </c>
@@ -8371,7 +8381,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="141" spans="2:17">
+    <row r="141" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B141" s="9">
         <v>139</v>
       </c>
@@ -8400,7 +8410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="2:17">
+    <row r="142" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B142" s="9">
         <v>140</v>
       </c>
@@ -8444,7 +8454,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="2:17">
+    <row r="143" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B143" s="9">
         <v>141</v>
       </c>
@@ -8473,7 +8483,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="144" spans="2:17">
+    <row r="144" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B144" s="9">
         <v>142</v>
       </c>
@@ -8502,7 +8512,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="145" spans="2:17">
+    <row r="145" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B145" s="9">
         <v>143</v>
       </c>
@@ -8546,7 +8556,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="2:17">
+    <row r="146" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B146" s="9">
         <v>144</v>
       </c>
@@ -8575,7 +8585,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="147" spans="2:17">
+    <row r="147" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B147" s="9">
         <v>145</v>
       </c>
@@ -8604,7 +8614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="2:17">
+    <row r="148" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B148" s="9">
         <v>146</v>
       </c>
@@ -8633,7 +8643,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="149" spans="2:17">
+    <row r="149" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B149" s="9">
         <v>147</v>
       </c>
@@ -8662,7 +8672,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="150" spans="2:17">
+    <row r="150" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B150" s="9">
         <v>148</v>
       </c>
@@ -8691,7 +8701,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="151" spans="2:17">
+    <row r="151" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B151" s="9">
         <v>149</v>
       </c>
@@ -8720,7 +8730,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="2:17">
+    <row r="152" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B152" s="9">
         <v>150</v>
       </c>
@@ -8749,7 +8759,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="153" spans="2:17">
+    <row r="153" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B153" s="9">
         <v>151</v>
       </c>
@@ -8778,7 +8788,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="154" spans="2:17">
+    <row r="154" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B154" s="9">
         <v>152</v>
       </c>
@@ -8807,7 +8817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="2:17">
+    <row r="155" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B155" s="9">
         <v>153</v>
       </c>
@@ -8855,7 +8865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="2:17">
+    <row r="156" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B156" s="9">
         <v>154</v>
       </c>
@@ -8884,7 +8894,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="157" spans="2:17">
+    <row r="157" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B157" s="9">
         <v>155</v>
       </c>
@@ -8913,7 +8923,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="158" spans="2:17">
+    <row r="158" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B158" s="9">
         <v>156</v>
       </c>
@@ -8942,7 +8952,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="2:17">
+    <row r="159" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B159" s="9">
         <v>157</v>
       </c>
@@ -8986,7 +8996,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="2:17">
+    <row r="160" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B160" s="9">
         <v>158</v>
       </c>
@@ -9015,7 +9025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="2:17">
+    <row r="161" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B161" s="9">
         <v>159</v>
       </c>
@@ -9044,7 +9054,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="2:17">
+    <row r="162" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B162" s="9">
         <v>160</v>
       </c>
@@ -9092,7 +9102,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="163" spans="2:17">
+    <row r="163" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B163" s="9">
         <v>161</v>
       </c>
@@ -9121,7 +9131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="2:17">
+    <row r="164" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B164" s="9">
         <v>162</v>
       </c>
@@ -9150,7 +9160,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="2:17">
+    <row r="165" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B165" s="9">
         <v>163</v>
       </c>
@@ -9179,7 +9189,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="166" spans="2:17">
+    <row r="166" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B166" s="9">
         <v>164</v>
       </c>
@@ -9208,7 +9218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="2:17">
+    <row r="167" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B167" s="9">
         <v>165</v>
       </c>
@@ -9252,7 +9262,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="2:17">
+    <row r="168" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B168" s="9">
         <v>166</v>
       </c>
@@ -9281,7 +9291,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="169" spans="2:17">
+    <row r="169" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B169" s="9">
         <v>167</v>
       </c>
@@ -9310,7 +9320,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="170" spans="2:17">
+    <row r="170" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B170" s="9">
         <v>168</v>
       </c>
@@ -9339,7 +9349,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="171" spans="2:17">
+    <row r="171" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B171" s="9">
         <v>169</v>
       </c>
@@ -9387,7 +9397,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="172" spans="2:17">
+    <row r="172" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B172" s="9">
         <v>170</v>
       </c>
@@ -9416,7 +9426,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="173" spans="2:17">
+    <row r="173" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B173" s="9">
         <v>171</v>
       </c>
@@ -9445,7 +9455,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="174" spans="2:17">
+    <row r="174" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B174" s="9">
         <v>172</v>
       </c>
@@ -9474,10 +9484,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="2:17"/>
-    <row r="176" spans="2:17"/>
-    <row r="177"/>
-    <row r="178"/>
+    <row r="175" spans="2:17" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="2:17" x14ac:dyDescent="0.25"/>
+    <row r="177" x14ac:dyDescent="0.25"/>
+    <row r="178" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -9496,7 +9506,7 @@
       <selection activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
@@ -9507,12 +9517,12 @@
     <col min="8" max="8" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>394</v>
       </c>
@@ -9535,7 +9545,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>173</v>
       </c>
@@ -9549,7 +9559,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>174</v>
       </c>
@@ -9563,7 +9573,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>175</v>
       </c>
@@ -9577,7 +9587,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>176</v>
       </c>
@@ -9591,7 +9601,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>177</v>
       </c>
@@ -9605,7 +9615,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>178</v>
       </c>
@@ -9619,7 +9629,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>179</v>
       </c>
@@ -9633,7 +9643,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>180</v>
       </c>
@@ -9647,7 +9657,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>181</v>
       </c>
@@ -9677,7 +9687,7 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
@@ -9688,7 +9698,7 @@
     <col min="8" max="8" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>394</v>
       </c>
@@ -9711,7 +9721,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>182</v>
       </c>
@@ -9731,11 +9741,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D00A50-BAF2-4D7C-9C79-39B14A850D5C}">
   <dimension ref="B2:G186"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87:XFD87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" customWidth="1"/>
@@ -9744,7 +9754,7 @@
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>391</v>
       </c>
@@ -9764,7 +9774,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="9">
         <v>1</v>
       </c>
@@ -9784,7 +9794,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="9">
         <v>2</v>
       </c>
@@ -9804,7 +9814,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <v>3</v>
       </c>
@@ -9824,7 +9834,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
         <v>4</v>
       </c>
@@ -9844,7 +9854,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
         <v>5</v>
       </c>
@@ -9864,7 +9874,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
         <v>6</v>
       </c>
@@ -9884,7 +9894,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
         <v>7</v>
       </c>
@@ -9904,7 +9914,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
         <v>8</v>
       </c>
@@ -9924,7 +9934,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="9">
         <v>9</v>
       </c>
@@ -9944,7 +9954,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>10</v>
       </c>
@@ -9964,7 +9974,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="9">
         <v>11</v>
       </c>
@@ -9984,7 +9994,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="9">
         <v>12</v>
       </c>
@@ -10004,7 +10014,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
         <v>13</v>
       </c>
@@ -10024,7 +10034,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
         <v>14</v>
       </c>
@@ -10044,7 +10054,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="9">
         <v>15</v>
       </c>
@@ -10064,7 +10074,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <v>16</v>
       </c>
@@ -10084,7 +10094,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="9">
         <v>17</v>
       </c>
@@ -10104,7 +10114,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
         <v>18</v>
       </c>
@@ -10124,7 +10134,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="9">
         <v>19</v>
       </c>
@@ -10144,7 +10154,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="9">
         <v>20</v>
       </c>
@@ -10164,7 +10174,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="9">
         <v>21</v>
       </c>
@@ -10184,7 +10194,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="9">
         <v>22</v>
       </c>
@@ -10204,7 +10214,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="9">
         <v>23</v>
       </c>
@@ -10224,7 +10234,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="9">
         <v>24</v>
       </c>
@@ -10244,7 +10254,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="9">
         <v>25</v>
       </c>
@@ -10264,7 +10274,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="9">
         <v>26</v>
       </c>
@@ -10284,7 +10294,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="9">
         <v>27</v>
       </c>
@@ -10304,7 +10314,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="9">
         <v>28</v>
       </c>
@@ -10324,7 +10334,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="9">
         <v>29</v>
       </c>
@@ -10344,7 +10354,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="9">
         <v>30</v>
       </c>
@@ -10364,7 +10374,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="9">
         <v>31</v>
       </c>
@@ -10384,7 +10394,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="9">
         <v>32</v>
       </c>
@@ -10404,7 +10414,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="9">
         <v>33</v>
       </c>
@@ -10424,7 +10434,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="9">
         <v>34</v>
       </c>
@@ -10444,7 +10454,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="9">
         <v>35</v>
       </c>
@@ -10464,7 +10474,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="9">
         <v>36</v>
       </c>
@@ -10484,7 +10494,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="9">
         <v>37</v>
       </c>
@@ -10504,7 +10514,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="9">
         <v>38</v>
       </c>
@@ -10524,7 +10534,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="9">
         <v>39</v>
       </c>
@@ -10544,7 +10554,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="9">
         <v>40</v>
       </c>
@@ -10564,7 +10574,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="9">
         <v>41</v>
       </c>
@@ -10584,7 +10594,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="9">
         <v>42</v>
       </c>
@@ -10604,7 +10614,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="9">
         <v>43</v>
       </c>
@@ -10624,7 +10634,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="9">
         <v>44</v>
       </c>
@@ -10644,7 +10654,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="9">
         <v>45</v>
       </c>
@@ -10664,7 +10674,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="9">
         <v>46</v>
       </c>
@@ -10684,7 +10694,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="9">
         <v>47</v>
       </c>
@@ -10704,7 +10714,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="9">
         <v>48</v>
       </c>
@@ -10724,7 +10734,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="9">
         <v>49</v>
       </c>
@@ -10744,7 +10754,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="9">
         <v>50</v>
       </c>
@@ -10764,7 +10774,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="9">
         <v>51</v>
       </c>
@@ -10784,7 +10794,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="9">
         <v>52</v>
       </c>
@@ -10804,7 +10814,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="9">
         <v>53</v>
       </c>
@@ -10824,7 +10834,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="9">
         <v>54</v>
       </c>
@@ -10844,7 +10854,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="9">
         <v>55</v>
       </c>
@@ -10864,7 +10874,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="9">
         <v>56</v>
       </c>
@@ -10884,7 +10894,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="9">
         <v>57</v>
       </c>
@@ -10904,7 +10914,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="60" spans="2:7">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="9">
         <v>58</v>
       </c>
@@ -10924,7 +10934,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="9">
         <v>59</v>
       </c>
@@ -10944,7 +10954,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="9">
         <v>60</v>
       </c>
@@ -10964,7 +10974,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="9">
         <v>61</v>
       </c>
@@ -10984,7 +10994,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="9">
         <v>62</v>
       </c>
@@ -11004,7 +11014,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="65" spans="2:7">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="9">
         <v>63</v>
       </c>
@@ -11024,7 +11034,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="9">
         <v>64</v>
       </c>
@@ -11044,7 +11054,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="9">
         <v>65</v>
       </c>
@@ -11064,7 +11074,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="9">
         <v>66</v>
       </c>
@@ -11084,7 +11094,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="9">
         <v>67</v>
       </c>
@@ -11104,7 +11114,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="9">
         <v>68</v>
       </c>
@@ -11124,7 +11134,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="9">
         <v>69</v>
       </c>
@@ -11144,7 +11154,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="72" spans="2:7">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="9">
         <v>70</v>
       </c>
@@ -11164,7 +11174,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="73" spans="2:7">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="9">
         <v>71</v>
       </c>
@@ -11184,7 +11194,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="74" spans="2:7">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="9">
         <v>72</v>
       </c>
@@ -11204,7 +11214,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="75" spans="2:7">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="9">
         <v>73</v>
       </c>
@@ -11224,7 +11234,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="76" spans="2:7">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="9">
         <v>74</v>
       </c>
@@ -11244,7 +11254,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="77" spans="2:7">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="9">
         <v>75</v>
       </c>
@@ -11264,7 +11274,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="78" spans="2:7">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="9">
         <v>76</v>
       </c>
@@ -11284,7 +11294,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="79" spans="2:7">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="9">
         <v>77</v>
       </c>
@@ -11304,7 +11314,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="80" spans="2:7">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="9">
         <v>78</v>
       </c>
@@ -11324,7 +11334,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="81" spans="2:7">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="9">
         <v>79</v>
       </c>
@@ -11344,7 +11354,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="82" spans="2:7">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="9">
         <v>80</v>
       </c>
@@ -11364,7 +11374,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="83" spans="2:7">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="9">
         <v>81</v>
       </c>
@@ -11384,7 +11394,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="84" spans="2:7">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="9">
         <v>82</v>
       </c>
@@ -11404,7 +11414,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="85" spans="2:7">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="9">
         <v>83</v>
       </c>
@@ -11424,7 +11434,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="86" spans="2:7">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="9">
         <v>84</v>
       </c>
@@ -11444,27 +11454,27 @@
         <v>831</v>
       </c>
     </row>
-    <row r="87" spans="2:7">
-      <c r="B87" s="9">
+    <row r="87" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="16">
         <v>85</v>
       </c>
-      <c r="C87" s="9">
+      <c r="C87" s="16">
         <v>84</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="F87" s="18" t="s">
         <v>517</v>
       </c>
-      <c r="G87" s="14" t="s">
+      <c r="G87" s="19" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="88" spans="2:7">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="9">
         <v>86</v>
       </c>
@@ -11484,7 +11494,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="89" spans="2:7">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="9">
         <v>87</v>
       </c>
@@ -11504,7 +11514,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="90" spans="2:7">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="9">
         <v>88</v>
       </c>
@@ -11524,7 +11534,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="91" spans="2:7">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="9">
         <v>89</v>
       </c>
@@ -11544,7 +11554,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="92" spans="2:7">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="9">
         <v>90</v>
       </c>
@@ -11564,7 +11574,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="93" spans="2:7">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="9">
         <v>91</v>
       </c>
@@ -11584,7 +11594,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="94" spans="2:7">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="9">
         <v>92</v>
       </c>
@@ -11604,7 +11614,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="95" spans="2:7">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="9">
         <v>93</v>
       </c>
@@ -11624,7 +11634,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="96" spans="2:7">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="9">
         <v>94</v>
       </c>
@@ -11644,7 +11654,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="97" spans="2:7">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="9">
         <v>95</v>
       </c>
@@ -11664,7 +11674,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="98" spans="2:7">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="9">
         <v>96</v>
       </c>
@@ -11684,7 +11694,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="99" spans="2:7">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="9">
         <v>97</v>
       </c>
@@ -11704,7 +11714,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="100" spans="2:7">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="9">
         <v>98</v>
       </c>
@@ -11724,7 +11734,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="101" spans="2:7">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" s="9">
         <v>99</v>
       </c>
@@ -11744,7 +11754,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="102" spans="2:7">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" s="9">
         <v>100</v>
       </c>
@@ -11764,7 +11774,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="103" spans="2:7">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103" s="9">
         <v>101</v>
       </c>
@@ -11784,7 +11794,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="104" spans="2:7">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" s="9">
         <v>102</v>
       </c>
@@ -11804,7 +11814,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="105" spans="2:7">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" s="9">
         <v>103</v>
       </c>
@@ -11824,7 +11834,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="106" spans="2:7">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="9">
         <v>104</v>
       </c>
@@ -11837,7 +11847,7 @@
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
     </row>
-    <row r="107" spans="2:7">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" s="9">
         <v>105</v>
       </c>
@@ -11857,7 +11867,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="108" spans="2:7">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" s="9">
         <v>106</v>
       </c>
@@ -11870,7 +11880,7 @@
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
     </row>
-    <row r="109" spans="2:7">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" s="9">
         <v>107</v>
       </c>
@@ -11890,7 +11900,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="110" spans="2:7">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110" s="9">
         <v>108</v>
       </c>
@@ -11910,7 +11920,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="111" spans="2:7">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111" s="9">
         <v>109</v>
       </c>
@@ -11930,7 +11940,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="112" spans="2:7">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="9">
         <v>110</v>
       </c>
@@ -11950,7 +11960,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="113" spans="2:7">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" s="9">
         <v>111</v>
       </c>
@@ -11970,7 +11980,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="114" spans="2:7">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" s="9">
         <v>112</v>
       </c>
@@ -11990,7 +12000,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="115" spans="2:7">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" s="9">
         <v>113</v>
       </c>
@@ -12010,7 +12020,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="116" spans="2:7">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" s="9">
         <v>114</v>
       </c>
@@ -12030,7 +12040,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="117" spans="2:7">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="9">
         <v>115</v>
       </c>
@@ -12050,7 +12060,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="118" spans="2:7">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="9">
         <v>116</v>
       </c>
@@ -12070,7 +12080,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="119" spans="2:7">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="9">
         <v>117</v>
       </c>
@@ -12090,7 +12100,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="120" spans="2:7">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120" s="9">
         <v>118</v>
       </c>
@@ -12110,7 +12120,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="121" spans="2:7">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121" s="9">
         <v>119</v>
       </c>
@@ -12130,7 +12140,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="122" spans="2:7">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B122" s="9">
         <v>120</v>
       </c>
@@ -12150,7 +12160,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="123" spans="2:7">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B123" s="9">
         <v>121</v>
       </c>
@@ -12170,7 +12180,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="124" spans="2:7">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B124" s="9">
         <v>122</v>
       </c>
@@ -12190,7 +12200,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="125" spans="2:7">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B125" s="9">
         <v>123</v>
       </c>
@@ -12210,7 +12220,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="126" spans="2:7">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B126" s="9">
         <v>124</v>
       </c>
@@ -12230,7 +12240,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="127" spans="2:7">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B127" s="9">
         <v>125</v>
       </c>
@@ -12250,7 +12260,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="128" spans="2:7">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B128" s="9">
         <v>126</v>
       </c>
@@ -12270,7 +12280,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="129" spans="2:7">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129" s="9">
         <v>127</v>
       </c>
@@ -12290,7 +12300,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="130" spans="2:7">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B130" s="9">
         <v>128</v>
       </c>
@@ -12310,7 +12320,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="131" spans="2:7">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B131" s="9">
         <v>129</v>
       </c>
@@ -12330,7 +12340,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="132" spans="2:7">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B132" s="9">
         <v>130</v>
       </c>
@@ -12350,7 +12360,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="133" spans="2:7">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B133" s="9">
         <v>131</v>
       </c>
@@ -12370,7 +12380,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="134" spans="2:7">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B134" s="9">
         <v>132</v>
       </c>
@@ -12390,7 +12400,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="135" spans="2:7">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B135" s="9">
         <v>133</v>
       </c>
@@ -12410,7 +12420,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="136" spans="2:7">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B136" s="9">
         <v>134</v>
       </c>
@@ -12423,7 +12433,7 @@
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
     </row>
-    <row r="137" spans="2:7">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B137" s="9">
         <v>135</v>
       </c>
@@ -12443,7 +12453,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="138" spans="2:7">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B138" s="9">
         <v>136</v>
       </c>
@@ -12463,7 +12473,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="139" spans="2:7">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B139" s="9">
         <v>137</v>
       </c>
@@ -12483,7 +12493,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="140" spans="2:7">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B140" s="9">
         <v>138</v>
       </c>
@@ -12503,7 +12513,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="141" spans="2:7">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B141" s="9">
         <v>139</v>
       </c>
@@ -12523,7 +12533,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="142" spans="2:7">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B142" s="9">
         <v>140</v>
       </c>
@@ -12543,7 +12553,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="143" spans="2:7">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B143" s="9">
         <v>141</v>
       </c>
@@ -12563,7 +12573,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="144" spans="2:7">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B144" s="9">
         <v>142</v>
       </c>
@@ -12576,7 +12586,7 @@
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
     </row>
-    <row r="145" spans="2:7">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B145" s="9">
         <v>143</v>
       </c>
@@ -12596,7 +12606,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="146" spans="2:7">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B146" s="9">
         <v>144</v>
       </c>
@@ -12616,7 +12626,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="147" spans="2:7">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B147" s="9">
         <v>145</v>
       </c>
@@ -12636,7 +12646,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="148" spans="2:7">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B148" s="9">
         <v>146</v>
       </c>
@@ -12656,7 +12666,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="149" spans="2:7">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B149" s="9">
         <v>147</v>
       </c>
@@ -12676,7 +12686,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="150" spans="2:7">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B150" s="9">
         <v>148</v>
       </c>
@@ -12696,7 +12706,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="151" spans="2:7">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B151" s="9">
         <v>149</v>
       </c>
@@ -12716,7 +12726,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="152" spans="2:7">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B152" s="9">
         <v>150</v>
       </c>
@@ -12736,7 +12746,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="153" spans="2:7">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B153" s="9">
         <v>151</v>
       </c>
@@ -12756,7 +12766,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="154" spans="2:7">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B154" s="9">
         <v>152</v>
       </c>
@@ -12776,7 +12786,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="155" spans="2:7">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B155" s="9">
         <v>153</v>
       </c>
@@ -12796,7 +12806,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="156" spans="2:7">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B156" s="9">
         <v>154</v>
       </c>
@@ -12816,7 +12826,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="157" spans="2:7">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B157" s="9">
         <v>155</v>
       </c>
@@ -12836,7 +12846,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="158" spans="2:7">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B158" s="9">
         <v>156</v>
       </c>
@@ -12856,7 +12866,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="159" spans="2:7">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B159" s="9">
         <v>157</v>
       </c>
@@ -12876,7 +12886,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="160" spans="2:7">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B160" s="9">
         <v>158</v>
       </c>
@@ -12896,7 +12906,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="161" spans="2:7">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B161" s="9">
         <v>159</v>
       </c>
@@ -12916,7 +12926,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="162" spans="2:7">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B162" s="9">
         <v>160</v>
       </c>
@@ -12936,7 +12946,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="163" spans="2:7">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B163" s="9">
         <v>161</v>
       </c>
@@ -12949,7 +12959,7 @@
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
     </row>
-    <row r="164" spans="2:7">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B164" s="9">
         <v>162</v>
       </c>
@@ -12969,7 +12979,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="165" spans="2:7">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B165" s="9">
         <v>163</v>
       </c>
@@ -12989,7 +12999,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="166" spans="2:7">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B166" s="9">
         <v>164</v>
       </c>
@@ -13009,7 +13019,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="167" spans="2:7">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B167" s="9">
         <v>165</v>
       </c>
@@ -13029,7 +13039,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="168" spans="2:7">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B168" s="9">
         <v>166</v>
       </c>
@@ -13049,27 +13059,27 @@
         <v>831</v>
       </c>
     </row>
-    <row r="169" spans="2:7">
-      <c r="B169" s="9">
+    <row r="169" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="16">
         <v>167</v>
       </c>
-      <c r="C169" s="9">
+      <c r="C169" s="16">
         <v>166</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E169" s="17" t="s">
         <v>653</v>
       </c>
-      <c r="F169" s="5" t="s">
+      <c r="F169" s="18" t="s">
         <v>728</v>
       </c>
-      <c r="G169" s="14" t="s">
+      <c r="G169" s="19" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="170" spans="2:7">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B170" s="9">
         <v>168</v>
       </c>
@@ -13089,7 +13099,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="171" spans="2:7">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B171" s="9">
         <v>169</v>
       </c>
@@ -13109,7 +13119,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="172" spans="2:7">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B172" s="9">
         <v>170</v>
       </c>
@@ -13129,7 +13139,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="173" spans="2:7">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B173" s="9">
         <v>171</v>
       </c>
@@ -13142,7 +13152,7 @@
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
     </row>
-    <row r="174" spans="2:7">
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B174" s="9">
         <v>172</v>
       </c>
@@ -13162,7 +13172,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="175" spans="2:7">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B175" s="9">
         <v>173</v>
       </c>
@@ -13182,7 +13192,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="176" spans="2:7">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B176">
         <v>174</v>
       </c>
@@ -13202,7 +13212,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="177" spans="2:7">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B177">
         <v>175</v>
       </c>
@@ -13222,7 +13232,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="178" spans="2:7">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B178">
         <v>176</v>
       </c>
@@ -13242,7 +13252,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="179" spans="2:7">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B179">
         <v>177</v>
       </c>
@@ -13262,7 +13272,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="180" spans="2:7">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B180">
         <v>178</v>
       </c>
@@ -13282,7 +13292,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="181" spans="2:7">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B181">
         <v>179</v>
       </c>
@@ -13302,7 +13312,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="182" spans="2:7">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B182">
         <v>180</v>
       </c>
@@ -13322,7 +13332,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="183" spans="2:7">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B183">
         <v>181</v>
       </c>
@@ -13342,7 +13352,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="184" spans="2:7">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B184" s="9">
         <v>182</v>
       </c>
@@ -13362,7 +13372,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="185" spans="2:7">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B185" s="9">
         <v>183</v>
       </c>
@@ -13380,7 +13390,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="186" spans="2:7">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>439</v>
       </c>
